--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.69</v>
+        <v>13.57</v>
       </c>
       <c r="C2" t="n">
-        <v>13.69</v>
+        <v>13.53</v>
       </c>
       <c r="D2" t="n">
-        <v>13.69</v>
+        <v>13.57</v>
       </c>
       <c r="E2" t="n">
-        <v>13.69</v>
+        <v>13.53</v>
       </c>
       <c r="F2" t="n">
-        <v>1103.0113</v>
+        <v>22384.244</v>
       </c>
       <c r="G2" t="n">
-        <v>13.67716666666668</v>
+        <v>13.67266666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.53</v>
+        <v>13.69</v>
       </c>
       <c r="C3" t="n">
-        <v>13.53</v>
+        <v>13.69</v>
       </c>
       <c r="D3" t="n">
-        <v>13.53</v>
+        <v>13.69</v>
       </c>
       <c r="E3" t="n">
-        <v>13.53</v>
+        <v>13.69</v>
       </c>
       <c r="F3" t="n">
-        <v>81779.2651</v>
+        <v>1103.0113</v>
       </c>
       <c r="G3" t="n">
-        <v>13.67733333333334</v>
+        <v>13.67716666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.52</v>
+        <v>13.53</v>
       </c>
       <c r="C4" t="n">
-        <v>13.52</v>
+        <v>13.53</v>
       </c>
       <c r="D4" t="n">
-        <v>13.52</v>
+        <v>13.53</v>
       </c>
       <c r="E4" t="n">
-        <v>13.52</v>
+        <v>13.53</v>
       </c>
       <c r="F4" t="n">
-        <v>1900</v>
+        <v>81779.2651</v>
       </c>
       <c r="G4" t="n">
-        <v>13.67650000000001</v>
+        <v>13.67733333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.53</v>
+        <v>13.52</v>
       </c>
       <c r="C5" t="n">
-        <v>13.53</v>
+        <v>13.52</v>
       </c>
       <c r="D5" t="n">
-        <v>13.53</v>
+        <v>13.52</v>
       </c>
       <c r="E5" t="n">
-        <v>13.53</v>
+        <v>13.52</v>
       </c>
       <c r="F5" t="n">
-        <v>1471</v>
+        <v>1900</v>
       </c>
       <c r="G5" t="n">
-        <v>13.67900000000001</v>
+        <v>13.67650000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>13.53</v>
       </c>
       <c r="F6" t="n">
-        <v>1.5288</v>
+        <v>1471</v>
       </c>
       <c r="G6" t="n">
-        <v>13.68150000000001</v>
+        <v>13.67900000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.58</v>
+        <v>13.53</v>
       </c>
       <c r="C7" t="n">
-        <v>13.58</v>
+        <v>13.53</v>
       </c>
       <c r="D7" t="n">
-        <v>13.58</v>
+        <v>13.53</v>
       </c>
       <c r="E7" t="n">
-        <v>13.58</v>
+        <v>13.53</v>
       </c>
       <c r="F7" t="n">
-        <v>1103.0113</v>
+        <v>1.5288</v>
       </c>
       <c r="G7" t="n">
-        <v>13.68483333333334</v>
+        <v>13.68150000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="C8" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="D8" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="E8" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>1103.0113</v>
       </c>
       <c r="G8" t="n">
-        <v>13.68866666666668</v>
+        <v>13.68483333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.59</v>
+        <v>13.72</v>
       </c>
       <c r="C9" t="n">
-        <v>13.59</v>
+        <v>13.72</v>
       </c>
       <c r="D9" t="n">
-        <v>13.59</v>
+        <v>13.72</v>
       </c>
       <c r="E9" t="n">
-        <v>13.59</v>
+        <v>13.72</v>
       </c>
       <c r="F9" t="n">
-        <v>89543.5722</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>13.69016666666668</v>
+        <v>13.68866666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="C10" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D10" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="E10" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="F10" t="n">
-        <v>51425.2101</v>
+        <v>89543.5722</v>
       </c>
       <c r="G10" t="n">
-        <v>13.69316666666668</v>
+        <v>13.69016666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>13.58</v>
       </c>
       <c r="F11" t="n">
-        <v>4890.1917</v>
+        <v>51425.2101</v>
       </c>
       <c r="G11" t="n">
-        <v>13.69700000000001</v>
+        <v>13.69316666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="C12" t="n">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D12" t="n">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="E12" t="n">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="F12" t="n">
-        <v>8194.324699999999</v>
+        <v>4890.1917</v>
       </c>
       <c r="G12" t="n">
-        <v>13.70016666666668</v>
+        <v>13.69700000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>13.57</v>
       </c>
       <c r="F13" t="n">
-        <v>196</v>
+        <v>8194.324699999999</v>
       </c>
       <c r="G13" t="n">
-        <v>13.70233333333335</v>
+        <v>13.70016666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>13.57</v>
       </c>
       <c r="C14" t="n">
-        <v>13.74</v>
+        <v>13.57</v>
       </c>
       <c r="D14" t="n">
-        <v>13.74</v>
+        <v>13.57</v>
       </c>
       <c r="E14" t="n">
         <v>13.57</v>
       </c>
       <c r="F14" t="n">
-        <v>5167.168701892285</v>
+        <v>196</v>
       </c>
       <c r="G14" t="n">
-        <v>13.70633333333335</v>
+        <v>13.70233333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.75</v>
+        <v>13.57</v>
       </c>
       <c r="C15" t="n">
-        <v>13.75</v>
+        <v>13.74</v>
       </c>
       <c r="D15" t="n">
-        <v>13.75</v>
+        <v>13.74</v>
       </c>
       <c r="E15" t="n">
-        <v>13.75</v>
+        <v>13.57</v>
       </c>
       <c r="F15" t="n">
-        <v>9849.43</v>
+        <v>5167.168701892285</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71116666666668</v>
+        <v>13.70633333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.6</v>
+        <v>13.75</v>
       </c>
       <c r="C16" t="n">
-        <v>13.74</v>
+        <v>13.75</v>
       </c>
       <c r="D16" t="n">
         <v>13.75</v>
       </c>
       <c r="E16" t="n">
-        <v>13.6</v>
+        <v>13.75</v>
       </c>
       <c r="F16" t="n">
-        <v>140600</v>
+        <v>9849.43</v>
       </c>
       <c r="G16" t="n">
-        <v>13.71383333333335</v>
+        <v>13.71116666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C17" t="n">
         <v>13.74</v>
       </c>
-      <c r="C17" t="n">
-        <v>13.76</v>
-      </c>
       <c r="D17" t="n">
-        <v>13.76</v>
+        <v>13.75</v>
       </c>
       <c r="E17" t="n">
-        <v>13.74</v>
+        <v>13.6</v>
       </c>
       <c r="F17" t="n">
-        <v>17443.7442</v>
+        <v>140600</v>
       </c>
       <c r="G17" t="n">
-        <v>13.71683333333334</v>
+        <v>13.71383333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="C18" t="n">
-        <v>13.72</v>
+        <v>13.76</v>
       </c>
       <c r="D18" t="n">
-        <v>13.72</v>
+        <v>13.76</v>
       </c>
       <c r="E18" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="F18" t="n">
-        <v>2454.47</v>
+        <v>17443.7442</v>
       </c>
       <c r="G18" t="n">
-        <v>13.71366666666668</v>
+        <v>13.71683333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.77</v>
+        <v>13.72</v>
       </c>
       <c r="C19" t="n">
-        <v>13.77</v>
+        <v>13.72</v>
       </c>
       <c r="D19" t="n">
-        <v>13.77</v>
+        <v>13.72</v>
       </c>
       <c r="E19" t="n">
-        <v>13.77</v>
+        <v>13.72</v>
       </c>
       <c r="F19" t="n">
-        <v>5470.6125</v>
+        <v>2454.47</v>
       </c>
       <c r="G19" t="n">
-        <v>13.71316666666668</v>
+        <v>13.71366666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="C20" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="D20" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="E20" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="F20" t="n">
-        <v>32016.7558</v>
+        <v>5470.6125</v>
       </c>
       <c r="G20" t="n">
-        <v>13.71433333333335</v>
+        <v>13.71316666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.76</v>
+        <v>13.62</v>
       </c>
       <c r="C21" t="n">
-        <v>13.76</v>
+        <v>13.62</v>
       </c>
       <c r="D21" t="n">
-        <v>13.76</v>
+        <v>13.62</v>
       </c>
       <c r="E21" t="n">
-        <v>13.76</v>
+        <v>13.62</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>32016.7558</v>
       </c>
       <c r="G21" t="n">
-        <v>13.71583333333335</v>
+        <v>13.71433333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.66</v>
+        <v>13.76</v>
       </c>
       <c r="C22" t="n">
-        <v>13.66</v>
+        <v>13.76</v>
       </c>
       <c r="D22" t="n">
-        <v>13.66</v>
+        <v>13.76</v>
       </c>
       <c r="E22" t="n">
-        <v>13.66</v>
+        <v>13.76</v>
       </c>
       <c r="F22" t="n">
-        <v>4330</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>13.71266666666668</v>
+        <v>13.71583333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>13.66</v>
       </c>
       <c r="F23" t="n">
-        <v>10202.9816</v>
+        <v>4330</v>
       </c>
       <c r="G23" t="n">
-        <v>13.70850000000001</v>
+        <v>13.71266666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.75</v>
+        <v>13.66</v>
       </c>
       <c r="C24" t="n">
-        <v>13.75</v>
+        <v>13.66</v>
       </c>
       <c r="D24" t="n">
-        <v>13.75</v>
+        <v>13.66</v>
       </c>
       <c r="E24" t="n">
-        <v>13.75</v>
+        <v>13.66</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>10202.9816</v>
       </c>
       <c r="G24" t="n">
-        <v>13.70650000000001</v>
+        <v>13.70850000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.66</v>
+        <v>13.75</v>
       </c>
       <c r="C25" t="n">
-        <v>13.66</v>
+        <v>13.75</v>
       </c>
       <c r="D25" t="n">
-        <v>13.66</v>
+        <v>13.75</v>
       </c>
       <c r="E25" t="n">
-        <v>13.66</v>
+        <v>13.75</v>
       </c>
       <c r="F25" t="n">
-        <v>6209</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>13.70300000000001</v>
+        <v>13.70650000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>13.66</v>
       </c>
       <c r="F26" t="n">
-        <v>12725.1908</v>
+        <v>6209</v>
       </c>
       <c r="G26" t="n">
-        <v>13.69950000000001</v>
+        <v>13.70300000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="C27" t="n">
-        <v>13.59</v>
+        <v>13.66</v>
       </c>
       <c r="D27" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="E27" t="n">
-        <v>13.59</v>
+        <v>13.66</v>
       </c>
       <c r="F27" t="n">
-        <v>10202.9816</v>
+        <v>12725.1908</v>
       </c>
       <c r="G27" t="n">
-        <v>13.69466666666668</v>
+        <v>13.69950000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.66</v>
+        <v>13.61</v>
       </c>
       <c r="C28" t="n">
-        <v>13.76</v>
+        <v>13.59</v>
       </c>
       <c r="D28" t="n">
-        <v>13.76</v>
+        <v>13.61</v>
       </c>
       <c r="E28" t="n">
-        <v>13.54</v>
+        <v>13.59</v>
       </c>
       <c r="F28" t="n">
-        <v>227433.5703139535</v>
+        <v>10202.9816</v>
       </c>
       <c r="G28" t="n">
-        <v>13.69533333333334</v>
+        <v>13.69466666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.74</v>
+        <v>13.66</v>
       </c>
       <c r="C29" t="n">
-        <v>13.74</v>
+        <v>13.76</v>
       </c>
       <c r="D29" t="n">
-        <v>13.74</v>
+        <v>13.76</v>
       </c>
       <c r="E29" t="n">
-        <v>13.74</v>
+        <v>13.54</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0218340611353</v>
+        <v>227433.5703139535</v>
       </c>
       <c r="G29" t="n">
         <v>13.69533333333334</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="C30" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="D30" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="E30" t="n">
-        <v>13.59</v>
+        <v>13.74</v>
       </c>
       <c r="F30" t="n">
-        <v>6380</v>
+        <v>655.0218340611353</v>
       </c>
       <c r="G30" t="n">
-        <v>13.69000000000001</v>
+        <v>13.69533333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="C31" t="n">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="D31" t="n">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="E31" t="n">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="F31" t="n">
-        <v>2310</v>
+        <v>6380</v>
       </c>
       <c r="G31" t="n">
-        <v>13.68516666666668</v>
+        <v>13.69000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.56</v>
+        <v>13.61</v>
       </c>
       <c r="C32" t="n">
-        <v>13.56</v>
+        <v>13.61</v>
       </c>
       <c r="D32" t="n">
-        <v>13.56</v>
+        <v>13.61</v>
       </c>
       <c r="E32" t="n">
-        <v>13.56</v>
+        <v>13.61</v>
       </c>
       <c r="F32" t="n">
-        <v>891.6481</v>
+        <v>2310</v>
       </c>
       <c r="G32" t="n">
-        <v>13.67933333333335</v>
+        <v>13.68516666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.5</v>
+        <v>13.56</v>
       </c>
       <c r="C33" t="n">
-        <v>13.61</v>
+        <v>13.56</v>
       </c>
       <c r="D33" t="n">
-        <v>13.61</v>
+        <v>13.56</v>
       </c>
       <c r="E33" t="n">
-        <v>13.49</v>
+        <v>13.56</v>
       </c>
       <c r="F33" t="n">
-        <v>96049.5089</v>
+        <v>891.6481</v>
       </c>
       <c r="G33" t="n">
-        <v>13.67500000000001</v>
+        <v>13.67933333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.44</v>
+        <v>13.5</v>
       </c>
       <c r="C34" t="n">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="D34" t="n">
-        <v>13.5</v>
+        <v>13.61</v>
       </c>
       <c r="E34" t="n">
-        <v>13.32</v>
+        <v>13.49</v>
       </c>
       <c r="F34" t="n">
-        <v>166223.6837</v>
+        <v>96049.5089</v>
       </c>
       <c r="G34" t="n">
-        <v>13.66900000000001</v>
+        <v>13.67500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="C35" t="n">
         <v>13.42</v>
       </c>
-      <c r="C35" t="n">
-        <v>13.63</v>
-      </c>
       <c r="D35" t="n">
-        <v>13.63</v>
+        <v>13.5</v>
       </c>
       <c r="E35" t="n">
-        <v>13.42</v>
+        <v>13.32</v>
       </c>
       <c r="F35" t="n">
-        <v>92886.8305</v>
+        <v>166223.6837</v>
       </c>
       <c r="G35" t="n">
-        <v>13.66433333333335</v>
+        <v>13.66900000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.47</v>
+        <v>13.42</v>
       </c>
       <c r="C36" t="n">
-        <v>13.47</v>
+        <v>13.63</v>
       </c>
       <c r="D36" t="n">
-        <v>13.47</v>
+        <v>13.63</v>
       </c>
       <c r="E36" t="n">
-        <v>13.47</v>
+        <v>13.42</v>
       </c>
       <c r="F36" t="n">
-        <v>99.88290000000001</v>
+        <v>92886.8305</v>
       </c>
       <c r="G36" t="n">
-        <v>13.65700000000001</v>
+        <v>13.66433333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>13.47</v>
       </c>
       <c r="C37" t="n">
-        <v>13.42</v>
+        <v>13.47</v>
       </c>
       <c r="D37" t="n">
         <v>13.47</v>
       </c>
       <c r="E37" t="n">
-        <v>13.42</v>
+        <v>13.47</v>
       </c>
       <c r="F37" t="n">
-        <v>69250.1171</v>
+        <v>99.88290000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>13.64983333333335</v>
+        <v>13.65700000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.4</v>
+        <v>13.47</v>
       </c>
       <c r="C38" t="n">
-        <v>13.49</v>
+        <v>13.42</v>
       </c>
       <c r="D38" t="n">
-        <v>13.49</v>
+        <v>13.47</v>
       </c>
       <c r="E38" t="n">
-        <v>13.38</v>
+        <v>13.42</v>
       </c>
       <c r="F38" t="n">
-        <v>81139</v>
+        <v>69250.1171</v>
       </c>
       <c r="G38" t="n">
-        <v>13.64416666666668</v>
+        <v>13.64983333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="E39" t="n">
         <v>13.38</v>
       </c>
-      <c r="C39" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>13.37</v>
-      </c>
       <c r="F39" t="n">
-        <v>124055.9172</v>
+        <v>81139</v>
       </c>
       <c r="G39" t="n">
-        <v>13.63466666666668</v>
+        <v>13.64416666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.26</v>
+        <v>13.38</v>
       </c>
       <c r="C40" t="n">
-        <v>13.22</v>
+        <v>13.4</v>
       </c>
       <c r="D40" t="n">
-        <v>13.26</v>
+        <v>13.4</v>
       </c>
       <c r="E40" t="n">
-        <v>13.22</v>
+        <v>13.37</v>
       </c>
       <c r="F40" t="n">
-        <v>68805.3872</v>
+        <v>124055.9172</v>
       </c>
       <c r="G40" t="n">
-        <v>13.62666666666668</v>
+        <v>13.63466666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.21</v>
+        <v>13.26</v>
       </c>
       <c r="C41" t="n">
-        <v>13.23</v>
+        <v>13.22</v>
       </c>
       <c r="D41" t="n">
-        <v>13.23</v>
+        <v>13.26</v>
       </c>
       <c r="E41" t="n">
-        <v>13.21</v>
+        <v>13.22</v>
       </c>
       <c r="F41" t="n">
-        <v>126164.9852</v>
+        <v>68805.3872</v>
       </c>
       <c r="G41" t="n">
-        <v>13.61833333333334</v>
+        <v>13.62666666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.34</v>
+        <v>13.21</v>
       </c>
       <c r="C42" t="n">
-        <v>13.33</v>
+        <v>13.23</v>
       </c>
       <c r="D42" t="n">
-        <v>13.34</v>
+        <v>13.23</v>
       </c>
       <c r="E42" t="n">
-        <v>13.33</v>
+        <v>13.21</v>
       </c>
       <c r="F42" t="n">
-        <v>7939.9999</v>
+        <v>126164.9852</v>
       </c>
       <c r="G42" t="n">
-        <v>13.61166666666668</v>
+        <v>13.61833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.32</v>
+        <v>13.34</v>
       </c>
       <c r="C43" t="n">
-        <v>13.32</v>
+        <v>13.33</v>
       </c>
       <c r="D43" t="n">
-        <v>13.32</v>
+        <v>13.34</v>
       </c>
       <c r="E43" t="n">
-        <v>13.32</v>
+        <v>13.33</v>
       </c>
       <c r="F43" t="n">
-        <v>1046.7924</v>
+        <v>7939.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>13.60516666666668</v>
+        <v>13.61166666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>13.32</v>
       </c>
       <c r="F44" t="n">
-        <v>8574.501899999999</v>
+        <v>1046.7924</v>
       </c>
       <c r="G44" t="n">
-        <v>13.60166666666668</v>
+        <v>13.60516666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="C45" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="D45" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E45" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>8574.501899999999</v>
       </c>
       <c r="G45" t="n">
-        <v>13.59666666666668</v>
+        <v>13.60166666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>13.43</v>
       </c>
       <c r="F46" t="n">
-        <v>46230.6194</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
-        <v>13.59383333333334</v>
+        <v>13.59666666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>13.43</v>
       </c>
       <c r="F47" t="n">
-        <v>33000</v>
+        <v>46230.6194</v>
       </c>
       <c r="G47" t="n">
-        <v>13.58900000000001</v>
+        <v>13.59383333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>13.43</v>
       </c>
       <c r="F48" t="n">
-        <v>9395.8182</v>
+        <v>33000</v>
       </c>
       <c r="G48" t="n">
-        <v>13.58416666666668</v>
+        <v>13.58900000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>13.43</v>
       </c>
       <c r="F49" t="n">
-        <v>25368.8267</v>
+        <v>9395.8182</v>
       </c>
       <c r="G49" t="n">
-        <v>13.58016666666668</v>
+        <v>13.58416666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.45</v>
+        <v>13.43</v>
       </c>
       <c r="C50" t="n">
-        <v>13.45</v>
+        <v>13.43</v>
       </c>
       <c r="D50" t="n">
-        <v>13.45</v>
+        <v>13.43</v>
       </c>
       <c r="E50" t="n">
-        <v>13.45</v>
+        <v>13.43</v>
       </c>
       <c r="F50" t="n">
-        <v>113995.2643</v>
+        <v>25368.8267</v>
       </c>
       <c r="G50" t="n">
-        <v>13.57550000000001</v>
+        <v>13.58016666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.47</v>
+        <v>13.45</v>
       </c>
       <c r="C51" t="n">
         <v>13.45</v>
       </c>
       <c r="D51" t="n">
-        <v>13.47</v>
+        <v>13.45</v>
       </c>
       <c r="E51" t="n">
         <v>13.45</v>
       </c>
       <c r="F51" t="n">
-        <v>99136.0061</v>
+        <v>113995.2643</v>
       </c>
       <c r="G51" t="n">
-        <v>13.57233333333334</v>
+        <v>13.57550000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2189,16 +2189,16 @@
         <v>13.45</v>
       </c>
       <c r="D52" t="n">
-        <v>13.48</v>
+        <v>13.47</v>
       </c>
       <c r="E52" t="n">
         <v>13.45</v>
       </c>
       <c r="F52" t="n">
-        <v>26885.0061</v>
+        <v>99136.0061</v>
       </c>
       <c r="G52" t="n">
-        <v>13.56983333333334</v>
+        <v>13.57233333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.45</v>
+        <v>13.47</v>
       </c>
       <c r="C53" t="n">
         <v>13.45</v>
       </c>
       <c r="D53" t="n">
-        <v>13.45</v>
+        <v>13.48</v>
       </c>
       <c r="E53" t="n">
         <v>13.45</v>
       </c>
       <c r="F53" t="n">
-        <v>2855.4997</v>
+        <v>26885.0061</v>
       </c>
       <c r="G53" t="n">
-        <v>13.56550000000001</v>
+        <v>13.56983333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>13.45</v>
       </c>
       <c r="F54" t="n">
-        <v>2407.5135</v>
+        <v>2855.4997</v>
       </c>
       <c r="G54" t="n">
-        <v>13.56133333333334</v>
+        <v>13.56550000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.47</v>
+        <v>13.45</v>
       </c>
       <c r="C55" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="D55" t="n">
-        <v>13.65</v>
+        <v>13.45</v>
       </c>
       <c r="E55" t="n">
-        <v>13.47</v>
+        <v>13.45</v>
       </c>
       <c r="F55" t="n">
-        <v>348163.3725</v>
+        <v>2407.5135</v>
       </c>
       <c r="G55" t="n">
-        <v>13.56066666666668</v>
+        <v>13.56133333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C56" t="n">
         <v>13.57</v>
       </c>
-      <c r="C56" t="n">
-        <v>13.7</v>
-      </c>
       <c r="D56" t="n">
-        <v>13.77</v>
+        <v>13.65</v>
       </c>
       <c r="E56" t="n">
-        <v>13.57</v>
+        <v>13.47</v>
       </c>
       <c r="F56" t="n">
-        <v>171706.9039</v>
+        <v>348163.3725</v>
       </c>
       <c r="G56" t="n">
-        <v>13.56050000000001</v>
+        <v>13.56066666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.79</v>
+        <v>13.57</v>
       </c>
       <c r="C57" t="n">
-        <v>13.79</v>
+        <v>13.7</v>
       </c>
       <c r="D57" t="n">
-        <v>13.79</v>
+        <v>13.77</v>
       </c>
       <c r="E57" t="n">
-        <v>13.61</v>
+        <v>13.57</v>
       </c>
       <c r="F57" t="n">
-        <v>22080.7375</v>
+        <v>171706.9039</v>
       </c>
       <c r="G57" t="n">
-        <v>13.56366666666668</v>
+        <v>13.56050000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>13.79</v>
       </c>
       <c r="C58" t="n">
-        <v>13.89</v>
+        <v>13.79</v>
       </c>
       <c r="D58" t="n">
-        <v>13.9</v>
+        <v>13.79</v>
       </c>
       <c r="E58" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="F58" t="n">
-        <v>316728.3296</v>
+        <v>22080.7375</v>
       </c>
       <c r="G58" t="n">
-        <v>13.56883333333334</v>
+        <v>13.56366666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C59" t="n">
         <v>13.89</v>
       </c>
-      <c r="C59" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D59" t="n">
-        <v>13.98</v>
+        <v>13.9</v>
       </c>
       <c r="E59" t="n">
-        <v>13.71</v>
+        <v>13.65</v>
       </c>
       <c r="F59" t="n">
-        <v>172374.3427</v>
+        <v>316728.3296</v>
       </c>
       <c r="G59" t="n">
-        <v>13.57016666666667</v>
+        <v>13.56883333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.85</v>
+        <v>13.89</v>
       </c>
       <c r="C60" t="n">
-        <v>13.65</v>
+        <v>13.8</v>
       </c>
       <c r="D60" t="n">
-        <v>13.95</v>
+        <v>13.98</v>
       </c>
       <c r="E60" t="n">
-        <v>13.65</v>
+        <v>13.71</v>
       </c>
       <c r="F60" t="n">
-        <v>306669.9393</v>
+        <v>172374.3427</v>
       </c>
       <c r="G60" t="n">
-        <v>13.57133333333334</v>
+        <v>13.57016666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>13.85</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>13.65</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="E61" t="n">
-        <v>13.76</v>
+        <v>13.65</v>
       </c>
       <c r="F61" t="n">
-        <v>265970.3768</v>
+        <v>306669.9393</v>
       </c>
       <c r="G61" t="n">
-        <v>13.57916666666667</v>
+        <v>13.57133333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C62" t="n">
         <v>14</v>
       </c>
-      <c r="C62" t="n">
-        <v>14.23</v>
-      </c>
       <c r="D62" t="n">
-        <v>14.23</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
         <v>13.76</v>
       </c>
       <c r="F62" t="n">
-        <v>372224.7323</v>
+        <v>265970.3768</v>
       </c>
       <c r="G62" t="n">
-        <v>13.58816666666667</v>
+        <v>13.57916666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>14.5</v>
+        <v>14.23</v>
       </c>
       <c r="D63" t="n">
-        <v>14.5</v>
+        <v>14.23</v>
       </c>
       <c r="E63" t="n">
-        <v>14.2</v>
+        <v>13.76</v>
       </c>
       <c r="F63" t="n">
-        <v>359426.3414426966</v>
+        <v>372224.7323</v>
       </c>
       <c r="G63" t="n">
-        <v>13.60433333333334</v>
+        <v>13.58816666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="C64" t="n">
-        <v>13.93</v>
+        <v>14.5</v>
       </c>
       <c r="D64" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="E64" t="n">
-        <v>13.93</v>
+        <v>14.2</v>
       </c>
       <c r="F64" t="n">
-        <v>5913.7161</v>
+        <v>359426.3414426966</v>
       </c>
       <c r="G64" t="n">
-        <v>13.61116666666667</v>
+        <v>13.60433333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C65" t="n">
-        <v>14.49</v>
+        <v>13.93</v>
       </c>
       <c r="D65" t="n">
-        <v>14.49</v>
+        <v>14.3</v>
       </c>
       <c r="E65" t="n">
-        <v>14.09</v>
+        <v>13.93</v>
       </c>
       <c r="F65" t="n">
-        <v>9627.0105</v>
+        <v>5913.7161</v>
       </c>
       <c r="G65" t="n">
-        <v>13.62716666666667</v>
+        <v>13.61116666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C66" t="n">
         <v>14.49</v>
       </c>
       <c r="D66" t="n">
-        <v>14.5</v>
+        <v>14.49</v>
       </c>
       <c r="E66" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="F66" t="n">
-        <v>198307.4239</v>
+        <v>9627.0105</v>
       </c>
       <c r="G66" t="n">
-        <v>13.64316666666667</v>
+        <v>13.62716666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.12</v>
+        <v>14.1</v>
       </c>
       <c r="C67" t="n">
-        <v>14.16</v>
+        <v>14.49</v>
       </c>
       <c r="D67" t="n">
-        <v>14.16</v>
+        <v>14.5</v>
       </c>
       <c r="E67" t="n">
-        <v>13.88</v>
+        <v>14.1</v>
       </c>
       <c r="F67" t="n">
-        <v>36591.3929</v>
+        <v>198307.4239</v>
       </c>
       <c r="G67" t="n">
-        <v>13.65283333333334</v>
+        <v>13.64316666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.27</v>
+        <v>14.12</v>
       </c>
       <c r="C68" t="n">
-        <v>13.87</v>
+        <v>14.16</v>
       </c>
       <c r="D68" t="n">
-        <v>14.27</v>
+        <v>14.16</v>
       </c>
       <c r="E68" t="n">
-        <v>13.87</v>
+        <v>13.88</v>
       </c>
       <c r="F68" t="n">
-        <v>63159.7401</v>
+        <v>36591.3929</v>
       </c>
       <c r="G68" t="n">
-        <v>13.65533333333334</v>
+        <v>13.65283333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.16</v>
+        <v>14.27</v>
       </c>
       <c r="C69" t="n">
-        <v>14.2</v>
+        <v>13.87</v>
       </c>
       <c r="D69" t="n">
-        <v>14.2</v>
+        <v>14.27</v>
       </c>
       <c r="E69" t="n">
-        <v>14.16</v>
+        <v>13.87</v>
       </c>
       <c r="F69" t="n">
-        <v>72</v>
+        <v>63159.7401</v>
       </c>
       <c r="G69" t="n">
-        <v>13.66550000000001</v>
+        <v>13.65533333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.14</v>
+        <v>14.16</v>
       </c>
       <c r="C70" t="n">
-        <v>13.91</v>
+        <v>14.2</v>
       </c>
       <c r="D70" t="n">
-        <v>14.26</v>
+        <v>14.2</v>
       </c>
       <c r="E70" t="n">
-        <v>13.91</v>
+        <v>14.16</v>
       </c>
       <c r="F70" t="n">
-        <v>15319</v>
+        <v>72</v>
       </c>
       <c r="G70" t="n">
-        <v>13.671</v>
+        <v>13.66550000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.04</v>
+        <v>14.14</v>
       </c>
       <c r="C71" t="n">
-        <v>14.09</v>
+        <v>13.91</v>
       </c>
       <c r="D71" t="n">
-        <v>14.09</v>
+        <v>14.26</v>
       </c>
       <c r="E71" t="n">
-        <v>13.9</v>
+        <v>13.91</v>
       </c>
       <c r="F71" t="n">
-        <v>163129.9862</v>
+        <v>15319</v>
       </c>
       <c r="G71" t="n">
-        <v>13.67950000000001</v>
+        <v>13.671</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.1</v>
+        <v>14.04</v>
       </c>
       <c r="C72" t="n">
-        <v>13.89</v>
+        <v>14.09</v>
       </c>
       <c r="D72" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="E72" t="n">
-        <v>13.89</v>
+        <v>13.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5480.9978</v>
+        <v>163129.9862</v>
       </c>
       <c r="G72" t="n">
-        <v>13.68483333333334</v>
+        <v>13.67950000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.07</v>
+        <v>14.1</v>
       </c>
       <c r="C73" t="n">
-        <v>14.07</v>
+        <v>13.89</v>
       </c>
       <c r="D73" t="n">
-        <v>14.07</v>
+        <v>14.1</v>
       </c>
       <c r="E73" t="n">
-        <v>14.07</v>
+        <v>13.89</v>
       </c>
       <c r="F73" t="n">
-        <v>36</v>
+        <v>5480.9978</v>
       </c>
       <c r="G73" t="n">
-        <v>13.69316666666667</v>
+        <v>13.68483333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.9</v>
+        <v>14.07</v>
       </c>
       <c r="C74" t="n">
-        <v>13.82</v>
+        <v>14.07</v>
       </c>
       <c r="D74" t="n">
-        <v>13.9</v>
+        <v>14.07</v>
       </c>
       <c r="E74" t="n">
-        <v>13.67</v>
+        <v>14.07</v>
       </c>
       <c r="F74" t="n">
-        <v>98444.8299</v>
+        <v>36</v>
       </c>
       <c r="G74" t="n">
-        <v>13.69450000000001</v>
+        <v>13.69316666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.61</v>
+        <v>13.9</v>
       </c>
       <c r="C75" t="n">
-        <v>13.61</v>
+        <v>13.82</v>
       </c>
       <c r="D75" t="n">
-        <v>13.61</v>
+        <v>13.9</v>
       </c>
       <c r="E75" t="n">
-        <v>13.61</v>
+        <v>13.67</v>
       </c>
       <c r="F75" t="n">
-        <v>7200</v>
+        <v>98444.8299</v>
       </c>
       <c r="G75" t="n">
-        <v>13.69216666666667</v>
+        <v>13.69450000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.8</v>
+        <v>13.61</v>
       </c>
       <c r="C76" t="n">
-        <v>13.81</v>
+        <v>13.61</v>
       </c>
       <c r="D76" t="n">
-        <v>13.81</v>
+        <v>13.61</v>
       </c>
       <c r="E76" t="n">
-        <v>13.8</v>
+        <v>13.61</v>
       </c>
       <c r="F76" t="n">
-        <v>72</v>
+        <v>7200</v>
       </c>
       <c r="G76" t="n">
-        <v>13.69333333333334</v>
+        <v>13.69216666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.63</v>
+        <v>13.8</v>
       </c>
       <c r="C77" t="n">
-        <v>13.61</v>
+        <v>13.81</v>
       </c>
       <c r="D77" t="n">
-        <v>13.63</v>
+        <v>13.81</v>
       </c>
       <c r="E77" t="n">
-        <v>13.61</v>
+        <v>13.8</v>
       </c>
       <c r="F77" t="n">
-        <v>69974.10739999999</v>
+        <v>72</v>
       </c>
       <c r="G77" t="n">
-        <v>13.69083333333334</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.6</v>
+        <v>13.63</v>
       </c>
       <c r="C78" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D78" t="n">
-        <v>13.6</v>
+        <v>13.63</v>
       </c>
       <c r="E78" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="F78" t="n">
-        <v>7130.7468</v>
+        <v>69974.10739999999</v>
       </c>
       <c r="G78" t="n">
-        <v>13.68883333333334</v>
+        <v>13.69083333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="C79" t="n">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D79" t="n">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="E79" t="n">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="F79" t="n">
-        <v>40</v>
+        <v>7130.7468</v>
       </c>
       <c r="G79" t="n">
-        <v>13.68616666666667</v>
+        <v>13.68883333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="C80" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D80" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="E80" t="n">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="F80" t="n">
-        <v>32068.5436</v>
+        <v>40</v>
       </c>
       <c r="G80" t="n">
-        <v>13.68583333333334</v>
+        <v>13.68616666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.69</v>
+        <v>13.6</v>
       </c>
       <c r="C81" t="n">
-        <v>13.74</v>
+        <v>13.6</v>
       </c>
       <c r="D81" t="n">
-        <v>13.74</v>
+        <v>13.6</v>
       </c>
       <c r="E81" t="n">
-        <v>13.69</v>
+        <v>13.6</v>
       </c>
       <c r="F81" t="n">
-        <v>8011.536918704513</v>
+        <v>32068.5436</v>
       </c>
       <c r="G81" t="n">
-        <v>13.68550000000001</v>
+        <v>13.68583333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.72</v>
+        <v>13.69</v>
       </c>
       <c r="C82" t="n">
-        <v>13.62</v>
+        <v>13.74</v>
       </c>
       <c r="D82" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="E82" t="n">
-        <v>13.62</v>
+        <v>13.69</v>
       </c>
       <c r="F82" t="n">
-        <v>169514.8266</v>
+        <v>8011.536918704513</v>
       </c>
       <c r="G82" t="n">
-        <v>13.68483333333334</v>
+        <v>13.68550000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.63</v>
+        <v>13.72</v>
       </c>
       <c r="C83" t="n">
-        <v>13.66</v>
+        <v>13.62</v>
       </c>
       <c r="D83" t="n">
-        <v>13.66</v>
+        <v>13.72</v>
       </c>
       <c r="E83" t="n">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="F83" t="n">
-        <v>13174.9738</v>
+        <v>169514.8266</v>
       </c>
       <c r="G83" t="n">
         <v>13.68483333333334</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.6</v>
+        <v>13.63</v>
       </c>
       <c r="C84" t="n">
-        <v>13.57</v>
+        <v>13.66</v>
       </c>
       <c r="D84" t="n">
-        <v>13.6</v>
+        <v>13.66</v>
       </c>
       <c r="E84" t="n">
-        <v>13.57</v>
+        <v>13.63</v>
       </c>
       <c r="F84" t="n">
-        <v>83370.5203</v>
+        <v>13174.9738</v>
       </c>
       <c r="G84" t="n">
-        <v>13.68183333333334</v>
+        <v>13.68483333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.54</v>
+        <v>13.6</v>
       </c>
       <c r="C85" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="D85" t="n">
-        <v>13.54</v>
+        <v>13.6</v>
       </c>
       <c r="E85" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="F85" t="n">
-        <v>48892.3296</v>
+        <v>83370.5203</v>
       </c>
       <c r="G85" t="n">
-        <v>13.67983333333334</v>
+        <v>13.68183333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.52</v>
+        <v>13.54</v>
       </c>
       <c r="C86" t="n">
-        <v>13.52</v>
+        <v>13.54</v>
       </c>
       <c r="D86" t="n">
-        <v>13.52</v>
+        <v>13.54</v>
       </c>
       <c r="E86" t="n">
-        <v>13.52</v>
+        <v>13.54</v>
       </c>
       <c r="F86" t="n">
-        <v>37</v>
+        <v>48892.3296</v>
       </c>
       <c r="G86" t="n">
-        <v>13.67750000000001</v>
+        <v>13.67983333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>13.52</v>
       </c>
       <c r="C87" t="n">
-        <v>13.51</v>
+        <v>13.52</v>
       </c>
       <c r="D87" t="n">
         <v>13.52</v>
       </c>
       <c r="E87" t="n">
-        <v>13.51</v>
+        <v>13.52</v>
       </c>
       <c r="F87" t="n">
-        <v>928</v>
+        <v>37</v>
       </c>
       <c r="G87" t="n">
-        <v>13.67616666666667</v>
+        <v>13.67750000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.49</v>
+        <v>13.52</v>
       </c>
       <c r="C88" t="n">
-        <v>13.49</v>
+        <v>13.51</v>
       </c>
       <c r="D88" t="n">
-        <v>13.49</v>
+        <v>13.52</v>
       </c>
       <c r="E88" t="n">
-        <v>13.49</v>
+        <v>13.51</v>
       </c>
       <c r="F88" t="n">
-        <v>13456.5347</v>
+        <v>928</v>
       </c>
       <c r="G88" t="n">
-        <v>13.67166666666667</v>
+        <v>13.67616666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3484,25 +3484,29 @@
         <v>13.49</v>
       </c>
       <c r="D89" t="n">
-        <v>13.57</v>
+        <v>13.49</v>
       </c>
       <c r="E89" t="n">
         <v>13.49</v>
       </c>
       <c r="F89" t="n">
-        <v>177043.9834</v>
+        <v>13456.5347</v>
       </c>
       <c r="G89" t="n">
-        <v>13.66750000000001</v>
+        <v>13.67166666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="K89" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3513,32 +3517,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.58</v>
+        <v>13.49</v>
       </c>
       <c r="C90" t="n">
-        <v>13.58</v>
+        <v>13.49</v>
       </c>
       <c r="D90" t="n">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="E90" t="n">
-        <v>13.58</v>
+        <v>13.49</v>
       </c>
       <c r="F90" t="n">
-        <v>37.215</v>
+        <v>177043.9834</v>
       </c>
       <c r="G90" t="n">
-        <v>13.66733333333334</v>
+        <v>13.66750000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K90" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,32 +3560,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.5</v>
+        <v>13.58</v>
       </c>
       <c r="C91" t="n">
-        <v>13.5</v>
+        <v>13.58</v>
       </c>
       <c r="D91" t="n">
-        <v>13.5</v>
+        <v>13.58</v>
       </c>
       <c r="E91" t="n">
-        <v>13.5</v>
+        <v>13.58</v>
       </c>
       <c r="F91" t="n">
-        <v>29200</v>
+        <v>37.215</v>
       </c>
       <c r="G91" t="n">
-        <v>13.66550000000001</v>
+        <v>13.66733333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K91" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3615,10 @@
         <v>13.5</v>
       </c>
       <c r="F92" t="n">
-        <v>11362.03</v>
+        <v>29200</v>
       </c>
       <c r="G92" t="n">
-        <v>13.66450000000001</v>
+        <v>13.66550000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3656,10 @@
         <v>13.5</v>
       </c>
       <c r="F93" t="n">
-        <v>25682.3759</v>
+        <v>11362.03</v>
       </c>
       <c r="G93" t="n">
-        <v>13.66266666666667</v>
+        <v>13.66450000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3685,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.58</v>
+        <v>13.5</v>
       </c>
       <c r="C94" t="n">
-        <v>13.58</v>
+        <v>13.5</v>
       </c>
       <c r="D94" t="n">
-        <v>13.58</v>
+        <v>13.5</v>
       </c>
       <c r="E94" t="n">
-        <v>13.58</v>
+        <v>13.5</v>
       </c>
       <c r="F94" t="n">
-        <v>63686.9389</v>
+        <v>25682.3759</v>
       </c>
       <c r="G94" t="n">
-        <v>13.66533333333334</v>
+        <v>13.66266666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +3738,10 @@
         <v>13.58</v>
       </c>
       <c r="F95" t="n">
-        <v>4557.3476</v>
+        <v>63686.9389</v>
       </c>
       <c r="G95" t="n">
-        <v>13.66450000000001</v>
+        <v>13.66533333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3750,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,33 +3770,33 @@
         <v>13.58</v>
       </c>
       <c r="C96" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="D96" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="E96" t="n">
         <v>13.58</v>
       </c>
       <c r="F96" t="n">
-        <v>23070.9384</v>
+        <v>4557.3476</v>
       </c>
       <c r="G96" t="n">
-        <v>13.66683333333334</v>
+        <v>13.66450000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3764,7 +3808,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="C97" t="n">
         <v>13.61</v>
@@ -3773,13 +3817,13 @@
         <v>13.61</v>
       </c>
       <c r="E97" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="F97" t="n">
-        <v>5083.3776</v>
+        <v>23070.9384</v>
       </c>
       <c r="G97" t="n">
-        <v>13.67000000000001</v>
+        <v>13.66683333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3788,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3806,19 +3852,19 @@
         <v>13.61</v>
       </c>
       <c r="C98" t="n">
-        <v>13.58</v>
+        <v>13.61</v>
       </c>
       <c r="D98" t="n">
         <v>13.61</v>
       </c>
       <c r="E98" t="n">
-        <v>13.58</v>
+        <v>13.61</v>
       </c>
       <c r="F98" t="n">
-        <v>41748.1785</v>
+        <v>5083.3776</v>
       </c>
       <c r="G98" t="n">
-        <v>13.67150000000001</v>
+        <v>13.67000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3827,7 +3873,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,33 +3890,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C99" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D99" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F99" t="n">
+        <v>41748.1785</v>
+      </c>
+      <c r="G99" t="n">
+        <v>13.67150000000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
         <v>13.51</v>
       </c>
-      <c r="C99" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="D99" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E99" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="F99" t="n">
-        <v>20073.9155</v>
-      </c>
-      <c r="G99" t="n">
-        <v>13.67550000000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,7 +3931,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.64</v>
+        <v>13.51</v>
       </c>
       <c r="C100" t="n">
         <v>13.64</v>
@@ -3892,24 +3940,24 @@
         <v>13.64</v>
       </c>
       <c r="E100" t="n">
-        <v>13.64</v>
+        <v>13.51</v>
       </c>
       <c r="F100" t="n">
-        <v>2360.5623</v>
+        <v>20073.9155</v>
       </c>
       <c r="G100" t="n">
-        <v>13.68250000000001</v>
+        <v>13.67550000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3927,19 +3975,19 @@
         <v>13.64</v>
       </c>
       <c r="C101" t="n">
-        <v>13.52</v>
+        <v>13.64</v>
       </c>
       <c r="D101" t="n">
         <v>13.64</v>
       </c>
       <c r="E101" t="n">
-        <v>13.52</v>
+        <v>13.64</v>
       </c>
       <c r="F101" t="n">
-        <v>15929</v>
+        <v>2360.5623</v>
       </c>
       <c r="G101" t="n">
-        <v>13.68733333333334</v>
+        <v>13.68250000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3948,7 +3996,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,22 +4013,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="C102" t="n">
-        <v>13.65</v>
+        <v>13.52</v>
       </c>
       <c r="D102" t="n">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="E102" t="n">
-        <v>13.65</v>
+        <v>13.52</v>
       </c>
       <c r="F102" t="n">
-        <v>7490.1137</v>
+        <v>15929</v>
       </c>
       <c r="G102" t="n">
-        <v>13.69266666666667</v>
+        <v>13.68733333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3987,7 +4037,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,31 +4054,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D103" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E103" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7490.1137</v>
+      </c>
+      <c r="G103" t="n">
+        <v>13.69266666666667</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
         <v>13.51</v>
       </c>
-      <c r="C103" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="D103" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="E103" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="F103" t="n">
-        <v>22200</v>
-      </c>
-      <c r="G103" t="n">
-        <v>13.69516666666667</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,22 +4095,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C104" t="n">
         <v>13.47</v>
       </c>
-      <c r="C104" t="n">
-        <v>13.33</v>
-      </c>
       <c r="D104" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="E104" t="n">
         <v>13.47</v>
       </c>
-      <c r="E104" t="n">
-        <v>13.31</v>
-      </c>
       <c r="F104" t="n">
-        <v>180283.3834</v>
+        <v>22200</v>
       </c>
       <c r="G104" t="n">
-        <v>13.69533333333334</v>
+        <v>13.69516666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4065,7 +4119,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,22 +4136,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.32</v>
+        <v>13.47</v>
       </c>
       <c r="C105" t="n">
-        <v>13.2</v>
+        <v>13.33</v>
       </c>
       <c r="D105" t="n">
-        <v>13.32</v>
+        <v>13.47</v>
       </c>
       <c r="E105" t="n">
-        <v>13.2</v>
+        <v>13.31</v>
       </c>
       <c r="F105" t="n">
-        <v>4000</v>
+        <v>180283.3834</v>
       </c>
       <c r="G105" t="n">
-        <v>13.69150000000001</v>
+        <v>13.69533333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4104,7 +4160,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,22 +4177,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.23</v>
+        <v>13.32</v>
       </c>
       <c r="C106" t="n">
-        <v>13.21</v>
+        <v>13.2</v>
       </c>
       <c r="D106" t="n">
-        <v>13.23</v>
+        <v>13.32</v>
       </c>
       <c r="E106" t="n">
-        <v>13.21</v>
+        <v>13.2</v>
       </c>
       <c r="F106" t="n">
-        <v>79387.80710000001</v>
+        <v>4000</v>
       </c>
       <c r="G106" t="n">
-        <v>13.68783333333334</v>
+        <v>13.69150000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4143,7 +4201,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>13.51</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,6 +4213,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E107" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F107" t="n">
+        <v>79387.80710000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>13.68783333333334</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>22384.244</v>
       </c>
       <c r="G2" t="n">
+        <v>13.65466666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>13.67266666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1103.0113</v>
       </c>
       <c r="G3" t="n">
+        <v>13.65266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.67716666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>81779.2651</v>
       </c>
       <c r="G4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.67733333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1900</v>
       </c>
       <c r="G5" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="H5" t="n">
         <v>13.67650000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1471</v>
       </c>
       <c r="G6" t="n">
+        <v>13.61666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.67900000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1.5288</v>
       </c>
       <c r="G7" t="n">
+        <v>13.60933333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>13.68150000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1103.0113</v>
       </c>
       <c r="G8" t="n">
+        <v>13.608</v>
+      </c>
+      <c r="H8" t="n">
         <v>13.68483333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>37</v>
       </c>
       <c r="G9" t="n">
+        <v>13.60866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>13.68866666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>89543.5722</v>
       </c>
       <c r="G10" t="n">
+        <v>13.60133333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>13.69016666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>51425.2101</v>
       </c>
       <c r="G11" t="n">
+        <v>13.59933333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>13.69316666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4890.1917</v>
       </c>
       <c r="G12" t="n">
+        <v>13.59066666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>13.69700000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>8194.324699999999</v>
       </c>
       <c r="G13" t="n">
+        <v>13.58866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>13.70016666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>196</v>
       </c>
       <c r="G14" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="H14" t="n">
         <v>13.70233333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5167.168701892285</v>
       </c>
       <c r="G15" t="n">
+        <v>13.58933333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>13.70633333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>9849.43</v>
       </c>
       <c r="G16" t="n">
+        <v>13.60066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>13.71116666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>140600</v>
       </c>
       <c r="G17" t="n">
+        <v>13.61466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>13.71383333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>17443.7442</v>
       </c>
       <c r="G18" t="n">
+        <v>13.61933333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>13.71683333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2454.47</v>
       </c>
       <c r="G19" t="n">
+        <v>13.632</v>
+      </c>
+      <c r="H19" t="n">
         <v>13.71366666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5470.6125</v>
       </c>
       <c r="G20" t="n">
+        <v>13.64866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>13.71316666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>32016.7558</v>
       </c>
       <c r="G21" t="n">
+        <v>13.65466666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>13.71433333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>37</v>
       </c>
       <c r="G22" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="H22" t="n">
         <v>13.71583333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4330</v>
       </c>
       <c r="G23" t="n">
+        <v>13.67533333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>13.71266666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10202.9816</v>
       </c>
       <c r="G24" t="n">
+        <v>13.67133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>13.70850000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>37</v>
       </c>
       <c r="G25" t="n">
+        <v>13.682</v>
+      </c>
+      <c r="H25" t="n">
         <v>13.70650000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6209</v>
       </c>
       <c r="G26" t="n">
+        <v>13.68733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>13.70300000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>12725.1908</v>
       </c>
       <c r="G27" t="n">
+        <v>13.69266666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>13.69950000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10202.9816</v>
       </c>
       <c r="G28" t="n">
+        <v>13.694</v>
+      </c>
+      <c r="H28" t="n">
         <v>13.69466666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>227433.5703139535</v>
       </c>
       <c r="G29" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>13.69533333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>655.0218340611353</v>
       </c>
       <c r="G30" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>13.69533333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>6380</v>
       </c>
       <c r="G31" t="n">
+        <v>13.696</v>
+      </c>
+      <c r="H31" t="n">
         <v>13.69000000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2310</v>
       </c>
       <c r="G32" t="n">
+        <v>13.68733333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>13.68516666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>891.6481</v>
       </c>
       <c r="G33" t="n">
+        <v>13.674</v>
+      </c>
+      <c r="H33" t="n">
         <v>13.67933333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>96049.5089</v>
       </c>
       <c r="G34" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>13.67500000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>166223.6837</v>
       </c>
       <c r="G35" t="n">
+        <v>13.64333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>13.66900000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,27 @@
         <v>92886.8305</v>
       </c>
       <c r="G36" t="n">
+        <v>13.644</v>
+      </c>
+      <c r="H36" t="n">
         <v>13.66433333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>13.42</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1789,27 @@
         <v>99.88290000000001</v>
       </c>
       <c r="G37" t="n">
+        <v>13.62466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>13.65700000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13.63</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1833,27 @@
         <v>69250.1171</v>
       </c>
       <c r="G38" t="n">
+        <v>13.60866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>13.64983333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13.47</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,25 @@
         <v>81139</v>
       </c>
       <c r="G39" t="n">
+        <v>13.59733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>13.64416666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1919,27 @@
         <v>124055.9172</v>
       </c>
       <c r="G40" t="n">
+        <v>13.574</v>
+      </c>
+      <c r="H40" t="n">
         <v>13.63466666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13.49</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1963,27 @@
         <v>68805.3872</v>
       </c>
       <c r="G41" t="n">
+        <v>13.54466666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>13.62666666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2007,27 @@
         <v>126164.9852</v>
       </c>
       <c r="G42" t="n">
+        <v>13.516</v>
+      </c>
+      <c r="H42" t="n">
         <v>13.61833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13.22</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2051,27 @@
         <v>7939.9999</v>
       </c>
       <c r="G43" t="n">
+        <v>13.49866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>13.61166666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13.23</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2095,27 @@
         <v>1046.7924</v>
       </c>
       <c r="G44" t="n">
+        <v>13.46933333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>13.60516666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13.33</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2139,27 @@
         <v>8574.501899999999</v>
       </c>
       <c r="G45" t="n">
+        <v>13.44133333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>13.60166666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>13.32</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2183,27 @@
         <v>38</v>
       </c>
       <c r="G46" t="n">
+        <v>13.43066666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>13.59666666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13.32</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2227,25 @@
         <v>46230.6194</v>
       </c>
       <c r="G47" t="n">
+        <v>13.41866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>13.59383333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2269,25 @@
         <v>33000</v>
       </c>
       <c r="G48" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="H48" t="n">
         <v>13.58900000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2311,25 @@
         <v>9395.8182</v>
       </c>
       <c r="G49" t="n">
+        <v>13.398</v>
+      </c>
+      <c r="H49" t="n">
         <v>13.58416666666668</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2353,25 @@
         <v>25368.8267</v>
       </c>
       <c r="G50" t="n">
+        <v>13.39866666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>13.58016666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2395,25 @@
         <v>113995.2643</v>
       </c>
       <c r="G51" t="n">
+        <v>13.38666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>13.57550000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2437,25 @@
         <v>99136.0061</v>
       </c>
       <c r="G52" t="n">
+        <v>13.38533333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>13.57233333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2479,25 @@
         <v>26885.0061</v>
       </c>
       <c r="G53" t="n">
+        <v>13.38733333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>13.56983333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2521,25 @@
         <v>2855.4997</v>
       </c>
       <c r="G54" t="n">
+        <v>13.38466666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>13.56550000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2563,25 @@
         <v>2407.5135</v>
       </c>
       <c r="G55" t="n">
+        <v>13.388</v>
+      </c>
+      <c r="H55" t="n">
         <v>13.56133333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2605,25 @@
         <v>348163.3725</v>
       </c>
       <c r="G56" t="n">
+        <v>13.41133333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>13.56066666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2647,25 @@
         <v>171706.9039</v>
       </c>
       <c r="G57" t="n">
+        <v>13.44266666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>13.56050000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2689,25 @@
         <v>22080.7375</v>
       </c>
       <c r="G58" t="n">
+        <v>13.47333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>13.56366666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2731,25 @@
         <v>316728.3296</v>
       </c>
       <c r="G59" t="n">
+        <v>13.51133333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>13.56883333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2773,25 @@
         <v>172374.3427</v>
       </c>
       <c r="G60" t="n">
+        <v>13.54333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>13.57016666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2815,25 @@
         <v>306669.9393</v>
       </c>
       <c r="G61" t="n">
+        <v>13.558</v>
+      </c>
+      <c r="H61" t="n">
         <v>13.57133333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2857,25 @@
         <v>265970.3768</v>
       </c>
       <c r="G62" t="n">
+        <v>13.596</v>
+      </c>
+      <c r="H62" t="n">
         <v>13.57916666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2899,25 @@
         <v>372224.7323</v>
       </c>
       <c r="G63" t="n">
+        <v>13.64933333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>13.58816666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2941,25 @@
         <v>359426.3414426966</v>
       </c>
       <c r="G64" t="n">
+        <v>13.72066666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>13.60433333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2983,25 @@
         <v>5913.7161</v>
       </c>
       <c r="G65" t="n">
+        <v>13.754</v>
+      </c>
+      <c r="H65" t="n">
         <v>13.61116666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3025,25 @@
         <v>9627.0105</v>
       </c>
       <c r="G66" t="n">
+        <v>13.82333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>13.62716666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,20 +3067,25 @@
         <v>198307.4239</v>
       </c>
       <c r="G67" t="n">
+        <v>13.89266666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>13.64316666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,18 +3107,21 @@
         <v>36591.3929</v>
       </c>
       <c r="G68" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H68" t="n">
         <v>13.65283333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3145,21 @@
         <v>63159.7401</v>
       </c>
       <c r="G69" t="n">
+        <v>13.968</v>
+      </c>
+      <c r="H69" t="n">
         <v>13.65533333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3183,21 @@
         <v>72</v>
       </c>
       <c r="G70" t="n">
+        <v>14.018</v>
+      </c>
+      <c r="H70" t="n">
         <v>13.66550000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3221,21 @@
         <v>15319</v>
       </c>
       <c r="G71" t="n">
+        <v>14.04066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>13.671</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3259,21 @@
         <v>163129.9862</v>
       </c>
       <c r="G72" t="n">
+        <v>14.06666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>13.67950000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3297,21 @@
         <v>5480.9978</v>
       </c>
       <c r="G73" t="n">
+        <v>14.07333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>13.68483333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3335,21 @@
         <v>36</v>
       </c>
       <c r="G74" t="n">
+        <v>14.08533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>13.69316666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3373,21 @@
         <v>98444.8299</v>
       </c>
       <c r="G75" t="n">
+        <v>14.08666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>13.69450000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3411,21 @@
         <v>7200</v>
       </c>
       <c r="G76" t="n">
+        <v>14.084</v>
+      </c>
+      <c r="H76" t="n">
         <v>13.69216666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3449,21 @@
         <v>72</v>
       </c>
       <c r="G77" t="n">
+        <v>14.07133333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>13.69333333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3487,21 @@
         <v>69974.10739999999</v>
       </c>
       <c r="G78" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="H78" t="n">
         <v>13.69083333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3525,21 @@
         <v>7130.7468</v>
       </c>
       <c r="G79" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="H79" t="n">
         <v>13.68883333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3563,21 @@
         <v>40</v>
       </c>
       <c r="G80" t="n">
+        <v>13.94866666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>13.68616666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3601,21 @@
         <v>32068.5436</v>
       </c>
       <c r="G81" t="n">
+        <v>13.88933333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>13.68583333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3639,21 @@
         <v>8011.536918704513</v>
       </c>
       <c r="G82" t="n">
+        <v>13.83933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>13.68550000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3677,21 @@
         <v>169514.8266</v>
       </c>
       <c r="G83" t="n">
+        <v>13.80333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>13.68483333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3715,21 @@
         <v>13174.9738</v>
       </c>
       <c r="G84" t="n">
+        <v>13.78933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>13.68483333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3753,21 @@
         <v>83370.5203</v>
       </c>
       <c r="G85" t="n">
+        <v>13.74733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>13.68183333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3791,21 @@
         <v>48892.3296</v>
       </c>
       <c r="G86" t="n">
+        <v>13.72266666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>13.67983333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3829,21 @@
         <v>37</v>
       </c>
       <c r="G87" t="n">
+        <v>13.68466666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>13.67750000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3867,21 @@
         <v>928</v>
       </c>
       <c r="G88" t="n">
+        <v>13.65933333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>13.67616666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,22 +3905,21 @@
         <v>13456.5347</v>
       </c>
       <c r="G89" t="n">
+        <v>13.62066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>13.67166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="K89" t="n">
-        <v>13.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,26 +3943,21 @@
         <v>177043.9834</v>
       </c>
       <c r="G90" t="n">
+        <v>13.59866666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>13.66750000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K90" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,26 +3981,21 @@
         <v>37.215</v>
       </c>
       <c r="G91" t="n">
+        <v>13.59666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>13.66733333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K91" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,24 +4019,21 @@
         <v>29200</v>
       </c>
       <c r="G92" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="H92" t="n">
         <v>13.66550000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,24 +4057,21 @@
         <v>11362.03</v>
       </c>
       <c r="G93" t="n">
+        <v>13.56866666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>13.66450000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,24 +4095,21 @@
         <v>25682.3759</v>
       </c>
       <c r="G94" t="n">
+        <v>13.562</v>
+      </c>
+      <c r="H94" t="n">
         <v>13.66266666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,24 +4133,21 @@
         <v>63686.9389</v>
       </c>
       <c r="G95" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H95" t="n">
         <v>13.66533333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,24 +4171,21 @@
         <v>4557.3476</v>
       </c>
       <c r="G96" t="n">
+        <v>13.55866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>13.66450000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3823,24 +4209,21 @@
         <v>23070.9384</v>
       </c>
       <c r="G97" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.66683333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,24 +4247,21 @@
         <v>5083.3776</v>
       </c>
       <c r="G98" t="n">
+        <v>13.54933333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.67000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,24 +4285,21 @@
         <v>41748.1785</v>
       </c>
       <c r="G99" t="n">
+        <v>13.54400000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.67150000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,24 +4323,21 @@
         <v>20073.9155</v>
       </c>
       <c r="G100" t="n">
+        <v>13.54866666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.67550000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4361,21 @@
         <v>2360.5623</v>
       </c>
       <c r="G101" t="n">
+        <v>13.55533333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.68250000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4399,21 @@
         <v>15929</v>
       </c>
       <c r="G102" t="n">
+        <v>13.55533333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.68733333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,24 +4437,21 @@
         <v>7490.1137</v>
       </c>
       <c r="G103" t="n">
+        <v>13.56466666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.69266666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,24 +4475,21 @@
         <v>22200</v>
       </c>
       <c r="G104" t="n">
+        <v>13.56333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.69516666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,24 +4513,21 @@
         <v>180283.3834</v>
       </c>
       <c r="G105" t="n">
+        <v>13.55266666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.69533333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,24 +4551,21 @@
         <v>4000</v>
       </c>
       <c r="G106" t="n">
+        <v>13.52733333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.69150000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,24 +4589,401 @@
         <v>79387.80710000001</v>
       </c>
       <c r="G107" t="n">
+        <v>13.508</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.68783333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>74597.4522</v>
+      </c>
+      <c r="G108" t="n">
+        <v>13.488</v>
+      </c>
+      <c r="H108" t="n">
+        <v>13.68400000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="C109" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="F109" t="n">
+        <v>104494.5306</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13.46200000000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>13.67866666666668</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17850.3551</v>
+      </c>
+      <c r="G110" t="n">
+        <v>13.43666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>13.67483333333335</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8896.5679</v>
+      </c>
+      <c r="G111" t="n">
+        <v>13.41133333333334</v>
+      </c>
+      <c r="H111" t="n">
+        <v>13.67066666666668</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D112" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8653.9539</v>
+      </c>
+      <c r="G112" t="n">
+        <v>13.386</v>
+      </c>
+      <c r="H112" t="n">
+        <v>13.66700000000001</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C113" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D113" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E113" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="F113" t="n">
+        <v>153529.0343</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13.35933333333334</v>
+      </c>
+      <c r="H113" t="n">
+        <v>13.66300000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D114" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2709.9999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>13.336</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13.65933333333335</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C115" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D115" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2714.6058</v>
+      </c>
+      <c r="G115" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="H115" t="n">
+        <v>13.65600000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C116" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="D116" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>13.278</v>
+      </c>
+      <c r="H116" t="n">
+        <v>13.64916666666668</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="C117" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="E117" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4350</v>
+      </c>
+      <c r="G117" t="n">
+        <v>13.25533333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>13.64050000000001</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.57</v>
+        <v>13.9</v>
       </c>
       <c r="C2" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="D2" t="n">
-        <v>13.57</v>
+        <v>13.91</v>
       </c>
       <c r="E2" t="n">
-        <v>13.53</v>
+        <v>13.9</v>
       </c>
       <c r="F2" t="n">
-        <v>22384.244</v>
+        <v>65000</v>
       </c>
       <c r="G2" t="n">
-        <v>13.65466666666667</v>
+        <v>245669.8830552251</v>
       </c>
       <c r="H2" t="n">
-        <v>13.67266666666668</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.69</v>
+        <v>13.87</v>
       </c>
       <c r="C3" t="n">
-        <v>13.69</v>
+        <v>13.87</v>
       </c>
       <c r="D3" t="n">
-        <v>13.69</v>
+        <v>13.87</v>
       </c>
       <c r="E3" t="n">
-        <v>13.69</v>
+        <v>13.87</v>
       </c>
       <c r="F3" t="n">
-        <v>1103.0113</v>
+        <v>2600.7581</v>
       </c>
       <c r="G3" t="n">
-        <v>13.65266666666667</v>
+        <v>243069.1249552251</v>
       </c>
       <c r="H3" t="n">
-        <v>13.67716666666668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.53</v>
+        <v>13.77</v>
       </c>
       <c r="C4" t="n">
-        <v>13.53</v>
+        <v>13.78</v>
       </c>
       <c r="D4" t="n">
-        <v>13.53</v>
+        <v>13.87</v>
       </c>
       <c r="E4" t="n">
-        <v>13.53</v>
+        <v>13.72</v>
       </c>
       <c r="F4" t="n">
-        <v>81779.2651</v>
+        <v>51034.244</v>
       </c>
       <c r="G4" t="n">
-        <v>13.64</v>
+        <v>192034.8809552251</v>
       </c>
       <c r="H4" t="n">
-        <v>13.67733333333334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.52</v>
+        <v>13.8</v>
       </c>
       <c r="C5" t="n">
-        <v>13.52</v>
+        <v>13.91</v>
       </c>
       <c r="D5" t="n">
-        <v>13.52</v>
+        <v>13.91</v>
       </c>
       <c r="E5" t="n">
-        <v>13.52</v>
+        <v>13.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1900</v>
+        <v>19301.43517491014</v>
       </c>
       <c r="G5" t="n">
-        <v>13.63</v>
+        <v>211336.3161301352</v>
       </c>
       <c r="H5" t="n">
-        <v>13.67650000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="C6" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="D6" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="E6" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="F6" t="n">
-        <v>1471</v>
+        <v>89794.3173</v>
       </c>
       <c r="G6" t="n">
-        <v>13.61666666666667</v>
+        <v>211336.3161301352</v>
       </c>
       <c r="H6" t="n">
-        <v>13.67900000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="C7" t="n">
-        <v>13.53</v>
+        <v>13.85</v>
       </c>
       <c r="D7" t="n">
-        <v>13.53</v>
+        <v>13.91</v>
       </c>
       <c r="E7" t="n">
-        <v>13.53</v>
+        <v>13.85</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5288</v>
+        <v>163770.6499</v>
       </c>
       <c r="G7" t="n">
-        <v>13.60933333333334</v>
+        <v>47565.66623013525</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68150000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.58</v>
+        <v>13.85</v>
       </c>
       <c r="C8" t="n">
-        <v>13.58</v>
+        <v>13.83</v>
       </c>
       <c r="D8" t="n">
-        <v>13.58</v>
+        <v>13.85</v>
       </c>
       <c r="E8" t="n">
-        <v>13.58</v>
+        <v>13.83</v>
       </c>
       <c r="F8" t="n">
-        <v>1103.0113</v>
+        <v>51459.2722</v>
       </c>
       <c r="G8" t="n">
-        <v>13.608</v>
+        <v>-3893.605969864751</v>
       </c>
       <c r="H8" t="n">
-        <v>13.68483333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.72</v>
+        <v>13.89</v>
       </c>
       <c r="C9" t="n">
-        <v>13.72</v>
+        <v>13.97</v>
       </c>
       <c r="D9" t="n">
-        <v>13.72</v>
+        <v>13.97</v>
       </c>
       <c r="E9" t="n">
-        <v>13.72</v>
+        <v>13.89</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>24488.9676</v>
       </c>
       <c r="G9" t="n">
-        <v>13.60866666666667</v>
+        <v>20595.36163013525</v>
       </c>
       <c r="H9" t="n">
-        <v>13.68866666666668</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.59</v>
+        <v>13.83</v>
       </c>
       <c r="C10" t="n">
-        <v>13.59</v>
+        <v>13.7</v>
       </c>
       <c r="D10" t="n">
-        <v>13.59</v>
+        <v>13.83</v>
       </c>
       <c r="E10" t="n">
-        <v>13.59</v>
+        <v>13.7</v>
       </c>
       <c r="F10" t="n">
-        <v>89543.5722</v>
+        <v>66492.7536</v>
       </c>
       <c r="G10" t="n">
-        <v>13.60133333333334</v>
+        <v>-45897.39196986475</v>
       </c>
       <c r="H10" t="n">
-        <v>13.69016666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="C11" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="D11" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="E11" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="F11" t="n">
-        <v>51425.2101</v>
+        <v>7002.6075</v>
       </c>
       <c r="G11" t="n">
-        <v>13.59933333333334</v>
+        <v>-38894.78446986475</v>
       </c>
       <c r="H11" t="n">
-        <v>13.69316666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="C12" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="D12" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="E12" t="n">
-        <v>13.58</v>
+        <v>13.73</v>
       </c>
       <c r="F12" t="n">
-        <v>4890.1917</v>
+        <v>3673.8052</v>
       </c>
       <c r="G12" t="n">
-        <v>13.59066666666667</v>
+        <v>-38894.78446986475</v>
       </c>
       <c r="H12" t="n">
-        <v>13.69700000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
       <c r="C13" t="n">
-        <v>13.57</v>
+        <v>13.71</v>
       </c>
       <c r="D13" t="n">
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
       <c r="E13" t="n">
-        <v>13.57</v>
+        <v>13.71</v>
       </c>
       <c r="F13" t="n">
-        <v>8194.324699999999</v>
+        <v>30636.1652</v>
       </c>
       <c r="G13" t="n">
-        <v>13.58866666666667</v>
+        <v>-69530.94966986476</v>
       </c>
       <c r="H13" t="n">
-        <v>13.70016666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.57</v>
+        <v>13.7</v>
       </c>
       <c r="C14" t="n">
-        <v>13.57</v>
+        <v>13.53</v>
       </c>
       <c r="D14" t="n">
-        <v>13.57</v>
+        <v>13.7</v>
       </c>
       <c r="E14" t="n">
-        <v>13.57</v>
+        <v>13.53</v>
       </c>
       <c r="F14" t="n">
-        <v>196</v>
+        <v>80429.7892</v>
       </c>
       <c r="G14" t="n">
-        <v>13.588</v>
+        <v>-149960.7388698648</v>
       </c>
       <c r="H14" t="n">
-        <v>13.70233333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
       <c r="C15" t="n">
-        <v>13.74</v>
+        <v>13.73</v>
       </c>
       <c r="D15" t="n">
-        <v>13.74</v>
+        <v>13.73</v>
       </c>
       <c r="E15" t="n">
         <v>13.57</v>
       </c>
       <c r="F15" t="n">
-        <v>5167.168701892285</v>
+        <v>9830.179400000001</v>
       </c>
       <c r="G15" t="n">
-        <v>13.58933333333334</v>
+        <v>-140130.5594698648</v>
       </c>
       <c r="H15" t="n">
-        <v>13.70633333333335</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.75</v>
+        <v>13.6</v>
       </c>
       <c r="C16" t="n">
-        <v>13.75</v>
+        <v>13.6</v>
       </c>
       <c r="D16" t="n">
-        <v>13.75</v>
+        <v>13.6</v>
       </c>
       <c r="E16" t="n">
-        <v>13.75</v>
+        <v>13.6</v>
       </c>
       <c r="F16" t="n">
-        <v>9849.43</v>
+        <v>25569.1485</v>
       </c>
       <c r="G16" t="n">
-        <v>13.60066666666667</v>
+        <v>-165699.7079698648</v>
       </c>
       <c r="H16" t="n">
-        <v>13.71116666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.6</v>
+        <v>13.72</v>
       </c>
       <c r="C17" t="n">
-        <v>13.74</v>
+        <v>13.72</v>
       </c>
       <c r="D17" t="n">
-        <v>13.75</v>
+        <v>13.72</v>
       </c>
       <c r="E17" t="n">
-        <v>13.6</v>
+        <v>13.72</v>
       </c>
       <c r="F17" t="n">
-        <v>140600</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>13.61466666666667</v>
+        <v>-164699.7079698648</v>
       </c>
       <c r="H17" t="n">
-        <v>13.71383333333335</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.74</v>
+        <v>13.72</v>
       </c>
       <c r="C18" t="n">
-        <v>13.76</v>
+        <v>13.72</v>
       </c>
       <c r="D18" t="n">
-        <v>13.76</v>
+        <v>13.72</v>
       </c>
       <c r="E18" t="n">
-        <v>13.74</v>
+        <v>13.72</v>
       </c>
       <c r="F18" t="n">
-        <v>17443.7442</v>
+        <v>83251.7939</v>
       </c>
       <c r="G18" t="n">
-        <v>13.61933333333334</v>
+        <v>-164699.7079698648</v>
       </c>
       <c r="H18" t="n">
-        <v>13.71683333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="C19" t="n">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="D19" t="n">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="E19" t="n">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="F19" t="n">
-        <v>2454.47</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>13.632</v>
+        <v>-165699.7079698648</v>
       </c>
       <c r="H19" t="n">
-        <v>13.71366666666668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.77</v>
+        <v>13.73</v>
       </c>
       <c r="C20" t="n">
-        <v>13.77</v>
+        <v>13.73</v>
       </c>
       <c r="D20" t="n">
-        <v>13.77</v>
+        <v>13.73</v>
       </c>
       <c r="E20" t="n">
-        <v>13.77</v>
+        <v>13.73</v>
       </c>
       <c r="F20" t="n">
-        <v>5470.6125</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>13.64866666666667</v>
+        <v>-165662.7079698648</v>
       </c>
       <c r="H20" t="n">
-        <v>13.71316666666668</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>13.67</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.67</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1102,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="C21" t="n">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="D21" t="n">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="E21" t="n">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="F21" t="n">
-        <v>32016.7558</v>
+        <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>13.65466666666667</v>
+        <v>-166162.7079698648</v>
       </c>
       <c r="H21" t="n">
-        <v>13.71433333333335</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1145,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.76</v>
+        <v>13.6</v>
       </c>
       <c r="C22" t="n">
-        <v>13.76</v>
+        <v>13.6</v>
       </c>
       <c r="D22" t="n">
-        <v>13.76</v>
+        <v>13.6</v>
       </c>
       <c r="E22" t="n">
-        <v>13.76</v>
+        <v>13.6</v>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>3111</v>
       </c>
       <c r="G22" t="n">
+        <v>-169273.7079698648</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="K22" t="n">
         <v>13.67</v>
       </c>
-      <c r="H22" t="n">
-        <v>13.71583333333335</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1188,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="C23" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="D23" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="E23" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="F23" t="n">
-        <v>4330</v>
+        <v>282.1414</v>
       </c>
       <c r="G23" t="n">
-        <v>13.67533333333333</v>
+        <v>-168991.5665698648</v>
       </c>
       <c r="H23" t="n">
-        <v>13.71266666666668</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1227,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="C24" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="D24" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="E24" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="F24" t="n">
-        <v>10202.9816</v>
+        <v>22410</v>
       </c>
       <c r="G24" t="n">
-        <v>13.67133333333333</v>
+        <v>-191401.5665698648</v>
       </c>
       <c r="H24" t="n">
-        <v>13.70850000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1268,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.75</v>
+        <v>13.61</v>
       </c>
       <c r="C25" t="n">
-        <v>13.75</v>
+        <v>13.61</v>
       </c>
       <c r="D25" t="n">
-        <v>13.75</v>
+        <v>13.61</v>
       </c>
       <c r="E25" t="n">
-        <v>13.75</v>
+        <v>13.61</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>13000</v>
       </c>
       <c r="G25" t="n">
-        <v>13.682</v>
+        <v>-204401.5665698648</v>
       </c>
       <c r="H25" t="n">
-        <v>13.70650000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1309,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="C26" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="D26" t="n">
-        <v>13.66</v>
+        <v>13.71</v>
       </c>
       <c r="E26" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="F26" t="n">
-        <v>6209</v>
+        <v>182911.5606</v>
       </c>
       <c r="G26" t="n">
-        <v>13.68733333333333</v>
+        <v>-21490.00596986478</v>
       </c>
       <c r="H26" t="n">
-        <v>13.70300000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1344,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.66</v>
+        <v>13.6</v>
       </c>
       <c r="C27" t="n">
-        <v>13.66</v>
+        <v>13.6</v>
       </c>
       <c r="D27" t="n">
-        <v>13.66</v>
+        <v>13.6</v>
       </c>
       <c r="E27" t="n">
-        <v>13.66</v>
+        <v>13.6</v>
       </c>
       <c r="F27" t="n">
-        <v>12725.1908</v>
+        <v>16891.1965</v>
       </c>
       <c r="G27" t="n">
-        <v>13.69266666666667</v>
+        <v>-38381.20246986478</v>
       </c>
       <c r="H27" t="n">
-        <v>13.69950000000001</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>13.71</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13.71</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1383,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="C28" t="n">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D28" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="E28" t="n">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="F28" t="n">
-        <v>10202.9816</v>
+        <v>7525.7711</v>
       </c>
       <c r="G28" t="n">
-        <v>13.694</v>
+        <v>-45906.97356986478</v>
       </c>
       <c r="H28" t="n">
-        <v>13.69466666666668</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1426,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.66</v>
+        <v>13.72</v>
       </c>
       <c r="C29" t="n">
-        <v>13.76</v>
+        <v>13.72</v>
       </c>
       <c r="D29" t="n">
-        <v>13.76</v>
+        <v>13.72</v>
       </c>
       <c r="E29" t="n">
-        <v>13.54</v>
+        <v>13.72</v>
       </c>
       <c r="F29" t="n">
-        <v>227433.5703139535</v>
+        <v>37</v>
       </c>
       <c r="G29" t="n">
-        <v>13.70666666666667</v>
+        <v>-45869.97356986478</v>
       </c>
       <c r="H29" t="n">
-        <v>13.69533333333334</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1469,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="C30" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="D30" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="E30" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="F30" t="n">
-        <v>655.0218340611353</v>
+        <v>22410</v>
       </c>
       <c r="G30" t="n">
-        <v>13.70666666666667</v>
+        <v>-68279.97356986479</v>
       </c>
       <c r="H30" t="n">
-        <v>13.69533333333334</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>13.72</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13.72</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1508,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="C31" t="n">
-        <v>13.59</v>
+        <v>13.53</v>
       </c>
       <c r="D31" t="n">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="E31" t="n">
-        <v>13.59</v>
+        <v>13.53</v>
       </c>
       <c r="F31" t="n">
-        <v>6380</v>
+        <v>22384.244</v>
       </c>
       <c r="G31" t="n">
-        <v>13.696</v>
+        <v>-90664.21756986479</v>
       </c>
       <c r="H31" t="n">
-        <v>13.69000000000001</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="K31" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1551,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.61</v>
+        <v>13.69</v>
       </c>
       <c r="C32" t="n">
-        <v>13.61</v>
+        <v>13.69</v>
       </c>
       <c r="D32" t="n">
-        <v>13.61</v>
+        <v>13.69</v>
       </c>
       <c r="E32" t="n">
-        <v>13.61</v>
+        <v>13.69</v>
       </c>
       <c r="F32" t="n">
-        <v>2310</v>
+        <v>1103.0113</v>
       </c>
       <c r="G32" t="n">
-        <v>13.68733333333333</v>
+        <v>-89561.20626986479</v>
       </c>
       <c r="H32" t="n">
-        <v>13.68516666666668</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1594,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.56</v>
+        <v>13.53</v>
       </c>
       <c r="C33" t="n">
-        <v>13.56</v>
+        <v>13.53</v>
       </c>
       <c r="D33" t="n">
-        <v>13.56</v>
+        <v>13.53</v>
       </c>
       <c r="E33" t="n">
-        <v>13.56</v>
+        <v>13.53</v>
       </c>
       <c r="F33" t="n">
-        <v>891.6481</v>
+        <v>81779.2651</v>
       </c>
       <c r="G33" t="n">
-        <v>13.674</v>
+        <v>-171340.4713698648</v>
       </c>
       <c r="H33" t="n">
-        <v>13.67933333333335</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1635,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="C34" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="D34" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="E34" t="n">
-        <v>13.49</v>
+        <v>13.52</v>
       </c>
       <c r="F34" t="n">
-        <v>96049.5089</v>
+        <v>1900</v>
       </c>
       <c r="G34" t="n">
-        <v>13.66666666666667</v>
+        <v>-173240.4713698648</v>
       </c>
       <c r="H34" t="n">
-        <v>13.67500000000001</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1678,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.44</v>
+        <v>13.53</v>
       </c>
       <c r="C35" t="n">
-        <v>13.42</v>
+        <v>13.53</v>
       </c>
       <c r="D35" t="n">
-        <v>13.5</v>
+        <v>13.53</v>
       </c>
       <c r="E35" t="n">
-        <v>13.32</v>
+        <v>13.53</v>
       </c>
       <c r="F35" t="n">
-        <v>166223.6837</v>
+        <v>1471</v>
       </c>
       <c r="G35" t="n">
-        <v>13.64333333333333</v>
+        <v>-171769.4713698648</v>
       </c>
       <c r="H35" t="n">
-        <v>13.66900000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,42 +1719,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.42</v>
+        <v>13.53</v>
       </c>
       <c r="C36" t="n">
-        <v>13.63</v>
+        <v>13.53</v>
       </c>
       <c r="D36" t="n">
-        <v>13.63</v>
+        <v>13.53</v>
       </c>
       <c r="E36" t="n">
-        <v>13.42</v>
+        <v>13.53</v>
       </c>
       <c r="F36" t="n">
-        <v>92886.8305</v>
+        <v>1.5288</v>
       </c>
       <c r="G36" t="n">
-        <v>13.644</v>
+        <v>-171769.4713698648</v>
       </c>
       <c r="H36" t="n">
-        <v>13.66433333333335</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>13.53</v>
       </c>
       <c r="K36" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,42 +1762,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.47</v>
+        <v>13.58</v>
       </c>
       <c r="C37" t="n">
-        <v>13.47</v>
+        <v>13.58</v>
       </c>
       <c r="D37" t="n">
-        <v>13.47</v>
+        <v>13.58</v>
       </c>
       <c r="E37" t="n">
-        <v>13.47</v>
+        <v>13.58</v>
       </c>
       <c r="F37" t="n">
-        <v>99.88290000000001</v>
+        <v>1103.0113</v>
       </c>
       <c r="G37" t="n">
-        <v>13.62466666666667</v>
+        <v>-170666.4600698648</v>
       </c>
       <c r="H37" t="n">
-        <v>13.65700000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,42 +1803,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.47</v>
+        <v>13.72</v>
       </c>
       <c r="C38" t="n">
-        <v>13.42</v>
+        <v>13.72</v>
       </c>
       <c r="D38" t="n">
-        <v>13.47</v>
+        <v>13.72</v>
       </c>
       <c r="E38" t="n">
-        <v>13.42</v>
+        <v>13.72</v>
       </c>
       <c r="F38" t="n">
-        <v>69250.1171</v>
+        <v>37</v>
       </c>
       <c r="G38" t="n">
-        <v>13.60866666666667</v>
+        <v>-170629.4600698648</v>
       </c>
       <c r="H38" t="n">
-        <v>13.64983333333335</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,40 +1844,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.4</v>
+        <v>13.59</v>
       </c>
       <c r="C39" t="n">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="D39" t="n">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="E39" t="n">
-        <v>13.38</v>
+        <v>13.59</v>
       </c>
       <c r="F39" t="n">
-        <v>81139</v>
+        <v>89543.5722</v>
       </c>
       <c r="G39" t="n">
-        <v>13.59733333333333</v>
+        <v>-260173.0322698648</v>
       </c>
       <c r="H39" t="n">
-        <v>13.64416666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,42 +1885,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.38</v>
+        <v>13.58</v>
       </c>
       <c r="C40" t="n">
-        <v>13.4</v>
+        <v>13.58</v>
       </c>
       <c r="D40" t="n">
-        <v>13.4</v>
+        <v>13.58</v>
       </c>
       <c r="E40" t="n">
-        <v>13.37</v>
+        <v>13.58</v>
       </c>
       <c r="F40" t="n">
-        <v>124055.9172</v>
+        <v>51425.2101</v>
       </c>
       <c r="G40" t="n">
-        <v>13.574</v>
+        <v>-311598.2423698648</v>
       </c>
       <c r="H40" t="n">
-        <v>13.63466666666668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,42 +1926,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.26</v>
+        <v>13.58</v>
       </c>
       <c r="C41" t="n">
-        <v>13.22</v>
+        <v>13.58</v>
       </c>
       <c r="D41" t="n">
-        <v>13.26</v>
+        <v>13.58</v>
       </c>
       <c r="E41" t="n">
-        <v>13.22</v>
+        <v>13.58</v>
       </c>
       <c r="F41" t="n">
-        <v>68805.3872</v>
+        <v>4890.1917</v>
       </c>
       <c r="G41" t="n">
-        <v>13.54466666666667</v>
+        <v>-311598.2423698648</v>
       </c>
       <c r="H41" t="n">
-        <v>13.62666666666668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1992,42 +1967,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.21</v>
+        <v>13.57</v>
       </c>
       <c r="C42" t="n">
-        <v>13.23</v>
+        <v>13.57</v>
       </c>
       <c r="D42" t="n">
-        <v>13.23</v>
+        <v>13.57</v>
       </c>
       <c r="E42" t="n">
-        <v>13.21</v>
+        <v>13.57</v>
       </c>
       <c r="F42" t="n">
-        <v>126164.9852</v>
+        <v>8194.324699999999</v>
       </c>
       <c r="G42" t="n">
-        <v>13.516</v>
+        <v>-319792.5670698648</v>
       </c>
       <c r="H42" t="n">
-        <v>13.61833333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,42 +2008,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.34</v>
+        <v>13.57</v>
       </c>
       <c r="C43" t="n">
-        <v>13.33</v>
+        <v>13.57</v>
       </c>
       <c r="D43" t="n">
-        <v>13.34</v>
+        <v>13.57</v>
       </c>
       <c r="E43" t="n">
-        <v>13.33</v>
+        <v>13.57</v>
       </c>
       <c r="F43" t="n">
-        <v>7939.9999</v>
+        <v>196</v>
       </c>
       <c r="G43" t="n">
-        <v>13.49866666666667</v>
+        <v>-319792.5670698648</v>
       </c>
       <c r="H43" t="n">
-        <v>13.61166666666668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,42 +2049,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.32</v>
+        <v>13.57</v>
       </c>
       <c r="C44" t="n">
-        <v>13.32</v>
+        <v>13.74</v>
       </c>
       <c r="D44" t="n">
-        <v>13.32</v>
+        <v>13.74</v>
       </c>
       <c r="E44" t="n">
-        <v>13.32</v>
+        <v>13.57</v>
       </c>
       <c r="F44" t="n">
-        <v>1046.7924</v>
+        <v>5167.168701892285</v>
       </c>
       <c r="G44" t="n">
-        <v>13.46933333333333</v>
+        <v>-314625.3983679725</v>
       </c>
       <c r="H44" t="n">
-        <v>13.60516666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,42 +2090,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.32</v>
+        <v>13.75</v>
       </c>
       <c r="C45" t="n">
-        <v>13.32</v>
+        <v>13.75</v>
       </c>
       <c r="D45" t="n">
-        <v>13.32</v>
+        <v>13.75</v>
       </c>
       <c r="E45" t="n">
-        <v>13.32</v>
+        <v>13.75</v>
       </c>
       <c r="F45" t="n">
-        <v>8574.501899999999</v>
+        <v>9849.43</v>
       </c>
       <c r="G45" t="n">
-        <v>13.44133333333333</v>
+        <v>-304775.9683679725</v>
       </c>
       <c r="H45" t="n">
-        <v>13.60166666666668</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,42 +2131,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.43</v>
+        <v>13.6</v>
       </c>
       <c r="C46" t="n">
-        <v>13.43</v>
+        <v>13.74</v>
       </c>
       <c r="D46" t="n">
-        <v>13.43</v>
+        <v>13.75</v>
       </c>
       <c r="E46" t="n">
-        <v>13.43</v>
+        <v>13.6</v>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>140600</v>
       </c>
       <c r="G46" t="n">
-        <v>13.43066666666667</v>
+        <v>-445375.9683679725</v>
       </c>
       <c r="H46" t="n">
-        <v>13.59666666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,40 +2172,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.43</v>
+        <v>13.74</v>
       </c>
       <c r="C47" t="n">
-        <v>13.43</v>
+        <v>13.76</v>
       </c>
       <c r="D47" t="n">
-        <v>13.43</v>
+        <v>13.76</v>
       </c>
       <c r="E47" t="n">
-        <v>13.43</v>
+        <v>13.74</v>
       </c>
       <c r="F47" t="n">
-        <v>46230.6194</v>
+        <v>17443.7442</v>
       </c>
       <c r="G47" t="n">
-        <v>13.41866666666667</v>
+        <v>-427932.2241679725</v>
       </c>
       <c r="H47" t="n">
-        <v>13.59383333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,40 +2213,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.43</v>
+        <v>13.72</v>
       </c>
       <c r="C48" t="n">
-        <v>13.43</v>
+        <v>13.72</v>
       </c>
       <c r="D48" t="n">
-        <v>13.43</v>
+        <v>13.72</v>
       </c>
       <c r="E48" t="n">
-        <v>13.43</v>
+        <v>13.72</v>
       </c>
       <c r="F48" t="n">
-        <v>33000</v>
+        <v>2454.47</v>
       </c>
       <c r="G48" t="n">
-        <v>13.41</v>
+        <v>-430386.6941679724</v>
       </c>
       <c r="H48" t="n">
-        <v>13.58900000000001</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,40 +2254,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.43</v>
+        <v>13.77</v>
       </c>
       <c r="C49" t="n">
-        <v>13.43</v>
+        <v>13.77</v>
       </c>
       <c r="D49" t="n">
-        <v>13.43</v>
+        <v>13.77</v>
       </c>
       <c r="E49" t="n">
-        <v>13.43</v>
+        <v>13.77</v>
       </c>
       <c r="F49" t="n">
-        <v>9395.8182</v>
+        <v>5470.6125</v>
       </c>
       <c r="G49" t="n">
-        <v>13.398</v>
+        <v>-424916.0816679724</v>
       </c>
       <c r="H49" t="n">
-        <v>13.58416666666668</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,40 +2295,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.43</v>
+        <v>13.62</v>
       </c>
       <c r="C50" t="n">
-        <v>13.43</v>
+        <v>13.62</v>
       </c>
       <c r="D50" t="n">
-        <v>13.43</v>
+        <v>13.62</v>
       </c>
       <c r="E50" t="n">
-        <v>13.43</v>
+        <v>13.62</v>
       </c>
       <c r="F50" t="n">
-        <v>25368.8267</v>
+        <v>32016.7558</v>
       </c>
       <c r="G50" t="n">
-        <v>13.39866666666667</v>
+        <v>-456932.8374679724</v>
       </c>
       <c r="H50" t="n">
-        <v>13.58016666666668</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,40 +2336,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.45</v>
+        <v>13.76</v>
       </c>
       <c r="C51" t="n">
-        <v>13.45</v>
+        <v>13.76</v>
       </c>
       <c r="D51" t="n">
-        <v>13.45</v>
+        <v>13.76</v>
       </c>
       <c r="E51" t="n">
-        <v>13.45</v>
+        <v>13.76</v>
       </c>
       <c r="F51" t="n">
-        <v>113995.2643</v>
+        <v>37</v>
       </c>
       <c r="G51" t="n">
-        <v>13.38666666666667</v>
+        <v>-456895.8374679724</v>
       </c>
       <c r="H51" t="n">
-        <v>13.57550000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2422,40 +2377,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="C52" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="D52" t="n">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="E52" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="F52" t="n">
-        <v>99136.0061</v>
+        <v>4330</v>
       </c>
       <c r="G52" t="n">
-        <v>13.38533333333334</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H52" t="n">
-        <v>13.57233333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,40 +2418,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="C53" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="D53" t="n">
-        <v>13.48</v>
+        <v>13.66</v>
       </c>
       <c r="E53" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="F53" t="n">
-        <v>26885.0061</v>
+        <v>10202.9816</v>
       </c>
       <c r="G53" t="n">
-        <v>13.38733333333334</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H53" t="n">
-        <v>13.56983333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,40 +2459,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.45</v>
+        <v>13.75</v>
       </c>
       <c r="C54" t="n">
-        <v>13.45</v>
+        <v>13.75</v>
       </c>
       <c r="D54" t="n">
-        <v>13.45</v>
+        <v>13.75</v>
       </c>
       <c r="E54" t="n">
-        <v>13.45</v>
+        <v>13.75</v>
       </c>
       <c r="F54" t="n">
-        <v>2855.4997</v>
+        <v>37</v>
       </c>
       <c r="G54" t="n">
-        <v>13.38466666666667</v>
+        <v>-461188.8374679724</v>
       </c>
       <c r="H54" t="n">
-        <v>13.56550000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,40 +2500,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="C55" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="D55" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="E55" t="n">
-        <v>13.45</v>
+        <v>13.66</v>
       </c>
       <c r="F55" t="n">
-        <v>2407.5135</v>
+        <v>6209</v>
       </c>
       <c r="G55" t="n">
-        <v>13.388</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H55" t="n">
-        <v>13.56133333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,40 +2541,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="C56" t="n">
-        <v>13.57</v>
+        <v>13.66</v>
       </c>
       <c r="D56" t="n">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="E56" t="n">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="F56" t="n">
-        <v>348163.3725</v>
+        <v>12725.1908</v>
       </c>
       <c r="G56" t="n">
-        <v>13.41133333333333</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H56" t="n">
-        <v>13.56066666666668</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,40 +2582,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="C57" t="n">
-        <v>13.7</v>
+        <v>13.59</v>
       </c>
       <c r="D57" t="n">
-        <v>13.77</v>
+        <v>13.61</v>
       </c>
       <c r="E57" t="n">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="F57" t="n">
-        <v>171706.9039</v>
+        <v>10202.9816</v>
       </c>
       <c r="G57" t="n">
-        <v>13.44266666666667</v>
+        <v>-477600.8190679724</v>
       </c>
       <c r="H57" t="n">
-        <v>13.56050000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,40 +2623,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.79</v>
+        <v>13.66</v>
       </c>
       <c r="C58" t="n">
-        <v>13.79</v>
+        <v>13.76</v>
       </c>
       <c r="D58" t="n">
-        <v>13.79</v>
+        <v>13.76</v>
       </c>
       <c r="E58" t="n">
-        <v>13.61</v>
+        <v>13.54</v>
       </c>
       <c r="F58" t="n">
-        <v>22080.7375</v>
+        <v>227433.5703139535</v>
       </c>
       <c r="G58" t="n">
-        <v>13.47333333333333</v>
+        <v>-250167.2487540189</v>
       </c>
       <c r="H58" t="n">
-        <v>13.56366666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,40 +2664,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.79</v>
+        <v>13.74</v>
       </c>
       <c r="C59" t="n">
-        <v>13.89</v>
+        <v>13.74</v>
       </c>
       <c r="D59" t="n">
-        <v>13.9</v>
+        <v>13.74</v>
       </c>
       <c r="E59" t="n">
-        <v>13.65</v>
+        <v>13.74</v>
       </c>
       <c r="F59" t="n">
-        <v>316728.3296</v>
+        <v>655.0218340611353</v>
       </c>
       <c r="G59" t="n">
-        <v>13.51133333333333</v>
+        <v>-250822.27058808</v>
       </c>
       <c r="H59" t="n">
-        <v>13.56883333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,40 +2705,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.89</v>
+        <v>13.59</v>
       </c>
       <c r="C60" t="n">
-        <v>13.8</v>
+        <v>13.59</v>
       </c>
       <c r="D60" t="n">
-        <v>13.98</v>
+        <v>13.59</v>
       </c>
       <c r="E60" t="n">
-        <v>13.71</v>
+        <v>13.59</v>
       </c>
       <c r="F60" t="n">
-        <v>172374.3427</v>
+        <v>6380</v>
       </c>
       <c r="G60" t="n">
-        <v>13.54333333333333</v>
+        <v>-257202.27058808</v>
       </c>
       <c r="H60" t="n">
-        <v>13.57016666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,40 +2746,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.85</v>
+        <v>13.61</v>
       </c>
       <c r="C61" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="D61" t="n">
-        <v>13.95</v>
+        <v>13.61</v>
       </c>
       <c r="E61" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="F61" t="n">
-        <v>306669.9393</v>
+        <v>2310</v>
       </c>
       <c r="G61" t="n">
-        <v>13.558</v>
+        <v>-254892.27058808</v>
       </c>
       <c r="H61" t="n">
-        <v>13.57133333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,40 +2787,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.85</v>
+        <v>13.56</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>13.56</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>13.56</v>
       </c>
       <c r="E62" t="n">
-        <v>13.76</v>
+        <v>13.56</v>
       </c>
       <c r="F62" t="n">
-        <v>265970.3768</v>
+        <v>891.6481</v>
       </c>
       <c r="G62" t="n">
-        <v>13.596</v>
+        <v>-255783.91868808</v>
       </c>
       <c r="H62" t="n">
-        <v>13.57916666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,40 +2828,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>14.23</v>
+        <v>13.61</v>
       </c>
       <c r="D63" t="n">
-        <v>14.23</v>
+        <v>13.61</v>
       </c>
       <c r="E63" t="n">
-        <v>13.76</v>
+        <v>13.49</v>
       </c>
       <c r="F63" t="n">
-        <v>372224.7323</v>
+        <v>96049.5089</v>
       </c>
       <c r="G63" t="n">
-        <v>13.64933333333333</v>
+        <v>-159734.40978808</v>
       </c>
       <c r="H63" t="n">
-        <v>13.58816666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,40 +2869,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.2</v>
+        <v>13.44</v>
       </c>
       <c r="C64" t="n">
-        <v>14.5</v>
+        <v>13.42</v>
       </c>
       <c r="D64" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="E64" t="n">
-        <v>14.2</v>
+        <v>13.32</v>
       </c>
       <c r="F64" t="n">
-        <v>359426.3414426966</v>
+        <v>166223.6837</v>
       </c>
       <c r="G64" t="n">
-        <v>13.72066666666666</v>
+        <v>-325958.09348808</v>
       </c>
       <c r="H64" t="n">
-        <v>13.60433333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,40 +2910,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.3</v>
+        <v>13.42</v>
       </c>
       <c r="C65" t="n">
-        <v>13.93</v>
+        <v>13.63</v>
       </c>
       <c r="D65" t="n">
-        <v>14.3</v>
+        <v>13.63</v>
       </c>
       <c r="E65" t="n">
-        <v>13.93</v>
+        <v>13.42</v>
       </c>
       <c r="F65" t="n">
-        <v>5913.7161</v>
+        <v>92886.8305</v>
       </c>
       <c r="G65" t="n">
-        <v>13.754</v>
+        <v>-233071.26298808</v>
       </c>
       <c r="H65" t="n">
-        <v>13.61116666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,40 +2951,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.2</v>
+        <v>13.47</v>
       </c>
       <c r="C66" t="n">
-        <v>14.49</v>
+        <v>13.47</v>
       </c>
       <c r="D66" t="n">
-        <v>14.49</v>
+        <v>13.47</v>
       </c>
       <c r="E66" t="n">
-        <v>14.09</v>
+        <v>13.47</v>
       </c>
       <c r="F66" t="n">
-        <v>9627.0105</v>
+        <v>99.88290000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>13.82333333333333</v>
+        <v>-233171.14588808</v>
       </c>
       <c r="H66" t="n">
-        <v>13.62716666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,76 +2992,80 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.1</v>
+        <v>13.47</v>
       </c>
       <c r="C67" t="n">
-        <v>14.49</v>
+        <v>13.42</v>
       </c>
       <c r="D67" t="n">
-        <v>14.5</v>
+        <v>13.47</v>
       </c>
       <c r="E67" t="n">
-        <v>14.1</v>
+        <v>13.42</v>
       </c>
       <c r="F67" t="n">
-        <v>198307.4239</v>
+        <v>69250.1171</v>
       </c>
       <c r="G67" t="n">
-        <v>13.89266666666667</v>
+        <v>-302421.26298808</v>
       </c>
       <c r="H67" t="n">
-        <v>13.64316666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.12</v>
+        <v>13.4</v>
       </c>
       <c r="C68" t="n">
-        <v>14.16</v>
+        <v>13.49</v>
       </c>
       <c r="D68" t="n">
-        <v>14.16</v>
+        <v>13.49</v>
       </c>
       <c r="E68" t="n">
-        <v>13.88</v>
+        <v>13.38</v>
       </c>
       <c r="F68" t="n">
-        <v>36591.3929</v>
+        <v>81139</v>
       </c>
       <c r="G68" t="n">
-        <v>13.94</v>
+        <v>-221282.26298808</v>
       </c>
       <c r="H68" t="n">
-        <v>13.65283333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,36 +3074,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.27</v>
+        <v>13.38</v>
       </c>
       <c r="C69" t="n">
-        <v>13.87</v>
+        <v>13.4</v>
       </c>
       <c r="D69" t="n">
-        <v>14.27</v>
+        <v>13.4</v>
       </c>
       <c r="E69" t="n">
-        <v>13.87</v>
+        <v>13.37</v>
       </c>
       <c r="F69" t="n">
-        <v>63159.7401</v>
+        <v>124055.9172</v>
       </c>
       <c r="G69" t="n">
-        <v>13.968</v>
+        <v>-345338.1801880801</v>
       </c>
       <c r="H69" t="n">
-        <v>13.65533333333334</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,36 +3117,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.16</v>
+        <v>13.26</v>
       </c>
       <c r="C70" t="n">
-        <v>14.2</v>
+        <v>13.22</v>
       </c>
       <c r="D70" t="n">
-        <v>14.2</v>
+        <v>13.26</v>
       </c>
       <c r="E70" t="n">
-        <v>14.16</v>
+        <v>13.22</v>
       </c>
       <c r="F70" t="n">
-        <v>72</v>
+        <v>68805.3872</v>
       </c>
       <c r="G70" t="n">
-        <v>14.018</v>
+        <v>-414143.5673880801</v>
       </c>
       <c r="H70" t="n">
-        <v>13.66550000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,36 +3158,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.14</v>
+        <v>13.21</v>
       </c>
       <c r="C71" t="n">
-        <v>13.91</v>
+        <v>13.23</v>
       </c>
       <c r="D71" t="n">
-        <v>14.26</v>
+        <v>13.23</v>
       </c>
       <c r="E71" t="n">
-        <v>13.91</v>
+        <v>13.21</v>
       </c>
       <c r="F71" t="n">
-        <v>15319</v>
+        <v>126164.9852</v>
       </c>
       <c r="G71" t="n">
-        <v>14.04066666666667</v>
+        <v>-287978.5821880801</v>
       </c>
       <c r="H71" t="n">
-        <v>13.671</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,36 +3201,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.04</v>
+        <v>13.34</v>
       </c>
       <c r="C72" t="n">
-        <v>14.09</v>
+        <v>13.33</v>
       </c>
       <c r="D72" t="n">
-        <v>14.09</v>
+        <v>13.34</v>
       </c>
       <c r="E72" t="n">
-        <v>13.9</v>
+        <v>13.33</v>
       </c>
       <c r="F72" t="n">
-        <v>163129.9862</v>
+        <v>7939.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>14.06666666666667</v>
+        <v>-280038.5822880801</v>
       </c>
       <c r="H72" t="n">
-        <v>13.67950000000001</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,36 +3244,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.1</v>
+        <v>13.32</v>
       </c>
       <c r="C73" t="n">
-        <v>13.89</v>
+        <v>13.32</v>
       </c>
       <c r="D73" t="n">
-        <v>14.1</v>
+        <v>13.32</v>
       </c>
       <c r="E73" t="n">
-        <v>13.89</v>
+        <v>13.32</v>
       </c>
       <c r="F73" t="n">
-        <v>5480.9978</v>
+        <v>1046.7924</v>
       </c>
       <c r="G73" t="n">
-        <v>14.07333333333334</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H73" t="n">
-        <v>13.68483333333334</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,36 +3287,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.07</v>
+        <v>13.32</v>
       </c>
       <c r="C74" t="n">
-        <v>14.07</v>
+        <v>13.32</v>
       </c>
       <c r="D74" t="n">
-        <v>14.07</v>
+        <v>13.32</v>
       </c>
       <c r="E74" t="n">
-        <v>14.07</v>
+        <v>13.32</v>
       </c>
       <c r="F74" t="n">
-        <v>36</v>
+        <v>8574.501899999999</v>
       </c>
       <c r="G74" t="n">
-        <v>14.08533333333333</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H74" t="n">
-        <v>13.69316666666667</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="K74" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,36 +3330,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.9</v>
+        <v>13.43</v>
       </c>
       <c r="C75" t="n">
-        <v>13.82</v>
+        <v>13.43</v>
       </c>
       <c r="D75" t="n">
-        <v>13.9</v>
+        <v>13.43</v>
       </c>
       <c r="E75" t="n">
-        <v>13.67</v>
+        <v>13.43</v>
       </c>
       <c r="F75" t="n">
-        <v>98444.8299</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>14.08666666666667</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H75" t="n">
-        <v>13.69450000000001</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="K75" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,36 +3373,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="C76" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="D76" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="E76" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="F76" t="n">
-        <v>7200</v>
+        <v>46230.6194</v>
       </c>
       <c r="G76" t="n">
-        <v>14.084</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H76" t="n">
-        <v>13.69216666666667</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K76" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,36 +3416,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.8</v>
+        <v>13.43</v>
       </c>
       <c r="C77" t="n">
-        <v>13.81</v>
+        <v>13.43</v>
       </c>
       <c r="D77" t="n">
-        <v>13.81</v>
+        <v>13.43</v>
       </c>
       <c r="E77" t="n">
-        <v>13.8</v>
+        <v>13.43</v>
       </c>
       <c r="F77" t="n">
-        <v>72</v>
+        <v>33000</v>
       </c>
       <c r="G77" t="n">
-        <v>14.07133333333334</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H77" t="n">
-        <v>13.69333333333334</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K77" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,36 +3459,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.63</v>
+        <v>13.43</v>
       </c>
       <c r="C78" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="D78" t="n">
-        <v>13.63</v>
+        <v>13.43</v>
       </c>
       <c r="E78" t="n">
-        <v>13.61</v>
+        <v>13.43</v>
       </c>
       <c r="F78" t="n">
-        <v>69974.10739999999</v>
+        <v>9395.8182</v>
       </c>
       <c r="G78" t="n">
-        <v>14.03</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H78" t="n">
-        <v>13.69083333333334</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K78" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,36 +3502,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.6</v>
+        <v>13.43</v>
       </c>
       <c r="C79" t="n">
-        <v>13.6</v>
+        <v>13.43</v>
       </c>
       <c r="D79" t="n">
-        <v>13.6</v>
+        <v>13.43</v>
       </c>
       <c r="E79" t="n">
-        <v>13.6</v>
+        <v>13.43</v>
       </c>
       <c r="F79" t="n">
-        <v>7130.7468</v>
+        <v>25368.8267</v>
       </c>
       <c r="G79" t="n">
-        <v>13.97</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H79" t="n">
-        <v>13.68883333333334</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K79" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,36 +3545,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
       <c r="C80" t="n">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
       <c r="D80" t="n">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
       <c r="E80" t="n">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
       <c r="F80" t="n">
-        <v>40</v>
+        <v>113995.2643</v>
       </c>
       <c r="G80" t="n">
-        <v>13.94866666666667</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H80" t="n">
-        <v>13.68616666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,36 +3586,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.6</v>
+        <v>13.47</v>
       </c>
       <c r="C81" t="n">
-        <v>13.6</v>
+        <v>13.45</v>
       </c>
       <c r="D81" t="n">
-        <v>13.6</v>
+        <v>13.47</v>
       </c>
       <c r="E81" t="n">
-        <v>13.6</v>
+        <v>13.45</v>
       </c>
       <c r="F81" t="n">
-        <v>32068.5436</v>
+        <v>99136.0061</v>
       </c>
       <c r="G81" t="n">
-        <v>13.88933333333333</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H81" t="n">
-        <v>13.68583333333334</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K81" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,36 +3629,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.69</v>
+        <v>13.47</v>
       </c>
       <c r="C82" t="n">
-        <v>13.74</v>
+        <v>13.45</v>
       </c>
       <c r="D82" t="n">
-        <v>13.74</v>
+        <v>13.48</v>
       </c>
       <c r="E82" t="n">
-        <v>13.69</v>
+        <v>13.45</v>
       </c>
       <c r="F82" t="n">
-        <v>8011.536918704513</v>
+        <v>26885.0061</v>
       </c>
       <c r="G82" t="n">
-        <v>13.83933333333333</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H82" t="n">
-        <v>13.68550000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,36 +3670,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="C83" t="n">
-        <v>13.62</v>
+        <v>13.45</v>
       </c>
       <c r="D83" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="E83" t="n">
-        <v>13.62</v>
+        <v>13.45</v>
       </c>
       <c r="F83" t="n">
-        <v>169514.8266</v>
+        <v>2855.4997</v>
       </c>
       <c r="G83" t="n">
-        <v>13.80333333333333</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H83" t="n">
-        <v>13.68483333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,36 +3711,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.63</v>
+        <v>13.45</v>
       </c>
       <c r="C84" t="n">
-        <v>13.66</v>
+        <v>13.45</v>
       </c>
       <c r="D84" t="n">
-        <v>13.66</v>
+        <v>13.45</v>
       </c>
       <c r="E84" t="n">
-        <v>13.63</v>
+        <v>13.45</v>
       </c>
       <c r="F84" t="n">
-        <v>13174.9738</v>
+        <v>2407.5135</v>
       </c>
       <c r="G84" t="n">
-        <v>13.78933333333333</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H84" t="n">
-        <v>13.68483333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,36 +3752,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.6</v>
+        <v>13.47</v>
       </c>
       <c r="C85" t="n">
         <v>13.57</v>
       </c>
       <c r="D85" t="n">
-        <v>13.6</v>
+        <v>13.65</v>
       </c>
       <c r="E85" t="n">
-        <v>13.57</v>
+        <v>13.47</v>
       </c>
       <c r="F85" t="n">
-        <v>83370.5203</v>
+        <v>348163.3725</v>
       </c>
       <c r="G85" t="n">
-        <v>13.74733333333333</v>
+        <v>181111.2621119199</v>
       </c>
       <c r="H85" t="n">
-        <v>13.68183333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,36 +3793,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="C86" t="n">
-        <v>13.54</v>
+        <v>13.7</v>
       </c>
       <c r="D86" t="n">
-        <v>13.54</v>
+        <v>13.77</v>
       </c>
       <c r="E86" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="F86" t="n">
-        <v>48892.3296</v>
+        <v>171706.9039</v>
       </c>
       <c r="G86" t="n">
-        <v>13.72266666666667</v>
+        <v>352818.16601192</v>
       </c>
       <c r="H86" t="n">
-        <v>13.67983333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,36 +3834,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.52</v>
+        <v>13.79</v>
       </c>
       <c r="C87" t="n">
-        <v>13.52</v>
+        <v>13.79</v>
       </c>
       <c r="D87" t="n">
-        <v>13.52</v>
+        <v>13.79</v>
       </c>
       <c r="E87" t="n">
-        <v>13.52</v>
+        <v>13.61</v>
       </c>
       <c r="F87" t="n">
-        <v>37</v>
+        <v>22080.7375</v>
       </c>
       <c r="G87" t="n">
-        <v>13.68466666666667</v>
+        <v>374898.90351192</v>
       </c>
       <c r="H87" t="n">
-        <v>13.67750000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3852,36 +3875,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.52</v>
+        <v>13.79</v>
       </c>
       <c r="C88" t="n">
-        <v>13.51</v>
+        <v>13.89</v>
       </c>
       <c r="D88" t="n">
-        <v>13.52</v>
+        <v>13.9</v>
       </c>
       <c r="E88" t="n">
-        <v>13.51</v>
+        <v>13.65</v>
       </c>
       <c r="F88" t="n">
-        <v>928</v>
+        <v>316728.3296</v>
       </c>
       <c r="G88" t="n">
-        <v>13.65933333333333</v>
+        <v>691627.23311192</v>
       </c>
       <c r="H88" t="n">
-        <v>13.67616666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,36 +3916,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.49</v>
+        <v>13.89</v>
       </c>
       <c r="C89" t="n">
-        <v>13.49</v>
+        <v>13.8</v>
       </c>
       <c r="D89" t="n">
-        <v>13.49</v>
+        <v>13.98</v>
       </c>
       <c r="E89" t="n">
-        <v>13.49</v>
+        <v>13.71</v>
       </c>
       <c r="F89" t="n">
-        <v>13456.5347</v>
+        <v>172374.3427</v>
       </c>
       <c r="G89" t="n">
-        <v>13.62066666666667</v>
+        <v>519252.8904119199</v>
       </c>
       <c r="H89" t="n">
-        <v>13.67166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,36 +3957,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.49</v>
+        <v>13.85</v>
       </c>
       <c r="C90" t="n">
-        <v>13.49</v>
+        <v>13.65</v>
       </c>
       <c r="D90" t="n">
-        <v>13.57</v>
+        <v>13.95</v>
       </c>
       <c r="E90" t="n">
-        <v>13.49</v>
+        <v>13.65</v>
       </c>
       <c r="F90" t="n">
-        <v>177043.9834</v>
+        <v>306669.9393</v>
       </c>
       <c r="G90" t="n">
-        <v>13.59866666666667</v>
+        <v>212582.9511119199</v>
       </c>
       <c r="H90" t="n">
-        <v>13.66750000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,36 +3998,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.58</v>
+        <v>13.85</v>
       </c>
       <c r="C91" t="n">
-        <v>13.58</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>13.58</v>
+        <v>14</v>
       </c>
       <c r="E91" t="n">
-        <v>13.58</v>
+        <v>13.76</v>
       </c>
       <c r="F91" t="n">
-        <v>37.215</v>
+        <v>265970.3768</v>
       </c>
       <c r="G91" t="n">
-        <v>13.59666666666667</v>
+        <v>478553.3279119199</v>
       </c>
       <c r="H91" t="n">
-        <v>13.66733333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,36 +4039,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
-        <v>13.5</v>
+        <v>14.23</v>
       </c>
       <c r="D92" t="n">
-        <v>13.5</v>
+        <v>14.23</v>
       </c>
       <c r="E92" t="n">
-        <v>13.5</v>
+        <v>13.76</v>
       </c>
       <c r="F92" t="n">
-        <v>29200</v>
+        <v>372224.7323</v>
       </c>
       <c r="G92" t="n">
-        <v>13.576</v>
+        <v>850778.0602119199</v>
       </c>
       <c r="H92" t="n">
-        <v>13.66550000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,36 +4080,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="C93" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="D93" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E93" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="F93" t="n">
-        <v>11362.03</v>
+        <v>359426.3414426966</v>
       </c>
       <c r="G93" t="n">
-        <v>13.56866666666667</v>
+        <v>1210204.401654616</v>
       </c>
       <c r="H93" t="n">
-        <v>13.66450000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,36 +4121,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="C94" t="n">
-        <v>13.5</v>
+        <v>13.93</v>
       </c>
       <c r="D94" t="n">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="E94" t="n">
-        <v>13.5</v>
+        <v>13.93</v>
       </c>
       <c r="F94" t="n">
-        <v>25682.3759</v>
+        <v>5913.7161</v>
       </c>
       <c r="G94" t="n">
-        <v>13.562</v>
+        <v>1204290.685554616</v>
       </c>
       <c r="H94" t="n">
-        <v>13.66266666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,36 +4162,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.58</v>
+        <v>14.2</v>
       </c>
       <c r="C95" t="n">
-        <v>13.58</v>
+        <v>14.49</v>
       </c>
       <c r="D95" t="n">
-        <v>13.58</v>
+        <v>14.49</v>
       </c>
       <c r="E95" t="n">
-        <v>13.58</v>
+        <v>14.09</v>
       </c>
       <c r="F95" t="n">
-        <v>63686.9389</v>
+        <v>9627.0105</v>
       </c>
       <c r="G95" t="n">
-        <v>13.56</v>
+        <v>1213917.696054616</v>
       </c>
       <c r="H95" t="n">
-        <v>13.66533333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,36 +4203,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.58</v>
+        <v>14.1</v>
       </c>
       <c r="C96" t="n">
-        <v>13.58</v>
+        <v>14.49</v>
       </c>
       <c r="D96" t="n">
-        <v>13.58</v>
+        <v>14.5</v>
       </c>
       <c r="E96" t="n">
-        <v>13.58</v>
+        <v>14.1</v>
       </c>
       <c r="F96" t="n">
-        <v>4557.3476</v>
+        <v>198307.4239</v>
       </c>
       <c r="G96" t="n">
-        <v>13.55866666666667</v>
+        <v>1213917.696054616</v>
       </c>
       <c r="H96" t="n">
-        <v>13.66450000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,36 +4244,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.58</v>
+        <v>14.12</v>
       </c>
       <c r="C97" t="n">
-        <v>13.61</v>
+        <v>14.16</v>
       </c>
       <c r="D97" t="n">
-        <v>13.61</v>
+        <v>14.16</v>
       </c>
       <c r="E97" t="n">
-        <v>13.58</v>
+        <v>13.88</v>
       </c>
       <c r="F97" t="n">
-        <v>23070.9384</v>
+        <v>36591.3929</v>
       </c>
       <c r="G97" t="n">
-        <v>13.55</v>
+        <v>1177326.303154616</v>
       </c>
       <c r="H97" t="n">
-        <v>13.66683333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,37 +4285,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.61</v>
+        <v>14.27</v>
       </c>
       <c r="C98" t="n">
-        <v>13.61</v>
+        <v>13.87</v>
       </c>
       <c r="D98" t="n">
-        <v>13.61</v>
+        <v>14.27</v>
       </c>
       <c r="E98" t="n">
-        <v>13.61</v>
+        <v>13.87</v>
       </c>
       <c r="F98" t="n">
-        <v>5083.3776</v>
+        <v>63159.7401</v>
       </c>
       <c r="G98" t="n">
-        <v>13.54933333333334</v>
+        <v>1114166.563054616</v>
       </c>
       <c r="H98" t="n">
-        <v>13.67000000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1.005932944606414</v>
       </c>
     </row>
     <row r="99">
@@ -4270,36 +4326,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.61</v>
+        <v>14.16</v>
       </c>
       <c r="C99" t="n">
-        <v>13.58</v>
+        <v>14.2</v>
       </c>
       <c r="D99" t="n">
-        <v>13.61</v>
+        <v>14.2</v>
       </c>
       <c r="E99" t="n">
-        <v>13.58</v>
+        <v>14.16</v>
       </c>
       <c r="F99" t="n">
-        <v>41748.1785</v>
+        <v>72</v>
       </c>
       <c r="G99" t="n">
-        <v>13.54400000000001</v>
+        <v>1114238.563054616</v>
       </c>
       <c r="H99" t="n">
-        <v>13.67150000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,36 +4361,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.51</v>
+        <v>14.14</v>
       </c>
       <c r="C100" t="n">
-        <v>13.64</v>
+        <v>13.91</v>
       </c>
       <c r="D100" t="n">
-        <v>13.64</v>
+        <v>14.26</v>
       </c>
       <c r="E100" t="n">
-        <v>13.51</v>
+        <v>13.91</v>
       </c>
       <c r="F100" t="n">
-        <v>20073.9155</v>
+        <v>15319</v>
       </c>
       <c r="G100" t="n">
-        <v>13.54866666666667</v>
+        <v>1098919.563054616</v>
       </c>
       <c r="H100" t="n">
-        <v>13.67550000000001</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,36 +4396,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.64</v>
+        <v>14.04</v>
       </c>
       <c r="C101" t="n">
-        <v>13.64</v>
+        <v>14.09</v>
       </c>
       <c r="D101" t="n">
-        <v>13.64</v>
+        <v>14.09</v>
       </c>
       <c r="E101" t="n">
-        <v>13.64</v>
+        <v>13.9</v>
       </c>
       <c r="F101" t="n">
-        <v>2360.5623</v>
+        <v>163129.9862</v>
       </c>
       <c r="G101" t="n">
-        <v>13.55533333333334</v>
+        <v>1262049.549254616</v>
       </c>
       <c r="H101" t="n">
-        <v>13.68250000000001</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,36 +4431,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.64</v>
+        <v>14.1</v>
       </c>
       <c r="C102" t="n">
-        <v>13.52</v>
+        <v>13.89</v>
       </c>
       <c r="D102" t="n">
-        <v>13.64</v>
+        <v>14.1</v>
       </c>
       <c r="E102" t="n">
-        <v>13.52</v>
+        <v>13.89</v>
       </c>
       <c r="F102" t="n">
-        <v>15929</v>
+        <v>5480.9978</v>
       </c>
       <c r="G102" t="n">
-        <v>13.55533333333334</v>
+        <v>1256568.551454616</v>
       </c>
       <c r="H102" t="n">
-        <v>13.68733333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,36 +4466,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.65</v>
+        <v>14.07</v>
       </c>
       <c r="C103" t="n">
-        <v>13.65</v>
+        <v>14.07</v>
       </c>
       <c r="D103" t="n">
-        <v>13.65</v>
+        <v>14.07</v>
       </c>
       <c r="E103" t="n">
-        <v>13.65</v>
+        <v>14.07</v>
       </c>
       <c r="F103" t="n">
-        <v>7490.1137</v>
+        <v>36</v>
       </c>
       <c r="G103" t="n">
-        <v>13.56466666666667</v>
+        <v>1256604.551454616</v>
       </c>
       <c r="H103" t="n">
-        <v>13.69266666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,36 +4501,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.51</v>
+        <v>13.9</v>
       </c>
       <c r="C104" t="n">
-        <v>13.47</v>
+        <v>13.82</v>
       </c>
       <c r="D104" t="n">
-        <v>13.51</v>
+        <v>13.9</v>
       </c>
       <c r="E104" t="n">
-        <v>13.47</v>
+        <v>13.67</v>
       </c>
       <c r="F104" t="n">
-        <v>22200</v>
+        <v>98444.8299</v>
       </c>
       <c r="G104" t="n">
-        <v>13.56333333333334</v>
+        <v>1158159.721554616</v>
       </c>
       <c r="H104" t="n">
-        <v>13.69516666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,36 +4536,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="C105" t="n">
-        <v>13.33</v>
+        <v>13.61</v>
       </c>
       <c r="D105" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="E105" t="n">
-        <v>13.31</v>
+        <v>13.61</v>
       </c>
       <c r="F105" t="n">
-        <v>180283.3834</v>
+        <v>7200</v>
       </c>
       <c r="G105" t="n">
-        <v>13.55266666666667</v>
+        <v>1150959.721554616</v>
       </c>
       <c r="H105" t="n">
-        <v>13.69533333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,36 +4571,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.32</v>
+        <v>13.8</v>
       </c>
       <c r="C106" t="n">
-        <v>13.2</v>
+        <v>13.81</v>
       </c>
       <c r="D106" t="n">
-        <v>13.32</v>
+        <v>13.81</v>
       </c>
       <c r="E106" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="F106" t="n">
-        <v>4000</v>
+        <v>72</v>
       </c>
       <c r="G106" t="n">
-        <v>13.52733333333334</v>
+        <v>1151031.721554616</v>
       </c>
       <c r="H106" t="n">
-        <v>13.69150000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,36 +4606,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.23</v>
+        <v>13.63</v>
       </c>
       <c r="C107" t="n">
-        <v>13.21</v>
+        <v>13.61</v>
       </c>
       <c r="D107" t="n">
-        <v>13.23</v>
+        <v>13.63</v>
       </c>
       <c r="E107" t="n">
-        <v>13.21</v>
+        <v>13.61</v>
       </c>
       <c r="F107" t="n">
-        <v>79387.80710000001</v>
+        <v>69974.10739999999</v>
       </c>
       <c r="G107" t="n">
-        <v>13.508</v>
+        <v>1081057.614154616</v>
       </c>
       <c r="H107" t="n">
-        <v>13.68783333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,36 +4641,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.21</v>
+        <v>13.6</v>
       </c>
       <c r="C108" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D108" t="n">
-        <v>13.21</v>
+        <v>13.6</v>
       </c>
       <c r="E108" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F108" t="n">
-        <v>74597.4522</v>
+        <v>7130.7468</v>
       </c>
       <c r="G108" t="n">
-        <v>13.488</v>
+        <v>1073926.867354616</v>
       </c>
       <c r="H108" t="n">
-        <v>13.68400000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,36 +4676,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.11</v>
+        <v>13.61</v>
       </c>
       <c r="C109" t="n">
-        <v>13.11</v>
+        <v>13.61</v>
       </c>
       <c r="D109" t="n">
-        <v>13.13</v>
+        <v>13.61</v>
       </c>
       <c r="E109" t="n">
-        <v>13.11</v>
+        <v>13.61</v>
       </c>
       <c r="F109" t="n">
-        <v>104494.5306</v>
+        <v>40</v>
       </c>
       <c r="G109" t="n">
-        <v>13.46200000000001</v>
+        <v>1073966.867354616</v>
       </c>
       <c r="H109" t="n">
-        <v>13.67866666666668</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,36 +4711,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="C110" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D110" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="E110" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F110" t="n">
-        <v>17850.3551</v>
+        <v>32068.5436</v>
       </c>
       <c r="G110" t="n">
-        <v>13.43666666666667</v>
+        <v>1041898.323754616</v>
       </c>
       <c r="H110" t="n">
-        <v>13.67483333333335</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,36 +4746,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.2</v>
+        <v>13.69</v>
       </c>
       <c r="C111" t="n">
-        <v>13.2</v>
+        <v>13.74</v>
       </c>
       <c r="D111" t="n">
-        <v>13.2</v>
+        <v>13.74</v>
       </c>
       <c r="E111" t="n">
-        <v>13.2</v>
+        <v>13.69</v>
       </c>
       <c r="F111" t="n">
-        <v>8896.5679</v>
+        <v>8011.536918704513</v>
       </c>
       <c r="G111" t="n">
-        <v>13.41133333333334</v>
+        <v>1049909.86067332</v>
       </c>
       <c r="H111" t="n">
-        <v>13.67066666666668</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4764,36 +4781,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.23</v>
+        <v>13.72</v>
       </c>
       <c r="C112" t="n">
-        <v>13.23</v>
+        <v>13.62</v>
       </c>
       <c r="D112" t="n">
-        <v>13.23</v>
+        <v>13.72</v>
       </c>
       <c r="E112" t="n">
-        <v>13.23</v>
+        <v>13.62</v>
       </c>
       <c r="F112" t="n">
-        <v>8653.9539</v>
+        <v>169514.8266</v>
       </c>
       <c r="G112" t="n">
-        <v>13.386</v>
+        <v>880395.0340733205</v>
       </c>
       <c r="H112" t="n">
-        <v>13.66700000000001</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,36 +4816,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.21</v>
+        <v>13.63</v>
       </c>
       <c r="C113" t="n">
-        <v>13.21</v>
+        <v>13.66</v>
       </c>
       <c r="D113" t="n">
-        <v>13.21</v>
+        <v>13.66</v>
       </c>
       <c r="E113" t="n">
-        <v>13.12</v>
+        <v>13.63</v>
       </c>
       <c r="F113" t="n">
-        <v>153529.0343</v>
+        <v>13174.9738</v>
       </c>
       <c r="G113" t="n">
-        <v>13.35933333333334</v>
+        <v>893570.0078733205</v>
       </c>
       <c r="H113" t="n">
-        <v>13.66300000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,36 +4851,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13.23</v>
+        <v>13.6</v>
       </c>
       <c r="C114" t="n">
-        <v>13.23</v>
+        <v>13.57</v>
       </c>
       <c r="D114" t="n">
-        <v>13.23</v>
+        <v>13.6</v>
       </c>
       <c r="E114" t="n">
-        <v>13.23</v>
+        <v>13.57</v>
       </c>
       <c r="F114" t="n">
-        <v>2709.9999</v>
+        <v>83370.5203</v>
       </c>
       <c r="G114" t="n">
-        <v>13.336</v>
+        <v>810199.4875733205</v>
       </c>
       <c r="H114" t="n">
-        <v>13.65933333333335</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,36 +4886,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.28</v>
+        <v>13.54</v>
       </c>
       <c r="C115" t="n">
-        <v>13.25</v>
+        <v>13.54</v>
       </c>
       <c r="D115" t="n">
-        <v>13.28</v>
+        <v>13.54</v>
       </c>
       <c r="E115" t="n">
-        <v>13.25</v>
+        <v>13.54</v>
       </c>
       <c r="F115" t="n">
-        <v>2714.6058</v>
+        <v>48892.3296</v>
       </c>
       <c r="G115" t="n">
-        <v>13.31</v>
+        <v>761307.1579733205</v>
       </c>
       <c r="H115" t="n">
-        <v>13.65600000000001</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,36 +4921,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.21</v>
+        <v>13.52</v>
       </c>
       <c r="C116" t="n">
-        <v>13.16</v>
+        <v>13.52</v>
       </c>
       <c r="D116" t="n">
-        <v>13.21</v>
+        <v>13.52</v>
       </c>
       <c r="E116" t="n">
-        <v>13.16</v>
+        <v>13.52</v>
       </c>
       <c r="F116" t="n">
-        <v>26000</v>
+        <v>37</v>
       </c>
       <c r="G116" t="n">
-        <v>13.278</v>
+        <v>761270.1579733205</v>
       </c>
       <c r="H116" t="n">
-        <v>13.64916666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,36 +4956,1048 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.18</v>
+        <v>13.52</v>
       </c>
       <c r="C117" t="n">
-        <v>13.18</v>
+        <v>13.51</v>
       </c>
       <c r="D117" t="n">
-        <v>13.18</v>
+        <v>13.52</v>
       </c>
       <c r="E117" t="n">
-        <v>13.18</v>
+        <v>13.51</v>
       </c>
       <c r="F117" t="n">
-        <v>4350</v>
+        <v>928</v>
       </c>
       <c r="G117" t="n">
-        <v>13.25533333333333</v>
+        <v>760342.1579733205</v>
       </c>
       <c r="H117" t="n">
-        <v>13.64050000000001</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C118" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D118" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="E118" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13456.5347</v>
+      </c>
+      <c r="G118" t="n">
+        <v>746885.6232733205</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="E119" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F119" t="n">
+        <v>177043.9834</v>
+      </c>
+      <c r="G119" t="n">
+        <v>746885.6232733205</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C120" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D120" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E120" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F120" t="n">
+        <v>37.215</v>
+      </c>
+      <c r="G120" t="n">
+        <v>746922.8382733205</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>29200</v>
+      </c>
+      <c r="G121" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11362.03</v>
+      </c>
+      <c r="G122" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25682.3759</v>
+      </c>
+      <c r="G123" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D124" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E124" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F124" t="n">
+        <v>63686.9389</v>
+      </c>
+      <c r="G124" t="n">
+        <v>781409.7771733204</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C125" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D125" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E125" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4557.3476</v>
+      </c>
+      <c r="G125" t="n">
+        <v>781409.7771733204</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D126" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F126" t="n">
+        <v>23070.9384</v>
+      </c>
+      <c r="G126" t="n">
+        <v>804480.7155733204</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D127" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5083.3776</v>
+      </c>
+      <c r="G127" t="n">
+        <v>804480.7155733204</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D128" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F128" t="n">
+        <v>41748.1785</v>
+      </c>
+      <c r="G128" t="n">
+        <v>762732.5370733204</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C129" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D129" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20073.9155</v>
+      </c>
+      <c r="G129" t="n">
+        <v>782806.4525733204</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C130" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2360.5623</v>
+      </c>
+      <c r="G130" t="n">
+        <v>782806.4525733204</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C131" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15929</v>
+      </c>
+      <c r="G131" t="n">
+        <v>766877.4525733204</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D132" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7490.1137</v>
+      </c>
+      <c r="G132" t="n">
+        <v>774367.5662733203</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D133" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22200</v>
+      </c>
+      <c r="G133" t="n">
+        <v>752167.5662733203</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="D134" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="F134" t="n">
+        <v>180283.3834</v>
+      </c>
+      <c r="G134" t="n">
+        <v>571884.1828733203</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>567884.1828733203</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C136" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D136" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E136" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F136" t="n">
+        <v>79387.80710000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>647271.9899733203</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E137" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>74597.4522</v>
+      </c>
+      <c r="G137" t="n">
+        <v>572674.5377733202</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="C138" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D138" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="E138" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="F138" t="n">
+        <v>104494.5306</v>
+      </c>
+      <c r="G138" t="n">
+        <v>468180.0071733202</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17850.3551</v>
+      </c>
+      <c r="G139" t="n">
+        <v>486030.3622733202</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8896.5679</v>
+      </c>
+      <c r="G140" t="n">
+        <v>486030.3622733202</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C141" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D141" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E141" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8653.9539</v>
+      </c>
+      <c r="G141" t="n">
+        <v>494684.3161733202</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="F142" t="n">
+        <v>153529.0343</v>
+      </c>
+      <c r="G142" t="n">
+        <v>341155.2818733202</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2709.9999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>343865.2817733202</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C144" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D144" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E144" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2714.6058</v>
+      </c>
+      <c r="G144" t="n">
+        <v>346579.8875733202</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C145" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="D145" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>320579.8875733202</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D146" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4350</v>
+      </c>
+      <c r="G146" t="n">
+        <v>324929.8875733202</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9</v>
+        <v>13.57</v>
       </c>
       <c r="C2" t="n">
-        <v>13.91</v>
+        <v>13.74</v>
       </c>
       <c r="D2" t="n">
-        <v>13.91</v>
+        <v>13.74</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9</v>
+        <v>13.57</v>
       </c>
       <c r="F2" t="n">
-        <v>65000</v>
+        <v>5167.168701892285</v>
       </c>
       <c r="G2" t="n">
-        <v>245669.8830552251</v>
+        <v>-314625.3983679725</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.87</v>
+        <v>13.75</v>
       </c>
       <c r="C3" t="n">
-        <v>13.87</v>
+        <v>13.75</v>
       </c>
       <c r="D3" t="n">
-        <v>13.87</v>
+        <v>13.75</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87</v>
+        <v>13.75</v>
       </c>
       <c r="F3" t="n">
-        <v>2600.7581</v>
+        <v>9849.43</v>
       </c>
       <c r="G3" t="n">
-        <v>243069.1249552251</v>
+        <v>-304775.9683679725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.77</v>
+        <v>13.6</v>
       </c>
       <c r="C4" t="n">
-        <v>13.78</v>
+        <v>13.74</v>
       </c>
       <c r="D4" t="n">
-        <v>13.87</v>
+        <v>13.75</v>
       </c>
       <c r="E4" t="n">
-        <v>13.72</v>
+        <v>13.6</v>
       </c>
       <c r="F4" t="n">
-        <v>51034.244</v>
+        <v>140600</v>
       </c>
       <c r="G4" t="n">
-        <v>192034.8809552251</v>
+        <v>-445375.9683679725</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8</v>
+        <v>13.74</v>
       </c>
       <c r="C5" t="n">
-        <v>13.91</v>
+        <v>13.76</v>
       </c>
       <c r="D5" t="n">
-        <v>13.91</v>
+        <v>13.76</v>
       </c>
       <c r="E5" t="n">
-        <v>13.8</v>
+        <v>13.74</v>
       </c>
       <c r="F5" t="n">
-        <v>19301.43517491014</v>
+        <v>17443.7442</v>
       </c>
       <c r="G5" t="n">
-        <v>211336.3161301352</v>
+        <v>-427932.2241679725</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="C6" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="D6" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="E6" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="F6" t="n">
-        <v>89794.3173</v>
+        <v>2454.47</v>
       </c>
       <c r="G6" t="n">
-        <v>211336.3161301352</v>
+        <v>-430386.6941679724</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.91</v>
+        <v>13.77</v>
       </c>
       <c r="C7" t="n">
-        <v>13.85</v>
+        <v>13.77</v>
       </c>
       <c r="D7" t="n">
-        <v>13.91</v>
+        <v>13.77</v>
       </c>
       <c r="E7" t="n">
-        <v>13.85</v>
+        <v>13.77</v>
       </c>
       <c r="F7" t="n">
-        <v>163770.6499</v>
+        <v>5470.6125</v>
       </c>
       <c r="G7" t="n">
-        <v>47565.66623013525</v>
+        <v>-424916.0816679724</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.85</v>
+        <v>13.62</v>
       </c>
       <c r="C8" t="n">
-        <v>13.83</v>
+        <v>13.62</v>
       </c>
       <c r="D8" t="n">
-        <v>13.85</v>
+        <v>13.62</v>
       </c>
       <c r="E8" t="n">
-        <v>13.83</v>
+        <v>13.62</v>
       </c>
       <c r="F8" t="n">
-        <v>51459.2722</v>
+        <v>32016.7558</v>
       </c>
       <c r="G8" t="n">
-        <v>-3893.605969864751</v>
+        <v>-456932.8374679724</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,168 +683,197 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.89</v>
+        <v>13.76</v>
       </c>
       <c r="C9" t="n">
-        <v>13.97</v>
+        <v>13.76</v>
       </c>
       <c r="D9" t="n">
-        <v>13.97</v>
+        <v>13.76</v>
       </c>
       <c r="E9" t="n">
-        <v>13.89</v>
+        <v>13.76</v>
       </c>
       <c r="F9" t="n">
-        <v>24488.9676</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>20595.36163013525</v>
+        <v>-456895.8374679724</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.62</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.83</v>
+        <v>13.66</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7</v>
+        <v>13.66</v>
       </c>
       <c r="D10" t="n">
-        <v>13.83</v>
+        <v>13.66</v>
       </c>
       <c r="E10" t="n">
-        <v>13.7</v>
+        <v>13.66</v>
       </c>
       <c r="F10" t="n">
-        <v>66492.7536</v>
+        <v>4330</v>
       </c>
       <c r="G10" t="n">
-        <v>-45897.39196986475</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.73</v>
+        <v>13.66</v>
       </c>
       <c r="C11" t="n">
-        <v>13.73</v>
+        <v>13.66</v>
       </c>
       <c r="D11" t="n">
-        <v>13.73</v>
+        <v>13.66</v>
       </c>
       <c r="E11" t="n">
-        <v>13.73</v>
+        <v>13.66</v>
       </c>
       <c r="F11" t="n">
-        <v>7002.6075</v>
+        <v>10202.9816</v>
       </c>
       <c r="G11" t="n">
-        <v>-38894.78446986475</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="C12" t="n">
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="D12" t="n">
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="E12" t="n">
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="F12" t="n">
-        <v>3673.8052</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>-38894.78446986475</v>
+        <v>-461188.8374679724</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13.66</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="C13" t="n">
-        <v>13.71</v>
+        <v>13.66</v>
       </c>
       <c r="D13" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="E13" t="n">
-        <v>13.71</v>
+        <v>13.66</v>
       </c>
       <c r="F13" t="n">
-        <v>30636.1652</v>
+        <v>6209</v>
       </c>
       <c r="G13" t="n">
-        <v>-69530.94966986476</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +882,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7</v>
+        <v>13.66</v>
       </c>
       <c r="C14" t="n">
-        <v>13.53</v>
+        <v>13.66</v>
       </c>
       <c r="D14" t="n">
-        <v>13.7</v>
+        <v>13.66</v>
       </c>
       <c r="E14" t="n">
-        <v>13.53</v>
+        <v>13.66</v>
       </c>
       <c r="F14" t="n">
-        <v>80429.7892</v>
+        <v>12725.1908</v>
       </c>
       <c r="G14" t="n">
-        <v>-149960.7388698648</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,138 +924,172 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.72</v>
+        <v>13.61</v>
       </c>
       <c r="C15" t="n">
-        <v>13.73</v>
+        <v>13.59</v>
       </c>
       <c r="D15" t="n">
-        <v>13.73</v>
+        <v>13.61</v>
       </c>
       <c r="E15" t="n">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="F15" t="n">
-        <v>9830.179400000001</v>
+        <v>10202.9816</v>
       </c>
       <c r="G15" t="n">
-        <v>-140130.5594698648</v>
+        <v>-477600.8190679724</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.6</v>
+        <v>13.66</v>
       </c>
       <c r="C16" t="n">
-        <v>13.6</v>
+        <v>13.76</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6</v>
+        <v>13.76</v>
       </c>
       <c r="E16" t="n">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
       <c r="F16" t="n">
-        <v>25569.1485</v>
+        <v>227433.5703139535</v>
       </c>
       <c r="G16" t="n">
-        <v>-165699.7079698648</v>
+        <v>-250167.2487540189</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="C17" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="D17" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="E17" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>655.0218340611353</v>
       </c>
       <c r="G17" t="n">
-        <v>-164699.7079698648</v>
+        <v>-250822.27058808</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.72</v>
+        <v>13.59</v>
       </c>
       <c r="C18" t="n">
-        <v>13.72</v>
+        <v>13.59</v>
       </c>
       <c r="D18" t="n">
-        <v>13.72</v>
+        <v>13.59</v>
       </c>
       <c r="E18" t="n">
-        <v>13.72</v>
+        <v>13.59</v>
       </c>
       <c r="F18" t="n">
-        <v>83251.7939</v>
+        <v>6380</v>
       </c>
       <c r="G18" t="n">
-        <v>-164699.7079698648</v>
+        <v>-257202.27058808</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1098,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.67</v>
+        <v>13.61</v>
       </c>
       <c r="C19" t="n">
-        <v>13.67</v>
+        <v>13.61</v>
       </c>
       <c r="D19" t="n">
-        <v>13.67</v>
+        <v>13.61</v>
       </c>
       <c r="E19" t="n">
-        <v>13.67</v>
+        <v>13.61</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>2310</v>
       </c>
       <c r="G19" t="n">
-        <v>-165699.7079698648</v>
+        <v>-254892.27058808</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1140,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.73</v>
+        <v>13.56</v>
       </c>
       <c r="C20" t="n">
-        <v>13.73</v>
+        <v>13.56</v>
       </c>
       <c r="D20" t="n">
-        <v>13.73</v>
+        <v>13.56</v>
       </c>
       <c r="E20" t="n">
-        <v>13.73</v>
+        <v>13.56</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>891.6481</v>
       </c>
       <c r="G20" t="n">
-        <v>-165662.7079698648</v>
+        <v>-255783.91868808</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1087,162 +1182,168 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67</v>
+        <v>13.61</v>
       </c>
       <c r="K20" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>13.66</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.64</v>
+        <v>13.5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.64</v>
+        <v>13.61</v>
       </c>
       <c r="D21" t="n">
-        <v>13.64</v>
+        <v>13.61</v>
       </c>
       <c r="E21" t="n">
-        <v>13.64</v>
+        <v>13.49</v>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>96049.5089</v>
       </c>
       <c r="G21" t="n">
-        <v>-166162.7079698648</v>
+        <v>-159734.40978808</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>13.73</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.6</v>
+        <v>13.44</v>
       </c>
       <c r="C22" t="n">
-        <v>13.6</v>
+        <v>13.42</v>
       </c>
       <c r="D22" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E22" t="n">
-        <v>13.6</v>
+        <v>13.32</v>
       </c>
       <c r="F22" t="n">
-        <v>3111</v>
+        <v>166223.6837</v>
       </c>
       <c r="G22" t="n">
-        <v>-169273.7079698648</v>
+        <v>-325958.09348808</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>13.64</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.71</v>
+        <v>13.42</v>
       </c>
       <c r="C23" t="n">
-        <v>13.71</v>
+        <v>13.63</v>
       </c>
       <c r="D23" t="n">
-        <v>13.71</v>
+        <v>13.63</v>
       </c>
       <c r="E23" t="n">
-        <v>13.71</v>
+        <v>13.42</v>
       </c>
       <c r="F23" t="n">
-        <v>282.1414</v>
+        <v>92886.8305</v>
       </c>
       <c r="G23" t="n">
-        <v>-168991.5665698648</v>
+        <v>-233071.26298808</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>13.66</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.7</v>
+        <v>13.47</v>
       </c>
       <c r="C24" t="n">
-        <v>13.7</v>
+        <v>13.47</v>
       </c>
       <c r="D24" t="n">
-        <v>13.7</v>
+        <v>13.47</v>
       </c>
       <c r="E24" t="n">
-        <v>13.7</v>
+        <v>13.47</v>
       </c>
       <c r="F24" t="n">
-        <v>22410</v>
+        <v>99.88290000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-191401.5665698648</v>
+        <v>-233171.14588808</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1252,38 +1353,39 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>13.6</v>
+        <v>13.66</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.61</v>
+        <v>13.47</v>
       </c>
       <c r="C25" t="n">
-        <v>13.61</v>
+        <v>13.42</v>
       </c>
       <c r="D25" t="n">
-        <v>13.61</v>
+        <v>13.47</v>
       </c>
       <c r="E25" t="n">
-        <v>13.61</v>
+        <v>13.42</v>
       </c>
       <c r="F25" t="n">
-        <v>13000</v>
+        <v>69250.1171</v>
       </c>
       <c r="G25" t="n">
-        <v>-204401.5665698648</v>
+        <v>-302421.26298808</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1293,73 +1395,83 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>13.6</v>
+        <v>13.66</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="C26" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="D26" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="E26" t="n">
-        <v>13.7</v>
+        <v>13.38</v>
       </c>
       <c r="F26" t="n">
-        <v>182911.5606</v>
+        <v>81139</v>
       </c>
       <c r="G26" t="n">
-        <v>-21490.00596986478</v>
+        <v>-221282.26298808</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.6</v>
+        <v>13.38</v>
       </c>
       <c r="C27" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E27" t="n">
-        <v>13.6</v>
+        <v>13.37</v>
       </c>
       <c r="F27" t="n">
-        <v>16891.1965</v>
+        <v>124055.9172</v>
       </c>
       <c r="G27" t="n">
-        <v>-38381.20246986478</v>
+        <v>-345338.1801880801</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1368,37 +1480,42 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.71</v>
+        <v>13.49</v>
       </c>
       <c r="K27" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
+        <v>13.66</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.58</v>
+        <v>13.26</v>
       </c>
       <c r="C28" t="n">
-        <v>13.58</v>
+        <v>13.22</v>
       </c>
       <c r="D28" t="n">
-        <v>13.58</v>
+        <v>13.26</v>
       </c>
       <c r="E28" t="n">
-        <v>13.58</v>
+        <v>13.22</v>
       </c>
       <c r="F28" t="n">
-        <v>7525.7711</v>
+        <v>68805.3872</v>
       </c>
       <c r="G28" t="n">
-        <v>-45906.97356986478</v>
+        <v>-414143.5673880801</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1407,41 +1524,42 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="K28" t="n">
-        <v>13.71</v>
+        <v>13.66</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.72</v>
+        <v>13.21</v>
       </c>
       <c r="C29" t="n">
-        <v>13.72</v>
+        <v>13.23</v>
       </c>
       <c r="D29" t="n">
-        <v>13.72</v>
+        <v>13.23</v>
       </c>
       <c r="E29" t="n">
-        <v>13.72</v>
+        <v>13.21</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>126164.9852</v>
       </c>
       <c r="G29" t="n">
-        <v>-45869.97356986478</v>
+        <v>-287978.5821880801</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1450,41 +1568,42 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>13.58</v>
+        <v>13.22</v>
       </c>
       <c r="K29" t="n">
-        <v>13.71</v>
+        <v>13.66</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.58</v>
+        <v>13.34</v>
       </c>
       <c r="C30" t="n">
-        <v>13.58</v>
+        <v>13.33</v>
       </c>
       <c r="D30" t="n">
-        <v>13.58</v>
+        <v>13.34</v>
       </c>
       <c r="E30" t="n">
-        <v>13.58</v>
+        <v>13.33</v>
       </c>
       <c r="F30" t="n">
-        <v>22410</v>
+        <v>7939.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>-68279.97356986479</v>
+        <v>-280038.5822880801</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1493,37 +1612,42 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.72</v>
+        <v>13.23</v>
       </c>
       <c r="K30" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>13.66</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.57</v>
+        <v>13.32</v>
       </c>
       <c r="C31" t="n">
-        <v>13.53</v>
+        <v>13.32</v>
       </c>
       <c r="D31" t="n">
-        <v>13.57</v>
+        <v>13.32</v>
       </c>
       <c r="E31" t="n">
-        <v>13.53</v>
+        <v>13.32</v>
       </c>
       <c r="F31" t="n">
-        <v>22384.244</v>
+        <v>1046.7924</v>
       </c>
       <c r="G31" t="n">
-        <v>-90664.21756986479</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1532,41 +1656,42 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.58</v>
+        <v>13.33</v>
       </c>
       <c r="K31" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.69</v>
+        <v>13.32</v>
       </c>
       <c r="C32" t="n">
-        <v>13.69</v>
+        <v>13.32</v>
       </c>
       <c r="D32" t="n">
-        <v>13.69</v>
+        <v>13.32</v>
       </c>
       <c r="E32" t="n">
-        <v>13.69</v>
+        <v>13.32</v>
       </c>
       <c r="F32" t="n">
-        <v>1103.0113</v>
+        <v>8574.501899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-89561.20626986479</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1575,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>13.53</v>
+        <v>13.32</v>
       </c>
       <c r="K32" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1588,38 +1713,41 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="C33" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="D33" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="E33" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="F33" t="n">
-        <v>81779.2651</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
-        <v>-171340.4713698648</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>13.32</v>
+      </c>
       <c r="K33" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1629,28 +1757,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.52</v>
+        <v>13.43</v>
       </c>
       <c r="C34" t="n">
-        <v>13.52</v>
+        <v>13.43</v>
       </c>
       <c r="D34" t="n">
-        <v>13.52</v>
+        <v>13.43</v>
       </c>
       <c r="E34" t="n">
-        <v>13.52</v>
+        <v>13.43</v>
       </c>
       <c r="F34" t="n">
-        <v>1900</v>
+        <v>46230.6194</v>
       </c>
       <c r="G34" t="n">
-        <v>-173240.4713698648</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1659,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="K34" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1672,38 +1801,41 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="C35" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="D35" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="E35" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="F35" t="n">
-        <v>1471</v>
+        <v>33000</v>
       </c>
       <c r="G35" t="n">
-        <v>-171769.4713698648</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>13.43</v>
+      </c>
       <c r="K35" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1713,28 +1845,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="C36" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="D36" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="E36" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="F36" t="n">
-        <v>1.5288</v>
+        <v>9395.8182</v>
       </c>
       <c r="G36" t="n">
-        <v>-171769.4713698648</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1743,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.53</v>
+        <v>13.43</v>
       </c>
       <c r="K36" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1756,38 +1889,41 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.58</v>
+        <v>13.43</v>
       </c>
       <c r="C37" t="n">
-        <v>13.58</v>
+        <v>13.43</v>
       </c>
       <c r="D37" t="n">
-        <v>13.58</v>
+        <v>13.43</v>
       </c>
       <c r="E37" t="n">
-        <v>13.58</v>
+        <v>13.43</v>
       </c>
       <c r="F37" t="n">
-        <v>1103.0113</v>
+        <v>25368.8267</v>
       </c>
       <c r="G37" t="n">
-        <v>-170666.4600698648</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>13.43</v>
+      </c>
       <c r="K37" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1797,38 +1933,41 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="C38" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="D38" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="E38" t="n">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="F38" t="n">
-        <v>37</v>
+        <v>113995.2643</v>
       </c>
       <c r="G38" t="n">
-        <v>-170629.4600698648</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>13.43</v>
+      </c>
       <c r="K38" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1838,38 +1977,41 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.59</v>
+        <v>13.47</v>
       </c>
       <c r="C39" t="n">
-        <v>13.59</v>
+        <v>13.45</v>
       </c>
       <c r="D39" t="n">
-        <v>13.59</v>
+        <v>13.47</v>
       </c>
       <c r="E39" t="n">
-        <v>13.59</v>
+        <v>13.45</v>
       </c>
       <c r="F39" t="n">
-        <v>89543.5722</v>
+        <v>99136.0061</v>
       </c>
       <c r="G39" t="n">
-        <v>-260173.0322698648</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K39" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1879,38 +2021,41 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.58</v>
+        <v>13.47</v>
       </c>
       <c r="C40" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="D40" t="n">
-        <v>13.58</v>
+        <v>13.48</v>
       </c>
       <c r="E40" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="F40" t="n">
-        <v>51425.2101</v>
+        <v>26885.0061</v>
       </c>
       <c r="G40" t="n">
-        <v>-311598.2423698648</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K40" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1920,38 +2065,41 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="C41" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="D41" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="E41" t="n">
-        <v>13.58</v>
+        <v>13.45</v>
       </c>
       <c r="F41" t="n">
-        <v>4890.1917</v>
+        <v>2855.4997</v>
       </c>
       <c r="G41" t="n">
-        <v>-311598.2423698648</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K41" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1961,38 +2109,41 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="C42" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="E42" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="F42" t="n">
-        <v>8194.324699999999</v>
+        <v>2407.5135</v>
       </c>
       <c r="G42" t="n">
-        <v>-319792.5670698648</v>
+        <v>-167052.1103880801</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K42" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2002,38 +2153,41 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.57</v>
+        <v>13.47</v>
       </c>
       <c r="C43" t="n">
         <v>13.57</v>
       </c>
       <c r="D43" t="n">
-        <v>13.57</v>
+        <v>13.65</v>
       </c>
       <c r="E43" t="n">
-        <v>13.57</v>
+        <v>13.47</v>
       </c>
       <c r="F43" t="n">
-        <v>196</v>
+        <v>348163.3725</v>
       </c>
       <c r="G43" t="n">
-        <v>-319792.5670698648</v>
+        <v>181111.2621119199</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K43" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2043,6 +2197,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2052,19 +2207,19 @@
         <v>13.57</v>
       </c>
       <c r="C44" t="n">
-        <v>13.74</v>
+        <v>13.7</v>
       </c>
       <c r="D44" t="n">
-        <v>13.74</v>
+        <v>13.77</v>
       </c>
       <c r="E44" t="n">
         <v>13.57</v>
       </c>
       <c r="F44" t="n">
-        <v>5167.168701892285</v>
+        <v>171706.9039</v>
       </c>
       <c r="G44" t="n">
-        <v>-314625.3983679725</v>
+        <v>352818.16601192</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2074,7 +2229,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2084,28 +2239,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.75</v>
+        <v>13.79</v>
       </c>
       <c r="C45" t="n">
-        <v>13.75</v>
+        <v>13.79</v>
       </c>
       <c r="D45" t="n">
-        <v>13.75</v>
+        <v>13.79</v>
       </c>
       <c r="E45" t="n">
-        <v>13.75</v>
+        <v>13.61</v>
       </c>
       <c r="F45" t="n">
-        <v>9849.43</v>
+        <v>22080.7375</v>
       </c>
       <c r="G45" t="n">
-        <v>-304775.9683679725</v>
+        <v>374898.90351192</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2115,7 +2271,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2125,28 +2281,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.6</v>
+        <v>13.79</v>
       </c>
       <c r="C46" t="n">
-        <v>13.74</v>
+        <v>13.89</v>
       </c>
       <c r="D46" t="n">
-        <v>13.75</v>
+        <v>13.9</v>
       </c>
       <c r="E46" t="n">
-        <v>13.6</v>
+        <v>13.65</v>
       </c>
       <c r="F46" t="n">
-        <v>140600</v>
+        <v>316728.3296</v>
       </c>
       <c r="G46" t="n">
-        <v>-445375.9683679725</v>
+        <v>691627.23311192</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2156,7 +2313,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2166,28 +2323,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.74</v>
+        <v>13.89</v>
       </c>
       <c r="C47" t="n">
-        <v>13.76</v>
+        <v>13.8</v>
       </c>
       <c r="D47" t="n">
-        <v>13.76</v>
+        <v>13.98</v>
       </c>
       <c r="E47" t="n">
-        <v>13.74</v>
+        <v>13.71</v>
       </c>
       <c r="F47" t="n">
-        <v>17443.7442</v>
+        <v>172374.3427</v>
       </c>
       <c r="G47" t="n">
-        <v>-427932.2241679725</v>
+        <v>519252.8904119199</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2197,7 +2355,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2207,28 +2365,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.72</v>
+        <v>13.85</v>
       </c>
       <c r="C48" t="n">
-        <v>13.72</v>
+        <v>13.65</v>
       </c>
       <c r="D48" t="n">
-        <v>13.72</v>
+        <v>13.95</v>
       </c>
       <c r="E48" t="n">
-        <v>13.72</v>
+        <v>13.65</v>
       </c>
       <c r="F48" t="n">
-        <v>2454.47</v>
+        <v>306669.9393</v>
       </c>
       <c r="G48" t="n">
-        <v>-430386.6941679724</v>
+        <v>212582.9511119199</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2238,7 +2397,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2248,28 +2407,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.77</v>
+        <v>13.85</v>
       </c>
       <c r="C49" t="n">
-        <v>13.77</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>13.77</v>
+        <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>13.77</v>
+        <v>13.76</v>
       </c>
       <c r="F49" t="n">
-        <v>5470.6125</v>
+        <v>265970.3768</v>
       </c>
       <c r="G49" t="n">
-        <v>-424916.0816679724</v>
+        <v>478553.3279119199</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2279,7 +2439,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2289,28 +2449,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>13.62</v>
+        <v>14.23</v>
       </c>
       <c r="D50" t="n">
-        <v>13.62</v>
+        <v>14.23</v>
       </c>
       <c r="E50" t="n">
-        <v>13.62</v>
+        <v>13.76</v>
       </c>
       <c r="F50" t="n">
-        <v>32016.7558</v>
+        <v>372224.7323</v>
       </c>
       <c r="G50" t="n">
-        <v>-456932.8374679724</v>
+        <v>850778.0602119199</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2320,7 +2481,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2330,28 +2491,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.76</v>
+        <v>14.2</v>
       </c>
       <c r="C51" t="n">
-        <v>13.76</v>
+        <v>14.5</v>
       </c>
       <c r="D51" t="n">
-        <v>13.76</v>
+        <v>14.5</v>
       </c>
       <c r="E51" t="n">
-        <v>13.76</v>
+        <v>14.2</v>
       </c>
       <c r="F51" t="n">
-        <v>37</v>
+        <v>359426.3414426966</v>
       </c>
       <c r="G51" t="n">
-        <v>-456895.8374679724</v>
+        <v>1210204.401654616</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2361,7 +2523,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2371,28 +2533,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.66</v>
+        <v>14.3</v>
       </c>
       <c r="C52" t="n">
-        <v>13.66</v>
+        <v>13.93</v>
       </c>
       <c r="D52" t="n">
-        <v>13.66</v>
+        <v>14.3</v>
       </c>
       <c r="E52" t="n">
-        <v>13.66</v>
+        <v>13.93</v>
       </c>
       <c r="F52" t="n">
-        <v>4330</v>
+        <v>5913.7161</v>
       </c>
       <c r="G52" t="n">
-        <v>-461225.8374679724</v>
+        <v>1204290.685554616</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2402,7 +2565,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2412,28 +2575,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.66</v>
+        <v>14.2</v>
       </c>
       <c r="C53" t="n">
-        <v>13.66</v>
+        <v>14.49</v>
       </c>
       <c r="D53" t="n">
-        <v>13.66</v>
+        <v>14.49</v>
       </c>
       <c r="E53" t="n">
-        <v>13.66</v>
+        <v>14.09</v>
       </c>
       <c r="F53" t="n">
-        <v>10202.9816</v>
+        <v>9627.0105</v>
       </c>
       <c r="G53" t="n">
-        <v>-461225.8374679724</v>
+        <v>1213917.696054616</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2443,7 +2607,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2453,28 +2617,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.75</v>
+        <v>14.1</v>
       </c>
       <c r="C54" t="n">
-        <v>13.75</v>
+        <v>14.49</v>
       </c>
       <c r="D54" t="n">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="E54" t="n">
-        <v>13.75</v>
+        <v>14.1</v>
       </c>
       <c r="F54" t="n">
-        <v>37</v>
+        <v>198307.4239</v>
       </c>
       <c r="G54" t="n">
-        <v>-461188.8374679724</v>
+        <v>1213917.696054616</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2484,7 +2649,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2494,341 +2659,308 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.66</v>
+        <v>14.12</v>
       </c>
       <c r="C55" t="n">
-        <v>13.66</v>
+        <v>14.16</v>
       </c>
       <c r="D55" t="n">
-        <v>13.66</v>
+        <v>14.16</v>
       </c>
       <c r="E55" t="n">
-        <v>13.66</v>
+        <v>13.88</v>
       </c>
       <c r="F55" t="n">
-        <v>6209</v>
+        <v>36591.3929</v>
       </c>
       <c r="G55" t="n">
-        <v>-467397.8374679724</v>
+        <v>1177326.303154616</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>13.72</v>
+        <v>13.66</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
-      </c>
+        <v>1.031603221083455</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.66</v>
+        <v>14.27</v>
       </c>
       <c r="C56" t="n">
-        <v>13.66</v>
+        <v>13.87</v>
       </c>
       <c r="D56" t="n">
-        <v>13.66</v>
+        <v>14.27</v>
       </c>
       <c r="E56" t="n">
-        <v>13.66</v>
+        <v>13.87</v>
       </c>
       <c r="F56" t="n">
-        <v>12725.1908</v>
+        <v>63159.7401</v>
       </c>
       <c r="G56" t="n">
-        <v>-467397.8374679724</v>
+        <v>1114166.563054616</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.61</v>
+        <v>14.16</v>
       </c>
       <c r="C57" t="n">
-        <v>13.59</v>
+        <v>14.2</v>
       </c>
       <c r="D57" t="n">
-        <v>13.61</v>
+        <v>14.2</v>
       </c>
       <c r="E57" t="n">
-        <v>13.59</v>
+        <v>14.16</v>
       </c>
       <c r="F57" t="n">
-        <v>10202.9816</v>
+        <v>72</v>
       </c>
       <c r="G57" t="n">
-        <v>-477600.8190679724</v>
+        <v>1114238.563054616</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.66</v>
+        <v>14.14</v>
       </c>
       <c r="C58" t="n">
-        <v>13.76</v>
+        <v>13.91</v>
       </c>
       <c r="D58" t="n">
-        <v>13.76</v>
+        <v>14.26</v>
       </c>
       <c r="E58" t="n">
-        <v>13.54</v>
+        <v>13.91</v>
       </c>
       <c r="F58" t="n">
-        <v>227433.5703139535</v>
+        <v>15319</v>
       </c>
       <c r="G58" t="n">
-        <v>-250167.2487540189</v>
+        <v>1098919.563054616</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.74</v>
+        <v>14.04</v>
       </c>
       <c r="C59" t="n">
-        <v>13.74</v>
+        <v>14.09</v>
       </c>
       <c r="D59" t="n">
-        <v>13.74</v>
+        <v>14.09</v>
       </c>
       <c r="E59" t="n">
-        <v>13.74</v>
+        <v>13.9</v>
       </c>
       <c r="F59" t="n">
-        <v>655.0218340611353</v>
+        <v>163129.9862</v>
       </c>
       <c r="G59" t="n">
-        <v>-250822.27058808</v>
+        <v>1262049.549254616</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.59</v>
+        <v>14.1</v>
       </c>
       <c r="C60" t="n">
-        <v>13.59</v>
+        <v>13.89</v>
       </c>
       <c r="D60" t="n">
-        <v>13.59</v>
+        <v>14.1</v>
       </c>
       <c r="E60" t="n">
-        <v>13.59</v>
+        <v>13.89</v>
       </c>
       <c r="F60" t="n">
-        <v>6380</v>
+        <v>5480.9978</v>
       </c>
       <c r="G60" t="n">
-        <v>-257202.27058808</v>
+        <v>1256568.551454616</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.61</v>
+        <v>14.07</v>
       </c>
       <c r="C61" t="n">
-        <v>13.61</v>
+        <v>14.07</v>
       </c>
       <c r="D61" t="n">
-        <v>13.61</v>
+        <v>14.07</v>
       </c>
       <c r="E61" t="n">
-        <v>13.61</v>
+        <v>14.07</v>
       </c>
       <c r="F61" t="n">
-        <v>2310</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>-254892.27058808</v>
+        <v>1256604.551454616</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.56</v>
+        <v>13.9</v>
       </c>
       <c r="C62" t="n">
-        <v>13.56</v>
+        <v>13.82</v>
       </c>
       <c r="D62" t="n">
-        <v>13.56</v>
+        <v>13.9</v>
       </c>
       <c r="E62" t="n">
-        <v>13.56</v>
+        <v>13.67</v>
       </c>
       <c r="F62" t="n">
-        <v>891.6481</v>
+        <v>98444.8299</v>
       </c>
       <c r="G62" t="n">
-        <v>-255783.91868808</v>
+        <v>1158159.721554616</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.5</v>
+        <v>13.61</v>
       </c>
       <c r="C63" t="n">
         <v>13.61</v>
@@ -2837,54 +2969,49 @@
         <v>13.61</v>
       </c>
       <c r="E63" t="n">
-        <v>13.49</v>
+        <v>13.61</v>
       </c>
       <c r="F63" t="n">
-        <v>96049.5089</v>
+        <v>7200</v>
       </c>
       <c r="G63" t="n">
-        <v>-159734.40978808</v>
+        <v>1150959.721554616</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.44</v>
+        <v>13.8</v>
       </c>
       <c r="C64" t="n">
-        <v>13.42</v>
+        <v>13.81</v>
       </c>
       <c r="D64" t="n">
-        <v>13.5</v>
+        <v>13.81</v>
       </c>
       <c r="E64" t="n">
-        <v>13.32</v>
+        <v>13.8</v>
       </c>
       <c r="F64" t="n">
-        <v>166223.6837</v>
+        <v>72</v>
       </c>
       <c r="G64" t="n">
-        <v>-325958.09348808</v>
+        <v>1151031.721554616</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2893,39 +3020,34 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.42</v>
+        <v>13.63</v>
       </c>
       <c r="C65" t="n">
-        <v>13.63</v>
+        <v>13.61</v>
       </c>
       <c r="D65" t="n">
         <v>13.63</v>
       </c>
       <c r="E65" t="n">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="F65" t="n">
-        <v>92886.8305</v>
+        <v>69974.10739999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-233071.26298808</v>
+        <v>1081057.614154616</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2934,39 +3056,34 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.47</v>
+        <v>13.6</v>
       </c>
       <c r="C66" t="n">
-        <v>13.47</v>
+        <v>13.6</v>
       </c>
       <c r="D66" t="n">
-        <v>13.47</v>
+        <v>13.6</v>
       </c>
       <c r="E66" t="n">
-        <v>13.47</v>
+        <v>13.6</v>
       </c>
       <c r="F66" t="n">
-        <v>99.88290000000001</v>
+        <v>7130.7468</v>
       </c>
       <c r="G66" t="n">
-        <v>-233171.14588808</v>
+        <v>1073926.867354616</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2975,39 +3092,34 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="C67" t="n">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="D67" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="E67" t="n">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="F67" t="n">
-        <v>69250.1171</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>-302421.26298808</v>
+        <v>1073966.867354616</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3016,39 +3128,34 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C68" t="n">
-        <v>13.49</v>
+        <v>13.6</v>
       </c>
       <c r="D68" t="n">
-        <v>13.49</v>
+        <v>13.6</v>
       </c>
       <c r="E68" t="n">
-        <v>13.38</v>
+        <v>13.6</v>
       </c>
       <c r="F68" t="n">
-        <v>81139</v>
+        <v>32068.5436</v>
       </c>
       <c r="G68" t="n">
-        <v>-221282.26298808</v>
+        <v>1041898.323754616</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3057,82 +3164,70 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.38</v>
+        <v>13.69</v>
       </c>
       <c r="C69" t="n">
-        <v>13.4</v>
+        <v>13.74</v>
       </c>
       <c r="D69" t="n">
-        <v>13.4</v>
+        <v>13.74</v>
       </c>
       <c r="E69" t="n">
-        <v>13.37</v>
+        <v>13.69</v>
       </c>
       <c r="F69" t="n">
-        <v>124055.9172</v>
+        <v>8011.536918704513</v>
       </c>
       <c r="G69" t="n">
-        <v>-345338.1801880801</v>
+        <v>1049909.86067332</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K69" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.26</v>
+        <v>13.72</v>
       </c>
       <c r="C70" t="n">
-        <v>13.22</v>
+        <v>13.62</v>
       </c>
       <c r="D70" t="n">
-        <v>13.26</v>
+        <v>13.72</v>
       </c>
       <c r="E70" t="n">
-        <v>13.22</v>
+        <v>13.62</v>
       </c>
       <c r="F70" t="n">
-        <v>68805.3872</v>
+        <v>169514.8266</v>
       </c>
       <c r="G70" t="n">
-        <v>-414143.5673880801</v>
+        <v>880395.0340733205</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3141,426 +3236,358 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.21</v>
+        <v>13.63</v>
       </c>
       <c r="C71" t="n">
-        <v>13.23</v>
+        <v>13.66</v>
       </c>
       <c r="D71" t="n">
-        <v>13.23</v>
+        <v>13.66</v>
       </c>
       <c r="E71" t="n">
-        <v>13.21</v>
+        <v>13.63</v>
       </c>
       <c r="F71" t="n">
-        <v>126164.9852</v>
+        <v>13174.9738</v>
       </c>
       <c r="G71" t="n">
-        <v>-287978.5821880801</v>
+        <v>893570.0078733205</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="K71" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.34</v>
+        <v>13.6</v>
       </c>
       <c r="C72" t="n">
-        <v>13.33</v>
+        <v>13.57</v>
       </c>
       <c r="D72" t="n">
-        <v>13.34</v>
+        <v>13.6</v>
       </c>
       <c r="E72" t="n">
-        <v>13.33</v>
+        <v>13.57</v>
       </c>
       <c r="F72" t="n">
-        <v>7939.9999</v>
+        <v>83370.5203</v>
       </c>
       <c r="G72" t="n">
-        <v>-280038.5822880801</v>
+        <v>810199.4875733205</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="K72" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.32</v>
+        <v>13.54</v>
       </c>
       <c r="C73" t="n">
-        <v>13.32</v>
+        <v>13.54</v>
       </c>
       <c r="D73" t="n">
-        <v>13.32</v>
+        <v>13.54</v>
       </c>
       <c r="E73" t="n">
-        <v>13.32</v>
+        <v>13.54</v>
       </c>
       <c r="F73" t="n">
-        <v>1046.7924</v>
+        <v>48892.3296</v>
       </c>
       <c r="G73" t="n">
-        <v>-281085.37468808</v>
+        <v>761307.1579733205</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.32</v>
+        <v>13.52</v>
       </c>
       <c r="C74" t="n">
-        <v>13.32</v>
+        <v>13.52</v>
       </c>
       <c r="D74" t="n">
-        <v>13.32</v>
+        <v>13.52</v>
       </c>
       <c r="E74" t="n">
-        <v>13.32</v>
+        <v>13.52</v>
       </c>
       <c r="F74" t="n">
-        <v>8574.501899999999</v>
+        <v>37</v>
       </c>
       <c r="G74" t="n">
-        <v>-281085.37468808</v>
+        <v>761270.1579733205</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="K74" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.43</v>
+        <v>13.52</v>
       </c>
       <c r="C75" t="n">
-        <v>13.43</v>
+        <v>13.51</v>
       </c>
       <c r="D75" t="n">
-        <v>13.43</v>
+        <v>13.52</v>
       </c>
       <c r="E75" t="n">
-        <v>13.43</v>
+        <v>13.51</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>928</v>
       </c>
       <c r="G75" t="n">
-        <v>-281047.37468808</v>
+        <v>760342.1579733205</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="K75" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="C76" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="D76" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="E76" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="F76" t="n">
-        <v>46230.6194</v>
+        <v>13456.5347</v>
       </c>
       <c r="G76" t="n">
-        <v>-281047.37468808</v>
+        <v>746885.6232733205</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K76" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="C77" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="D77" t="n">
-        <v>13.43</v>
+        <v>13.57</v>
       </c>
       <c r="E77" t="n">
-        <v>13.43</v>
+        <v>13.49</v>
       </c>
       <c r="F77" t="n">
-        <v>33000</v>
+        <v>177043.9834</v>
       </c>
       <c r="G77" t="n">
-        <v>-281047.37468808</v>
+        <v>746885.6232733205</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K77" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.43</v>
+        <v>13.58</v>
       </c>
       <c r="C78" t="n">
-        <v>13.43</v>
+        <v>13.58</v>
       </c>
       <c r="D78" t="n">
-        <v>13.43</v>
+        <v>13.58</v>
       </c>
       <c r="E78" t="n">
-        <v>13.43</v>
+        <v>13.58</v>
       </c>
       <c r="F78" t="n">
-        <v>9395.8182</v>
+        <v>37.215</v>
       </c>
       <c r="G78" t="n">
-        <v>-281047.37468808</v>
+        <v>746922.8382733205</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K78" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.43</v>
+        <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>13.43</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.43</v>
+        <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.43</v>
+        <v>13.5</v>
       </c>
       <c r="F79" t="n">
-        <v>25368.8267</v>
+        <v>29200</v>
       </c>
       <c r="G79" t="n">
-        <v>-281047.37468808</v>
+        <v>717722.8382733205</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K79" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="C80" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="D80" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="E80" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="F80" t="n">
-        <v>113995.2643</v>
+        <v>11362.03</v>
       </c>
       <c r="G80" t="n">
-        <v>-167052.1103880801</v>
+        <v>717722.8382733205</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3569,82 +3596,70 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.47</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="D81" t="n">
-        <v>13.47</v>
+        <v>13.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="F81" t="n">
-        <v>99136.0061</v>
+        <v>25682.3759</v>
       </c>
       <c r="G81" t="n">
-        <v>-167052.1103880801</v>
+        <v>717722.8382733205</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K81" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.47</v>
+        <v>13.58</v>
       </c>
       <c r="C82" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="D82" t="n">
-        <v>13.48</v>
+        <v>13.58</v>
       </c>
       <c r="E82" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="F82" t="n">
-        <v>26885.0061</v>
+        <v>63686.9389</v>
       </c>
       <c r="G82" t="n">
-        <v>-167052.1103880801</v>
+        <v>781409.7771733204</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3653,39 +3668,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="C83" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="D83" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="E83" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="F83" t="n">
-        <v>2855.4997</v>
+        <v>4557.3476</v>
       </c>
       <c r="G83" t="n">
-        <v>-167052.1103880801</v>
+        <v>781409.7771733204</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3694,39 +3704,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="C84" t="n">
-        <v>13.45</v>
+        <v>13.61</v>
       </c>
       <c r="D84" t="n">
-        <v>13.45</v>
+        <v>13.61</v>
       </c>
       <c r="E84" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="F84" t="n">
-        <v>2407.5135</v>
+        <v>23070.9384</v>
       </c>
       <c r="G84" t="n">
-        <v>-167052.1103880801</v>
+        <v>804480.7155733204</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3735,39 +3740,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="C85" t="n">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="D85" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="E85" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="F85" t="n">
-        <v>348163.3725</v>
+        <v>5083.3776</v>
       </c>
       <c r="G85" t="n">
-        <v>181111.2621119199</v>
+        <v>804480.7155733204</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3776,39 +3776,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="C86" t="n">
-        <v>13.7</v>
+        <v>13.58</v>
       </c>
       <c r="D86" t="n">
-        <v>13.77</v>
+        <v>13.61</v>
       </c>
       <c r="E86" t="n">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="F86" t="n">
-        <v>171706.9039</v>
+        <v>41748.1785</v>
       </c>
       <c r="G86" t="n">
-        <v>352818.16601192</v>
+        <v>762732.5370733204</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3817,39 +3812,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.79</v>
+        <v>13.51</v>
       </c>
       <c r="C87" t="n">
-        <v>13.79</v>
+        <v>13.64</v>
       </c>
       <c r="D87" t="n">
-        <v>13.79</v>
+        <v>13.64</v>
       </c>
       <c r="E87" t="n">
-        <v>13.61</v>
+        <v>13.51</v>
       </c>
       <c r="F87" t="n">
-        <v>22080.7375</v>
+        <v>20073.9155</v>
       </c>
       <c r="G87" t="n">
-        <v>374898.90351192</v>
+        <v>782806.4525733204</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3858,39 +3848,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.79</v>
+        <v>13.64</v>
       </c>
       <c r="C88" t="n">
-        <v>13.89</v>
+        <v>13.64</v>
       </c>
       <c r="D88" t="n">
-        <v>13.9</v>
+        <v>13.64</v>
       </c>
       <c r="E88" t="n">
-        <v>13.65</v>
+        <v>13.64</v>
       </c>
       <c r="F88" t="n">
-        <v>316728.3296</v>
+        <v>2360.5623</v>
       </c>
       <c r="G88" t="n">
-        <v>691627.23311192</v>
+        <v>782806.4525733204</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3899,39 +3884,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.89</v>
+        <v>13.64</v>
       </c>
       <c r="C89" t="n">
-        <v>13.8</v>
+        <v>13.52</v>
       </c>
       <c r="D89" t="n">
-        <v>13.98</v>
+        <v>13.64</v>
       </c>
       <c r="E89" t="n">
-        <v>13.71</v>
+        <v>13.52</v>
       </c>
       <c r="F89" t="n">
-        <v>172374.3427</v>
+        <v>15929</v>
       </c>
       <c r="G89" t="n">
-        <v>519252.8904119199</v>
+        <v>766877.4525733204</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3940,39 +3920,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
       <c r="C90" t="n">
         <v>13.65</v>
       </c>
       <c r="D90" t="n">
-        <v>13.95</v>
+        <v>13.65</v>
       </c>
       <c r="E90" t="n">
         <v>13.65</v>
       </c>
       <c r="F90" t="n">
-        <v>306669.9393</v>
+        <v>7490.1137</v>
       </c>
       <c r="G90" t="n">
-        <v>212582.9511119199</v>
+        <v>774367.5662733203</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3981,39 +3956,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.85</v>
+        <v>13.51</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>13.47</v>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>13.51</v>
       </c>
       <c r="E91" t="n">
-        <v>13.76</v>
+        <v>13.47</v>
       </c>
       <c r="F91" t="n">
-        <v>265970.3768</v>
+        <v>22200</v>
       </c>
       <c r="G91" t="n">
-        <v>478553.3279119199</v>
+        <v>752167.5662733203</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4022,39 +3992,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14</v>
+        <v>13.47</v>
       </c>
       <c r="C92" t="n">
-        <v>14.23</v>
+        <v>13.33</v>
       </c>
       <c r="D92" t="n">
-        <v>14.23</v>
+        <v>13.47</v>
       </c>
       <c r="E92" t="n">
-        <v>13.76</v>
+        <v>13.31</v>
       </c>
       <c r="F92" t="n">
-        <v>372224.7323</v>
+        <v>180283.3834</v>
       </c>
       <c r="G92" t="n">
-        <v>850778.0602119199</v>
+        <v>571884.1828733203</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4063,39 +4028,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.2</v>
+        <v>13.32</v>
       </c>
       <c r="C93" t="n">
-        <v>14.5</v>
+        <v>13.2</v>
       </c>
       <c r="D93" t="n">
-        <v>14.5</v>
+        <v>13.32</v>
       </c>
       <c r="E93" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="F93" t="n">
-        <v>359426.3414426966</v>
+        <v>4000</v>
       </c>
       <c r="G93" t="n">
-        <v>1210204.401654616</v>
+        <v>567884.1828733203</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4104,39 +4064,34 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.3</v>
+        <v>13.23</v>
       </c>
       <c r="C94" t="n">
-        <v>13.93</v>
+        <v>13.21</v>
       </c>
       <c r="D94" t="n">
-        <v>14.3</v>
+        <v>13.23</v>
       </c>
       <c r="E94" t="n">
-        <v>13.93</v>
+        <v>13.21</v>
       </c>
       <c r="F94" t="n">
-        <v>5913.7161</v>
+        <v>79387.80710000001</v>
       </c>
       <c r="G94" t="n">
-        <v>1204290.685554616</v>
+        <v>647271.9899733203</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4145,39 +4100,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.2</v>
+        <v>13.21</v>
       </c>
       <c r="C95" t="n">
-        <v>14.49</v>
+        <v>13.2</v>
       </c>
       <c r="D95" t="n">
-        <v>14.49</v>
+        <v>13.21</v>
       </c>
       <c r="E95" t="n">
-        <v>14.09</v>
+        <v>13.2</v>
       </c>
       <c r="F95" t="n">
-        <v>9627.0105</v>
+        <v>74597.4522</v>
       </c>
       <c r="G95" t="n">
-        <v>1213917.696054616</v>
+        <v>572674.5377733202</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4186,39 +4136,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.1</v>
+        <v>13.11</v>
       </c>
       <c r="C96" t="n">
-        <v>14.49</v>
+        <v>13.11</v>
       </c>
       <c r="D96" t="n">
-        <v>14.5</v>
+        <v>13.13</v>
       </c>
       <c r="E96" t="n">
-        <v>14.1</v>
+        <v>13.11</v>
       </c>
       <c r="F96" t="n">
-        <v>198307.4239</v>
+        <v>104494.5306</v>
       </c>
       <c r="G96" t="n">
-        <v>1213917.696054616</v>
+        <v>468180.0071733202</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4227,39 +4172,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.12</v>
+        <v>13.2</v>
       </c>
       <c r="C97" t="n">
-        <v>14.16</v>
+        <v>13.2</v>
       </c>
       <c r="D97" t="n">
-        <v>14.16</v>
+        <v>13.2</v>
       </c>
       <c r="E97" t="n">
-        <v>13.88</v>
+        <v>13.2</v>
       </c>
       <c r="F97" t="n">
-        <v>36591.3929</v>
+        <v>17850.3551</v>
       </c>
       <c r="G97" t="n">
-        <v>1177326.303154616</v>
+        <v>486030.3622733202</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4268,80 +4208,70 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.27</v>
+        <v>13.2</v>
       </c>
       <c r="C98" t="n">
-        <v>13.87</v>
+        <v>13.2</v>
       </c>
       <c r="D98" t="n">
-        <v>14.27</v>
+        <v>13.2</v>
       </c>
       <c r="E98" t="n">
-        <v>13.87</v>
+        <v>13.2</v>
       </c>
       <c r="F98" t="n">
-        <v>63159.7401</v>
+        <v>8896.5679</v>
       </c>
       <c r="G98" t="n">
-        <v>1114166.563054616</v>
+        <v>486030.3622733202</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>1.005932944606414</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.16</v>
+        <v>13.23</v>
       </c>
       <c r="C99" t="n">
-        <v>14.2</v>
+        <v>13.23</v>
       </c>
       <c r="D99" t="n">
-        <v>14.2</v>
+        <v>13.23</v>
       </c>
       <c r="E99" t="n">
-        <v>14.16</v>
+        <v>13.23</v>
       </c>
       <c r="F99" t="n">
-        <v>72</v>
+        <v>8653.9539</v>
       </c>
       <c r="G99" t="n">
-        <v>1114238.563054616</v>
+        <v>494684.3161733202</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4355,34 +4285,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.14</v>
+        <v>13.21</v>
       </c>
       <c r="C100" t="n">
-        <v>13.91</v>
+        <v>13.21</v>
       </c>
       <c r="D100" t="n">
-        <v>14.26</v>
+        <v>13.21</v>
       </c>
       <c r="E100" t="n">
-        <v>13.91</v>
+        <v>13.12</v>
       </c>
       <c r="F100" t="n">
-        <v>15319</v>
+        <v>153529.0343</v>
       </c>
       <c r="G100" t="n">
-        <v>1098919.563054616</v>
+        <v>341155.2818733202</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4390,34 +4321,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.04</v>
+        <v>13.23</v>
       </c>
       <c r="C101" t="n">
-        <v>14.09</v>
+        <v>13.23</v>
       </c>
       <c r="D101" t="n">
-        <v>14.09</v>
+        <v>13.23</v>
       </c>
       <c r="E101" t="n">
-        <v>13.9</v>
+        <v>13.23</v>
       </c>
       <c r="F101" t="n">
-        <v>163129.9862</v>
+        <v>2709.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>1262049.549254616</v>
+        <v>343865.2817733202</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4425,34 +4357,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.1</v>
+        <v>13.28</v>
       </c>
       <c r="C102" t="n">
-        <v>13.89</v>
+        <v>13.25</v>
       </c>
       <c r="D102" t="n">
-        <v>14.1</v>
+        <v>13.28</v>
       </c>
       <c r="E102" t="n">
-        <v>13.89</v>
+        <v>13.25</v>
       </c>
       <c r="F102" t="n">
-        <v>5480.9978</v>
+        <v>2714.6058</v>
       </c>
       <c r="G102" t="n">
-        <v>1256568.551454616</v>
+        <v>346579.8875733202</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4460,34 +4393,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.07</v>
+        <v>13.21</v>
       </c>
       <c r="C103" t="n">
-        <v>14.07</v>
+        <v>13.16</v>
       </c>
       <c r="D103" t="n">
-        <v>14.07</v>
+        <v>13.21</v>
       </c>
       <c r="E103" t="n">
-        <v>14.07</v>
+        <v>13.16</v>
       </c>
       <c r="F103" t="n">
-        <v>36</v>
+        <v>26000</v>
       </c>
       <c r="G103" t="n">
-        <v>1256604.551454616</v>
+        <v>320579.8875733202</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4495,34 +4429,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.9</v>
+        <v>13.18</v>
       </c>
       <c r="C104" t="n">
-        <v>13.82</v>
+        <v>13.18</v>
       </c>
       <c r="D104" t="n">
-        <v>13.9</v>
+        <v>13.18</v>
       </c>
       <c r="E104" t="n">
-        <v>13.67</v>
+        <v>13.18</v>
       </c>
       <c r="F104" t="n">
-        <v>98444.8299</v>
+        <v>4350</v>
       </c>
       <c r="G104" t="n">
-        <v>1158159.721554616</v>
+        <v>324929.8875733202</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4530,1476 +4465,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="C105" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D105" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="E105" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7200</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1150959.721554616</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="D106" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="E106" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>72</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1151031.721554616</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="C107" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D107" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="E107" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F107" t="n">
-        <v>69974.10739999999</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1081057.614154616</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>7130.7468</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1073926.867354616</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="C109" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D109" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="E109" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F109" t="n">
-        <v>40</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1073966.867354616</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>32068.5436</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1041898.323754616</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="C111" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="D111" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="E111" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8011.536918704513</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1049909.86067332</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="C112" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="D112" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E112" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F112" t="n">
-        <v>169514.8266</v>
-      </c>
-      <c r="G112" t="n">
-        <v>880395.0340733205</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="C113" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D113" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="E113" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="F113" t="n">
-        <v>13174.9738</v>
-      </c>
-      <c r="G113" t="n">
-        <v>893570.0078733205</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C114" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="D114" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="F114" t="n">
-        <v>83370.5203</v>
-      </c>
-      <c r="G114" t="n">
-        <v>810199.4875733205</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="C115" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="D115" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="E115" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="F115" t="n">
-        <v>48892.3296</v>
-      </c>
-      <c r="G115" t="n">
-        <v>761307.1579733205</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="C116" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="D116" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="E116" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="F116" t="n">
-        <v>37</v>
-      </c>
-      <c r="G116" t="n">
-        <v>761270.1579733205</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="C117" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="D117" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="E117" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="F117" t="n">
-        <v>928</v>
-      </c>
-      <c r="G117" t="n">
-        <v>760342.1579733205</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="C118" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="D118" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="E118" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="F118" t="n">
-        <v>13456.5347</v>
-      </c>
-      <c r="G118" t="n">
-        <v>746885.6232733205</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="C119" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="D119" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="E119" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="F119" t="n">
-        <v>177043.9834</v>
-      </c>
-      <c r="G119" t="n">
-        <v>746885.6232733205</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C120" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D120" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="E120" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F120" t="n">
-        <v>37.215</v>
-      </c>
-      <c r="G120" t="n">
-        <v>746922.8382733205</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>29200</v>
-      </c>
-      <c r="G121" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11362.03</v>
-      </c>
-      <c r="G122" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>25682.3759</v>
-      </c>
-      <c r="G123" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D124" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="E124" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F124" t="n">
-        <v>63686.9389</v>
-      </c>
-      <c r="G124" t="n">
-        <v>781409.7771733204</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C125" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4557.3476</v>
-      </c>
-      <c r="G125" t="n">
-        <v>781409.7771733204</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C126" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D126" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F126" t="n">
-        <v>23070.9384</v>
-      </c>
-      <c r="G126" t="n">
-        <v>804480.7155733204</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="C127" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D127" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="E127" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5083.3776</v>
-      </c>
-      <c r="G127" t="n">
-        <v>804480.7155733204</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="F128" t="n">
-        <v>41748.1785</v>
-      </c>
-      <c r="G128" t="n">
-        <v>762732.5370733204</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="C129" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20073.9155</v>
-      </c>
-      <c r="G129" t="n">
-        <v>782806.4525733204</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="C130" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E130" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2360.5623</v>
-      </c>
-      <c r="G130" t="n">
-        <v>782806.4525733204</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="F131" t="n">
-        <v>15929</v>
-      </c>
-      <c r="G131" t="n">
-        <v>766877.4525733204</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C132" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D132" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="E132" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7490.1137</v>
-      </c>
-      <c r="G132" t="n">
-        <v>774367.5662733203</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="C133" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="D133" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="E133" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="F133" t="n">
-        <v>22200</v>
-      </c>
-      <c r="G133" t="n">
-        <v>752167.5662733203</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="C134" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="D134" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F134" t="n">
-        <v>180283.3834</v>
-      </c>
-      <c r="G134" t="n">
-        <v>571884.1828733203</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="C135" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="E135" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>567884.1828733203</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="C136" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="D136" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E136" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="F136" t="n">
-        <v>79387.80710000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>647271.9899733203</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>74597.4522</v>
-      </c>
-      <c r="G137" t="n">
-        <v>572674.5377733202</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="C138" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="E138" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>104494.5306</v>
-      </c>
-      <c r="G138" t="n">
-        <v>468180.0071733202</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>17850.3551</v>
-      </c>
-      <c r="G139" t="n">
-        <v>486030.3622733202</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8896.5679</v>
-      </c>
-      <c r="G140" t="n">
-        <v>486030.3622733202</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="C141" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D141" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E141" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F141" t="n">
-        <v>8653.9539</v>
-      </c>
-      <c r="G141" t="n">
-        <v>494684.3161733202</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C142" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="D142" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E142" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="F142" t="n">
-        <v>153529.0343</v>
-      </c>
-      <c r="G142" t="n">
-        <v>341155.2818733202</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="C143" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D143" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E143" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2709.9999</v>
-      </c>
-      <c r="G143" t="n">
-        <v>343865.2817733202</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="C144" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="D144" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E144" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2714.6058</v>
-      </c>
-      <c r="G144" t="n">
-        <v>346579.8875733202</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="C145" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="D145" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E145" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="F145" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>320579.8875733202</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="C146" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="D146" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="E146" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4350</v>
-      </c>
-      <c r="G146" t="n">
-        <v>324929.8875733202</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.57</v>
+        <v>13.52</v>
       </c>
       <c r="C2" t="n">
-        <v>13.74</v>
+        <v>13.52</v>
       </c>
       <c r="D2" t="n">
-        <v>13.74</v>
+        <v>13.52</v>
       </c>
       <c r="E2" t="n">
-        <v>13.57</v>
+        <v>13.52</v>
       </c>
       <c r="F2" t="n">
-        <v>5167.168701892285</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>-314625.3983679725</v>
+        <v>33660.77889999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.75</v>
+        <v>13.56</v>
       </c>
       <c r="C3" t="n">
-        <v>13.75</v>
+        <v>13.57</v>
       </c>
       <c r="D3" t="n">
-        <v>13.75</v>
+        <v>13.57</v>
       </c>
       <c r="E3" t="n">
-        <v>13.75</v>
+        <v>13.39</v>
       </c>
       <c r="F3" t="n">
-        <v>9849.43</v>
+        <v>17937.973</v>
       </c>
       <c r="G3" t="n">
-        <v>-304775.9683679725</v>
+        <v>51598.75189999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>13.52</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6</v>
+        <v>13.38</v>
       </c>
       <c r="C4" t="n">
-        <v>13.74</v>
+        <v>13.38</v>
       </c>
       <c r="D4" t="n">
-        <v>13.75</v>
+        <v>13.38</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6</v>
+        <v>13.38</v>
       </c>
       <c r="F4" t="n">
-        <v>140600</v>
+        <v>8035.2238</v>
       </c>
       <c r="G4" t="n">
-        <v>-445375.9683679725</v>
+        <v>43563.52809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>13.57</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.74</v>
+        <v>13.38</v>
       </c>
       <c r="C5" t="n">
-        <v>13.76</v>
+        <v>13.38</v>
       </c>
       <c r="D5" t="n">
-        <v>13.76</v>
+        <v>13.38</v>
       </c>
       <c r="E5" t="n">
-        <v>13.74</v>
+        <v>13.38</v>
       </c>
       <c r="F5" t="n">
-        <v>17443.7442</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-427932.2241679725</v>
+        <v>43563.52809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>13.38</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.72</v>
+        <v>13.38</v>
       </c>
       <c r="C6" t="n">
-        <v>13.72</v>
+        <v>13.38</v>
       </c>
       <c r="D6" t="n">
-        <v>13.72</v>
+        <v>13.38</v>
       </c>
       <c r="E6" t="n">
-        <v>13.72</v>
+        <v>13.38</v>
       </c>
       <c r="F6" t="n">
-        <v>2454.47</v>
+        <v>17478.0666</v>
       </c>
       <c r="G6" t="n">
-        <v>-430386.6941679724</v>
+        <v>43563.52809999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>13.38</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.77</v>
+        <v>13.49</v>
       </c>
       <c r="C7" t="n">
-        <v>13.77</v>
+        <v>13.49</v>
       </c>
       <c r="D7" t="n">
-        <v>13.77</v>
+        <v>13.49</v>
       </c>
       <c r="E7" t="n">
-        <v>13.77</v>
+        <v>13.49</v>
       </c>
       <c r="F7" t="n">
-        <v>5470.6125</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>-424916.0816679724</v>
+        <v>43663.52809999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>13.38</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.62</v>
+        <v>13.48</v>
       </c>
       <c r="C8" t="n">
-        <v>13.62</v>
+        <v>13.5</v>
       </c>
       <c r="D8" t="n">
-        <v>13.62</v>
+        <v>13.5</v>
       </c>
       <c r="E8" t="n">
-        <v>13.62</v>
+        <v>13.48</v>
       </c>
       <c r="F8" t="n">
-        <v>32016.7558</v>
+        <v>10104</v>
       </c>
       <c r="G8" t="n">
-        <v>-456932.8374679724</v>
+        <v>53767.52809999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>13.49</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.76</v>
+        <v>13.4</v>
       </c>
       <c r="C9" t="n">
-        <v>13.76</v>
+        <v>13.4</v>
       </c>
       <c r="D9" t="n">
-        <v>13.76</v>
+        <v>13.4</v>
       </c>
       <c r="E9" t="n">
-        <v>13.76</v>
+        <v>13.4</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>4290</v>
       </c>
       <c r="G9" t="n">
-        <v>-456895.8374679724</v>
+        <v>49477.52809999999</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -714,12 +750,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>13.5</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -730,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.66</v>
+        <v>13.35</v>
       </c>
       <c r="C10" t="n">
-        <v>13.66</v>
+        <v>13.35</v>
       </c>
       <c r="D10" t="n">
-        <v>13.66</v>
+        <v>13.35</v>
       </c>
       <c r="E10" t="n">
-        <v>13.66</v>
+        <v>13.35</v>
       </c>
       <c r="F10" t="n">
-        <v>4330</v>
+        <v>13000</v>
       </c>
       <c r="G10" t="n">
-        <v>-461225.8374679724</v>
+        <v>36477.52809999999</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -754,14 +792,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K10" t="n">
-        <v>13.62</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -774,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.66</v>
+        <v>13.38</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66</v>
+        <v>13.38</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66</v>
+        <v>13.38</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66</v>
+        <v>13.38</v>
       </c>
       <c r="F11" t="n">
-        <v>10202.9816</v>
+        <v>37.51</v>
       </c>
       <c r="G11" t="n">
-        <v>-461225.8374679724</v>
+        <v>36515.03809999999</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -798,14 +834,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.62</v>
-      </c>
+        <v>13.35</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -818,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.75</v>
+        <v>13.44</v>
       </c>
       <c r="C12" t="n">
-        <v>13.75</v>
+        <v>13.44</v>
       </c>
       <c r="D12" t="n">
-        <v>13.75</v>
+        <v>13.44</v>
       </c>
       <c r="E12" t="n">
-        <v>13.75</v>
+        <v>13.44</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>8574.501899999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-461188.8374679724</v>
+        <v>45089.53999999999</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -842,12 +876,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>13.38</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -858,36 +894,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.66</v>
+        <v>13.4</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66</v>
+        <v>13.5</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66</v>
+        <v>13.5</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66</v>
+        <v>13.4</v>
       </c>
       <c r="F13" t="n">
-        <v>6209</v>
+        <v>15361</v>
       </c>
       <c r="G13" t="n">
-        <v>-467397.8374679724</v>
+        <v>60450.53999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J13" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -900,36 +936,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.66</v>
+        <v>13.46</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66</v>
+        <v>13.46</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66</v>
+        <v>13.46</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66</v>
+        <v>13.46</v>
       </c>
       <c r="F14" t="n">
-        <v>12725.1908</v>
+        <v>2336.9829</v>
       </c>
       <c r="G14" t="n">
-        <v>-467397.8374679724</v>
+        <v>58113.55709999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -942,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.61</v>
+        <v>13.49</v>
       </c>
       <c r="C15" t="n">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D15" t="n">
-        <v>13.61</v>
+        <v>13.58</v>
       </c>
       <c r="E15" t="n">
-        <v>13.59</v>
+        <v>13.49</v>
       </c>
       <c r="F15" t="n">
-        <v>10202.9816</v>
+        <v>2342</v>
       </c>
       <c r="G15" t="n">
-        <v>-477600.8190679724</v>
+        <v>60455.55709999999</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -966,14 +1002,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.66</v>
-      </c>
+        <v>13.46</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -986,35 +1020,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.66</v>
+        <v>13.59</v>
       </c>
       <c r="C16" t="n">
-        <v>13.76</v>
+        <v>13.58</v>
       </c>
       <c r="D16" t="n">
-        <v>13.76</v>
+        <v>13.65</v>
       </c>
       <c r="E16" t="n">
-        <v>13.54</v>
+        <v>13.58</v>
       </c>
       <c r="F16" t="n">
-        <v>227433.5703139535</v>
+        <v>85969.78914886447</v>
       </c>
       <c r="G16" t="n">
-        <v>-250167.2487540189</v>
+        <v>60455.55709999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1030,35 +1060,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="C17" t="n">
-        <v>13.74</v>
+        <v>13.91</v>
       </c>
       <c r="D17" t="n">
-        <v>13.74</v>
+        <v>13.91</v>
       </c>
       <c r="E17" t="n">
-        <v>13.74</v>
+        <v>13.55</v>
       </c>
       <c r="F17" t="n">
-        <v>655.0218340611353</v>
+        <v>160592.1610784135</v>
       </c>
       <c r="G17" t="n">
-        <v>-250822.27058808</v>
+        <v>221047.7181784135</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1074,22 +1100,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.59</v>
+        <v>13.84</v>
       </c>
       <c r="C18" t="n">
-        <v>13.59</v>
+        <v>13.8</v>
       </c>
       <c r="D18" t="n">
-        <v>13.59</v>
+        <v>13.84</v>
       </c>
       <c r="E18" t="n">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="F18" t="n">
-        <v>6380</v>
+        <v>38802.45072318841</v>
       </c>
       <c r="G18" t="n">
-        <v>-257202.27058808</v>
+        <v>182245.2674552251</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1098,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1116,22 +1140,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.61</v>
+        <v>13.71</v>
       </c>
       <c r="C19" t="n">
-        <v>13.61</v>
+        <v>13.55</v>
       </c>
       <c r="D19" t="n">
-        <v>13.61</v>
+        <v>13.86</v>
       </c>
       <c r="E19" t="n">
-        <v>13.61</v>
+        <v>13.55</v>
       </c>
       <c r="F19" t="n">
-        <v>2310</v>
+        <v>111628.8801</v>
       </c>
       <c r="G19" t="n">
-        <v>-254892.27058808</v>
+        <v>70616.38735522512</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1140,9 +1164,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1158,35 +1180,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.56</v>
+        <v>13.67</v>
       </c>
       <c r="C20" t="n">
-        <v>13.56</v>
+        <v>13.67</v>
       </c>
       <c r="D20" t="n">
-        <v>13.56</v>
+        <v>13.67</v>
       </c>
       <c r="E20" t="n">
-        <v>13.56</v>
+        <v>13.67</v>
       </c>
       <c r="F20" t="n">
-        <v>891.6481</v>
+        <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>-255783.91868808</v>
+        <v>71416.38735522512</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1202,22 +1220,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="C21" t="n">
-        <v>13.61</v>
+        <v>13.85</v>
       </c>
       <c r="D21" t="n">
-        <v>13.61</v>
+        <v>13.85</v>
       </c>
       <c r="E21" t="n">
-        <v>13.49</v>
+        <v>13.8</v>
       </c>
       <c r="F21" t="n">
-        <v>96049.5089</v>
+        <v>49118.3631</v>
       </c>
       <c r="G21" t="n">
-        <v>-159734.40978808</v>
+        <v>120534.7504552251</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1226,9 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1244,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.44</v>
+        <v>13.9</v>
       </c>
       <c r="C22" t="n">
-        <v>13.42</v>
+        <v>13.91</v>
       </c>
       <c r="D22" t="n">
-        <v>13.5</v>
+        <v>13.91</v>
       </c>
       <c r="E22" t="n">
-        <v>13.32</v>
+        <v>13.9</v>
       </c>
       <c r="F22" t="n">
-        <v>166223.6837</v>
+        <v>32868.6357</v>
       </c>
       <c r="G22" t="n">
-        <v>-325958.09348808</v>
+        <v>153403.3861552251</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1268,9 +1284,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1286,22 +1300,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.42</v>
+        <v>13.87</v>
       </c>
       <c r="C23" t="n">
-        <v>13.63</v>
+        <v>13.87</v>
       </c>
       <c r="D23" t="n">
-        <v>13.63</v>
+        <v>13.87</v>
       </c>
       <c r="E23" t="n">
-        <v>13.42</v>
+        <v>13.87</v>
       </c>
       <c r="F23" t="n">
-        <v>92886.8305</v>
+        <v>25569.1485</v>
       </c>
       <c r="G23" t="n">
-        <v>-233071.26298808</v>
+        <v>127834.2376552251</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1310,9 +1324,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1328,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="C24" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="D24" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="E24" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="F24" t="n">
-        <v>99.88290000000001</v>
+        <v>8690</v>
       </c>
       <c r="G24" t="n">
-        <v>-233171.14588808</v>
+        <v>127834.2376552251</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1352,9 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1370,22 +1380,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="C25" t="n">
-        <v>13.42</v>
+        <v>13.87</v>
       </c>
       <c r="D25" t="n">
-        <v>13.47</v>
+        <v>13.87</v>
       </c>
       <c r="E25" t="n">
-        <v>13.42</v>
+        <v>13.87</v>
       </c>
       <c r="F25" t="n">
-        <v>69250.1171</v>
+        <v>3295.1574</v>
       </c>
       <c r="G25" t="n">
-        <v>-302421.26298808</v>
+        <v>127834.2376552251</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1394,9 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,35 +1420,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.4</v>
+        <v>13.88</v>
       </c>
       <c r="C26" t="n">
-        <v>13.49</v>
+        <v>13.88</v>
       </c>
       <c r="D26" t="n">
-        <v>13.49</v>
+        <v>13.88</v>
       </c>
       <c r="E26" t="n">
-        <v>13.38</v>
+        <v>13.88</v>
       </c>
       <c r="F26" t="n">
-        <v>81139</v>
+        <v>28496.1828</v>
       </c>
       <c r="G26" t="n">
-        <v>-221282.26298808</v>
+        <v>156330.4204552251</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="K26" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,35 +1460,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.38</v>
+        <v>13.74</v>
       </c>
       <c r="C27" t="n">
-        <v>13.4</v>
+        <v>13.72</v>
       </c>
       <c r="D27" t="n">
-        <v>13.4</v>
+        <v>13.74</v>
       </c>
       <c r="E27" t="n">
-        <v>13.37</v>
+        <v>13.72</v>
       </c>
       <c r="F27" t="n">
-        <v>124055.9172</v>
+        <v>13000</v>
       </c>
       <c r="G27" t="n">
-        <v>-345338.1801880801</v>
+        <v>143330.4204552251</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,35 +1500,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.26</v>
+        <v>13.75</v>
       </c>
       <c r="C28" t="n">
-        <v>13.22</v>
+        <v>13.74</v>
       </c>
       <c r="D28" t="n">
-        <v>13.26</v>
+        <v>13.75</v>
       </c>
       <c r="E28" t="n">
-        <v>13.22</v>
+        <v>13.74</v>
       </c>
       <c r="F28" t="n">
-        <v>68805.3872</v>
+        <v>30827.6827</v>
       </c>
       <c r="G28" t="n">
-        <v>-414143.5673880801</v>
+        <v>174158.1031552251</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,35 +1540,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.21</v>
+        <v>13.91</v>
       </c>
       <c r="C29" t="n">
-        <v>13.23</v>
+        <v>13.91</v>
       </c>
       <c r="D29" t="n">
-        <v>13.23</v>
+        <v>13.91</v>
       </c>
       <c r="E29" t="n">
-        <v>13.21</v>
+        <v>13.91</v>
       </c>
       <c r="F29" t="n">
-        <v>126164.9852</v>
+        <v>6880.7799</v>
       </c>
       <c r="G29" t="n">
-        <v>-287978.5821880801</v>
+        <v>181038.8830552251</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="K29" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1588,35 +1580,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.34</v>
+        <v>13.9</v>
       </c>
       <c r="C30" t="n">
-        <v>13.33</v>
+        <v>13.9</v>
       </c>
       <c r="D30" t="n">
-        <v>13.34</v>
+        <v>13.9</v>
       </c>
       <c r="E30" t="n">
-        <v>13.33</v>
+        <v>13.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7939.9999</v>
+        <v>369</v>
       </c>
       <c r="G30" t="n">
-        <v>-280038.5822880801</v>
+        <v>180669.8830552251</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1632,35 +1620,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.32</v>
+        <v>13.9</v>
       </c>
       <c r="C31" t="n">
-        <v>13.32</v>
+        <v>13.91</v>
       </c>
       <c r="D31" t="n">
-        <v>13.32</v>
+        <v>13.91</v>
       </c>
       <c r="E31" t="n">
-        <v>13.32</v>
+        <v>13.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1046.7924</v>
+        <v>65000</v>
       </c>
       <c r="G31" t="n">
-        <v>-281085.37468808</v>
+        <v>245669.8830552251</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="K31" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1676,35 +1660,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.32</v>
+        <v>13.87</v>
       </c>
       <c r="C32" t="n">
-        <v>13.32</v>
+        <v>13.87</v>
       </c>
       <c r="D32" t="n">
-        <v>13.32</v>
+        <v>13.87</v>
       </c>
       <c r="E32" t="n">
-        <v>13.32</v>
+        <v>13.87</v>
       </c>
       <c r="F32" t="n">
-        <v>8574.501899999999</v>
+        <v>2600.7581</v>
       </c>
       <c r="G32" t="n">
-        <v>-281085.37468808</v>
+        <v>243069.1249552251</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="K32" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,35 +1700,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.43</v>
+        <v>13.77</v>
       </c>
       <c r="C33" t="n">
-        <v>13.43</v>
+        <v>13.78</v>
       </c>
       <c r="D33" t="n">
-        <v>13.43</v>
+        <v>13.87</v>
       </c>
       <c r="E33" t="n">
-        <v>13.43</v>
+        <v>13.72</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>51034.244</v>
       </c>
       <c r="G33" t="n">
-        <v>-281047.37468808</v>
+        <v>192034.8809552251</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="K33" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1764,35 +1740,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.43</v>
+        <v>13.8</v>
       </c>
       <c r="C34" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="D34" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="E34" t="n">
-        <v>13.43</v>
+        <v>13.8</v>
       </c>
       <c r="F34" t="n">
-        <v>46230.6194</v>
+        <v>19301.43517491014</v>
       </c>
       <c r="G34" t="n">
-        <v>-281047.37468808</v>
+        <v>211336.3161301352</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K34" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1808,35 +1780,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="C35" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="D35" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="E35" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="F35" t="n">
-        <v>33000</v>
+        <v>89794.3173</v>
       </c>
       <c r="G35" t="n">
-        <v>-281047.37468808</v>
+        <v>211336.3161301352</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13.66</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1852,43 +1820,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="C36" t="n">
-        <v>13.43</v>
+        <v>13.85</v>
       </c>
       <c r="D36" t="n">
-        <v>13.43</v>
+        <v>13.91</v>
       </c>
       <c r="E36" t="n">
-        <v>13.43</v>
+        <v>13.85</v>
       </c>
       <c r="F36" t="n">
-        <v>9395.8182</v>
+        <v>163770.6499</v>
       </c>
       <c r="G36" t="n">
-        <v>-281047.37468808</v>
+        <v>47565.66623013525</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13.66</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1896,40 +1858,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.43</v>
+        <v>13.85</v>
       </c>
       <c r="C37" t="n">
-        <v>13.43</v>
+        <v>13.83</v>
       </c>
       <c r="D37" t="n">
-        <v>13.43</v>
+        <v>13.85</v>
       </c>
       <c r="E37" t="n">
-        <v>13.43</v>
+        <v>13.83</v>
       </c>
       <c r="F37" t="n">
-        <v>25368.8267</v>
+        <v>51459.2722</v>
       </c>
       <c r="G37" t="n">
-        <v>-281047.37468808</v>
+        <v>-3893.605969864751</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1940,40 +1894,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.45</v>
+        <v>13.89</v>
       </c>
       <c r="C38" t="n">
-        <v>13.45</v>
+        <v>13.97</v>
       </c>
       <c r="D38" t="n">
-        <v>13.45</v>
+        <v>13.97</v>
       </c>
       <c r="E38" t="n">
-        <v>13.45</v>
+        <v>13.89</v>
       </c>
       <c r="F38" t="n">
-        <v>113995.2643</v>
+        <v>24488.9676</v>
       </c>
       <c r="G38" t="n">
-        <v>-167052.1103880801</v>
+        <v>20595.36163013525</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K38" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1984,40 +1930,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.47</v>
+        <v>13.83</v>
       </c>
       <c r="C39" t="n">
-        <v>13.45</v>
+        <v>13.7</v>
       </c>
       <c r="D39" t="n">
-        <v>13.47</v>
+        <v>13.83</v>
       </c>
       <c r="E39" t="n">
-        <v>13.45</v>
+        <v>13.7</v>
       </c>
       <c r="F39" t="n">
-        <v>99136.0061</v>
+        <v>66492.7536</v>
       </c>
       <c r="G39" t="n">
-        <v>-167052.1103880801</v>
+        <v>-45897.39196986475</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K39" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2028,40 +1966,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.47</v>
+        <v>13.73</v>
       </c>
       <c r="C40" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="D40" t="n">
-        <v>13.48</v>
+        <v>13.73</v>
       </c>
       <c r="E40" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="F40" t="n">
-        <v>26885.0061</v>
+        <v>7002.6075</v>
       </c>
       <c r="G40" t="n">
-        <v>-167052.1103880801</v>
+        <v>-38894.78446986475</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K40" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2072,40 +2002,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="C41" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="D41" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="E41" t="n">
-        <v>13.45</v>
+        <v>13.73</v>
       </c>
       <c r="F41" t="n">
-        <v>2855.4997</v>
+        <v>3673.8052</v>
       </c>
       <c r="G41" t="n">
-        <v>-167052.1103880801</v>
+        <v>-38894.78446986475</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K41" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2116,40 +2038,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.45</v>
+        <v>13.72</v>
       </c>
       <c r="C42" t="n">
-        <v>13.45</v>
+        <v>13.71</v>
       </c>
       <c r="D42" t="n">
-        <v>13.45</v>
+        <v>13.72</v>
       </c>
       <c r="E42" t="n">
-        <v>13.45</v>
+        <v>13.71</v>
       </c>
       <c r="F42" t="n">
-        <v>2407.5135</v>
+        <v>30636.1652</v>
       </c>
       <c r="G42" t="n">
-        <v>-167052.1103880801</v>
+        <v>-69530.94966986476</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K42" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2160,40 +2074,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.47</v>
+        <v>13.7</v>
       </c>
       <c r="C43" t="n">
-        <v>13.57</v>
+        <v>13.53</v>
       </c>
       <c r="D43" t="n">
-        <v>13.65</v>
+        <v>13.7</v>
       </c>
       <c r="E43" t="n">
-        <v>13.47</v>
+        <v>13.53</v>
       </c>
       <c r="F43" t="n">
-        <v>348163.3725</v>
+        <v>80429.7892</v>
       </c>
       <c r="G43" t="n">
-        <v>181111.2621119199</v>
+        <v>-149960.7388698648</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K43" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2204,22 +2110,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
       <c r="C44" t="n">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="D44" t="n">
-        <v>13.77</v>
+        <v>13.73</v>
       </c>
       <c r="E44" t="n">
         <v>13.57</v>
       </c>
       <c r="F44" t="n">
-        <v>171706.9039</v>
+        <v>9830.179400000001</v>
       </c>
       <c r="G44" t="n">
-        <v>352818.16601192</v>
+        <v>-140130.5594698648</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2228,14 +2134,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2246,22 +2146,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.79</v>
+        <v>13.6</v>
       </c>
       <c r="C45" t="n">
-        <v>13.79</v>
+        <v>13.6</v>
       </c>
       <c r="D45" t="n">
-        <v>13.79</v>
+        <v>13.6</v>
       </c>
       <c r="E45" t="n">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="F45" t="n">
-        <v>22080.7375</v>
+        <v>25569.1485</v>
       </c>
       <c r="G45" t="n">
-        <v>374898.90351192</v>
+        <v>-165699.7079698648</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2270,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2182,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.79</v>
+        <v>13.72</v>
       </c>
       <c r="C46" t="n">
-        <v>13.89</v>
+        <v>13.72</v>
       </c>
       <c r="D46" t="n">
-        <v>13.9</v>
+        <v>13.72</v>
       </c>
       <c r="E46" t="n">
-        <v>13.65</v>
+        <v>13.72</v>
       </c>
       <c r="F46" t="n">
-        <v>316728.3296</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>691627.23311192</v>
+        <v>-164699.7079698648</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2312,14 +2206,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2218,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.89</v>
+        <v>13.72</v>
       </c>
       <c r="C47" t="n">
-        <v>13.8</v>
+        <v>13.72</v>
       </c>
       <c r="D47" t="n">
-        <v>13.98</v>
+        <v>13.72</v>
       </c>
       <c r="E47" t="n">
-        <v>13.71</v>
+        <v>13.72</v>
       </c>
       <c r="F47" t="n">
-        <v>172374.3427</v>
+        <v>83251.7939</v>
       </c>
       <c r="G47" t="n">
-        <v>519252.8904119199</v>
+        <v>-164699.7079698648</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2354,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2372,22 +2254,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.85</v>
+        <v>13.67</v>
       </c>
       <c r="C48" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="D48" t="n">
-        <v>13.95</v>
+        <v>13.67</v>
       </c>
       <c r="E48" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="F48" t="n">
-        <v>306669.9393</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>212582.9511119199</v>
+        <v>-165699.7079698648</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2396,14 +2278,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2414,22 +2290,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.85</v>
+        <v>13.73</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>13.73</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>13.73</v>
       </c>
       <c r="E49" t="n">
-        <v>13.76</v>
+        <v>13.73</v>
       </c>
       <c r="F49" t="n">
-        <v>265970.3768</v>
+        <v>37</v>
       </c>
       <c r="G49" t="n">
-        <v>478553.3279119199</v>
+        <v>-165662.7079698648</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2438,14 +2314,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2326,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>13.64</v>
       </c>
       <c r="C50" t="n">
-        <v>14.23</v>
+        <v>13.64</v>
       </c>
       <c r="D50" t="n">
-        <v>14.23</v>
+        <v>13.64</v>
       </c>
       <c r="E50" t="n">
-        <v>13.76</v>
+        <v>13.64</v>
       </c>
       <c r="F50" t="n">
-        <v>372224.7323</v>
+        <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>850778.0602119199</v>
+        <v>-166162.7079698648</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2480,14 +2350,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2362,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="C51" t="n">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="D51" t="n">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="E51" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="F51" t="n">
-        <v>359426.3414426966</v>
+        <v>3111</v>
       </c>
       <c r="G51" t="n">
-        <v>1210204.401654616</v>
+        <v>-169273.7079698648</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2522,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2398,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.3</v>
+        <v>13.71</v>
       </c>
       <c r="C52" t="n">
-        <v>13.93</v>
+        <v>13.71</v>
       </c>
       <c r="D52" t="n">
-        <v>14.3</v>
+        <v>13.71</v>
       </c>
       <c r="E52" t="n">
-        <v>13.93</v>
+        <v>13.71</v>
       </c>
       <c r="F52" t="n">
-        <v>5913.7161</v>
+        <v>282.1414</v>
       </c>
       <c r="G52" t="n">
-        <v>1204290.685554616</v>
+        <v>-168991.5665698648</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2564,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2434,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="C53" t="n">
-        <v>14.49</v>
+        <v>13.7</v>
       </c>
       <c r="D53" t="n">
-        <v>14.49</v>
+        <v>13.7</v>
       </c>
       <c r="E53" t="n">
-        <v>14.09</v>
+        <v>13.7</v>
       </c>
       <c r="F53" t="n">
-        <v>9627.0105</v>
+        <v>22410</v>
       </c>
       <c r="G53" t="n">
-        <v>1213917.696054616</v>
+        <v>-191401.5665698648</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2606,14 +2458,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2470,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.1</v>
+        <v>13.61</v>
       </c>
       <c r="C54" t="n">
-        <v>14.49</v>
+        <v>13.61</v>
       </c>
       <c r="D54" t="n">
-        <v>14.5</v>
+        <v>13.61</v>
       </c>
       <c r="E54" t="n">
-        <v>14.1</v>
+        <v>13.61</v>
       </c>
       <c r="F54" t="n">
-        <v>198307.4239</v>
+        <v>13000</v>
       </c>
       <c r="G54" t="n">
-        <v>1213917.696054616</v>
+        <v>-204401.5665698648</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2648,14 +2494,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2666,40 +2506,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.12</v>
+        <v>13.7</v>
       </c>
       <c r="C55" t="n">
-        <v>14.16</v>
+        <v>13.71</v>
       </c>
       <c r="D55" t="n">
-        <v>14.16</v>
+        <v>13.71</v>
       </c>
       <c r="E55" t="n">
-        <v>13.88</v>
+        <v>13.7</v>
       </c>
       <c r="F55" t="n">
-        <v>36591.3929</v>
+        <v>182911.5606</v>
       </c>
       <c r="G55" t="n">
-        <v>1177326.303154616</v>
+        <v>-21490.00596986478</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>1.031603221083455</v>
+        <v>1</v>
       </c>
       <c r="N55" t="inlineStr"/>
     </row>
@@ -2708,28 +2542,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.27</v>
+        <v>13.6</v>
       </c>
       <c r="C56" t="n">
-        <v>13.87</v>
+        <v>13.6</v>
       </c>
       <c r="D56" t="n">
-        <v>14.27</v>
+        <v>13.6</v>
       </c>
       <c r="E56" t="n">
-        <v>13.87</v>
+        <v>13.6</v>
       </c>
       <c r="F56" t="n">
-        <v>63159.7401</v>
+        <v>16891.1965</v>
       </c>
       <c r="G56" t="n">
-        <v>1114166.563054616</v>
+        <v>-38381.20246986478</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2744,28 +2578,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.16</v>
+        <v>13.58</v>
       </c>
       <c r="C57" t="n">
-        <v>14.2</v>
+        <v>13.58</v>
       </c>
       <c r="D57" t="n">
-        <v>14.2</v>
+        <v>13.58</v>
       </c>
       <c r="E57" t="n">
-        <v>14.16</v>
+        <v>13.58</v>
       </c>
       <c r="F57" t="n">
-        <v>72</v>
+        <v>7525.7711</v>
       </c>
       <c r="G57" t="n">
-        <v>1114238.563054616</v>
+        <v>-45906.97356986478</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2780,28 +2614,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.14</v>
+        <v>13.72</v>
       </c>
       <c r="C58" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="D58" t="n">
-        <v>14.26</v>
+        <v>13.72</v>
       </c>
       <c r="E58" t="n">
-        <v>13.91</v>
+        <v>13.72</v>
       </c>
       <c r="F58" t="n">
-        <v>15319</v>
+        <v>37</v>
       </c>
       <c r="G58" t="n">
-        <v>1098919.563054616</v>
+        <v>-45869.97356986478</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2816,28 +2650,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.04</v>
+        <v>13.58</v>
       </c>
       <c r="C59" t="n">
-        <v>14.09</v>
+        <v>13.58</v>
       </c>
       <c r="D59" t="n">
-        <v>14.09</v>
+        <v>13.58</v>
       </c>
       <c r="E59" t="n">
-        <v>13.9</v>
+        <v>13.58</v>
       </c>
       <c r="F59" t="n">
-        <v>163129.9862</v>
+        <v>22410</v>
       </c>
       <c r="G59" t="n">
-        <v>1262049.549254616</v>
+        <v>-68279.97356986479</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2852,28 +2686,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.1</v>
+        <v>13.57</v>
       </c>
       <c r="C60" t="n">
-        <v>13.89</v>
+        <v>13.53</v>
       </c>
       <c r="D60" t="n">
-        <v>14.1</v>
+        <v>13.57</v>
       </c>
       <c r="E60" t="n">
-        <v>13.89</v>
+        <v>13.53</v>
       </c>
       <c r="F60" t="n">
-        <v>5480.9978</v>
+        <v>22384.244</v>
       </c>
       <c r="G60" t="n">
-        <v>1256568.551454616</v>
+        <v>-90664.21756986479</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2888,28 +2722,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.07</v>
+        <v>13.69</v>
       </c>
       <c r="C61" t="n">
-        <v>14.07</v>
+        <v>13.69</v>
       </c>
       <c r="D61" t="n">
-        <v>14.07</v>
+        <v>13.69</v>
       </c>
       <c r="E61" t="n">
-        <v>14.07</v>
+        <v>13.69</v>
       </c>
       <c r="F61" t="n">
-        <v>36</v>
+        <v>1103.0113</v>
       </c>
       <c r="G61" t="n">
-        <v>1256604.551454616</v>
+        <v>-89561.20626986479</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2924,28 +2758,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.9</v>
+        <v>13.53</v>
       </c>
       <c r="C62" t="n">
-        <v>13.82</v>
+        <v>13.53</v>
       </c>
       <c r="D62" t="n">
-        <v>13.9</v>
+        <v>13.53</v>
       </c>
       <c r="E62" t="n">
-        <v>13.67</v>
+        <v>13.53</v>
       </c>
       <c r="F62" t="n">
-        <v>98444.8299</v>
+        <v>81779.2651</v>
       </c>
       <c r="G62" t="n">
-        <v>1158159.721554616</v>
+        <v>-171340.4713698648</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2960,28 +2794,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="C63" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="D63" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="E63" t="n">
-        <v>13.61</v>
+        <v>13.52</v>
       </c>
       <c r="F63" t="n">
-        <v>7200</v>
+        <v>1900</v>
       </c>
       <c r="G63" t="n">
-        <v>1150959.721554616</v>
+        <v>-173240.4713698648</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2996,22 +2830,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.8</v>
+        <v>13.53</v>
       </c>
       <c r="C64" t="n">
-        <v>13.81</v>
+        <v>13.53</v>
       </c>
       <c r="D64" t="n">
-        <v>13.81</v>
+        <v>13.53</v>
       </c>
       <c r="E64" t="n">
-        <v>13.8</v>
+        <v>13.53</v>
       </c>
       <c r="F64" t="n">
-        <v>72</v>
+        <v>1471</v>
       </c>
       <c r="G64" t="n">
-        <v>1151031.721554616</v>
+        <v>-171769.4713698648</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3032,22 +2866,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.63</v>
+        <v>13.53</v>
       </c>
       <c r="C65" t="n">
-        <v>13.61</v>
+        <v>13.53</v>
       </c>
       <c r="D65" t="n">
-        <v>13.63</v>
+        <v>13.53</v>
       </c>
       <c r="E65" t="n">
-        <v>13.61</v>
+        <v>13.53</v>
       </c>
       <c r="F65" t="n">
-        <v>69974.10739999999</v>
+        <v>1.5288</v>
       </c>
       <c r="G65" t="n">
-        <v>1081057.614154616</v>
+        <v>-171769.4713698648</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3068,22 +2902,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="C66" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="D66" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="E66" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="F66" t="n">
-        <v>7130.7468</v>
+        <v>1103.0113</v>
       </c>
       <c r="G66" t="n">
-        <v>1073926.867354616</v>
+        <v>-170666.4600698648</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3104,22 +2938,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.61</v>
+        <v>13.72</v>
       </c>
       <c r="C67" t="n">
-        <v>13.61</v>
+        <v>13.72</v>
       </c>
       <c r="D67" t="n">
-        <v>13.61</v>
+        <v>13.72</v>
       </c>
       <c r="E67" t="n">
-        <v>13.61</v>
+        <v>13.72</v>
       </c>
       <c r="F67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G67" t="n">
-        <v>1073966.867354616</v>
+        <v>-170629.4600698648</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3140,22 +2974,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="C68" t="n">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D68" t="n">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="E68" t="n">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="F68" t="n">
-        <v>32068.5436</v>
+        <v>89543.5722</v>
       </c>
       <c r="G68" t="n">
-        <v>1041898.323754616</v>
+        <v>-260173.0322698648</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3176,22 +3010,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.69</v>
+        <v>13.58</v>
       </c>
       <c r="C69" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="D69" t="n">
-        <v>13.74</v>
+        <v>13.58</v>
       </c>
       <c r="E69" t="n">
-        <v>13.69</v>
+        <v>13.58</v>
       </c>
       <c r="F69" t="n">
-        <v>8011.536918704513</v>
+        <v>51425.2101</v>
       </c>
       <c r="G69" t="n">
-        <v>1049909.86067332</v>
+        <v>-311598.2423698648</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3212,22 +3046,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="C70" t="n">
-        <v>13.62</v>
+        <v>13.58</v>
       </c>
       <c r="D70" t="n">
-        <v>13.72</v>
+        <v>13.58</v>
       </c>
       <c r="E70" t="n">
-        <v>13.62</v>
+        <v>13.58</v>
       </c>
       <c r="F70" t="n">
-        <v>169514.8266</v>
+        <v>4890.1917</v>
       </c>
       <c r="G70" t="n">
-        <v>880395.0340733205</v>
+        <v>-311598.2423698648</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3248,22 +3082,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.63</v>
+        <v>13.57</v>
       </c>
       <c r="C71" t="n">
-        <v>13.66</v>
+        <v>13.57</v>
       </c>
       <c r="D71" t="n">
-        <v>13.66</v>
+        <v>13.57</v>
       </c>
       <c r="E71" t="n">
-        <v>13.63</v>
+        <v>13.57</v>
       </c>
       <c r="F71" t="n">
-        <v>13174.9738</v>
+        <v>8194.324699999999</v>
       </c>
       <c r="G71" t="n">
-        <v>893570.0078733205</v>
+        <v>-319792.5670698648</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3284,22 +3118,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="C72" t="n">
         <v>13.57</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="E72" t="n">
         <v>13.57</v>
       </c>
       <c r="F72" t="n">
-        <v>83370.5203</v>
+        <v>196</v>
       </c>
       <c r="G72" t="n">
-        <v>810199.4875733205</v>
+        <v>-319792.5670698648</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3320,22 +3154,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="C73" t="n">
-        <v>13.54</v>
+        <v>13.74</v>
       </c>
       <c r="D73" t="n">
-        <v>13.54</v>
+        <v>13.74</v>
       </c>
       <c r="E73" t="n">
-        <v>13.54</v>
+        <v>13.57</v>
       </c>
       <c r="F73" t="n">
-        <v>48892.3296</v>
+        <v>5167.168701892285</v>
       </c>
       <c r="G73" t="n">
-        <v>761307.1579733205</v>
+        <v>-314625.3983679725</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3356,22 +3190,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.52</v>
+        <v>13.75</v>
       </c>
       <c r="C74" t="n">
-        <v>13.52</v>
+        <v>13.75</v>
       </c>
       <c r="D74" t="n">
-        <v>13.52</v>
+        <v>13.75</v>
       </c>
       <c r="E74" t="n">
-        <v>13.52</v>
+        <v>13.75</v>
       </c>
       <c r="F74" t="n">
-        <v>37</v>
+        <v>9849.43</v>
       </c>
       <c r="G74" t="n">
-        <v>761270.1579733205</v>
+        <v>-304775.9683679725</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3392,22 +3226,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.52</v>
+        <v>13.6</v>
       </c>
       <c r="C75" t="n">
-        <v>13.51</v>
+        <v>13.74</v>
       </c>
       <c r="D75" t="n">
-        <v>13.52</v>
+        <v>13.75</v>
       </c>
       <c r="E75" t="n">
-        <v>13.51</v>
+        <v>13.6</v>
       </c>
       <c r="F75" t="n">
-        <v>928</v>
+        <v>140600</v>
       </c>
       <c r="G75" t="n">
-        <v>760342.1579733205</v>
+        <v>-445375.9683679725</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3428,22 +3262,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.49</v>
+        <v>13.74</v>
       </c>
       <c r="C76" t="n">
-        <v>13.49</v>
+        <v>13.76</v>
       </c>
       <c r="D76" t="n">
-        <v>13.49</v>
+        <v>13.76</v>
       </c>
       <c r="E76" t="n">
-        <v>13.49</v>
+        <v>13.74</v>
       </c>
       <c r="F76" t="n">
-        <v>13456.5347</v>
+        <v>17443.7442</v>
       </c>
       <c r="G76" t="n">
-        <v>746885.6232733205</v>
+        <v>-427932.2241679725</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3464,22 +3298,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.49</v>
+        <v>13.72</v>
       </c>
       <c r="C77" t="n">
-        <v>13.49</v>
+        <v>13.72</v>
       </c>
       <c r="D77" t="n">
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
       <c r="E77" t="n">
-        <v>13.49</v>
+        <v>13.72</v>
       </c>
       <c r="F77" t="n">
-        <v>177043.9834</v>
+        <v>2454.47</v>
       </c>
       <c r="G77" t="n">
-        <v>746885.6232733205</v>
+        <v>-430386.6941679724</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3500,22 +3334,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.58</v>
+        <v>13.77</v>
       </c>
       <c r="C78" t="n">
-        <v>13.58</v>
+        <v>13.77</v>
       </c>
       <c r="D78" t="n">
-        <v>13.58</v>
+        <v>13.77</v>
       </c>
       <c r="E78" t="n">
-        <v>13.58</v>
+        <v>13.77</v>
       </c>
       <c r="F78" t="n">
-        <v>37.215</v>
+        <v>5470.6125</v>
       </c>
       <c r="G78" t="n">
-        <v>746922.8382733205</v>
+        <v>-424916.0816679724</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3536,22 +3370,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.5</v>
+        <v>13.62</v>
       </c>
       <c r="C79" t="n">
-        <v>13.5</v>
+        <v>13.62</v>
       </c>
       <c r="D79" t="n">
-        <v>13.5</v>
+        <v>13.62</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>13.62</v>
       </c>
       <c r="F79" t="n">
-        <v>29200</v>
+        <v>32016.7558</v>
       </c>
       <c r="G79" t="n">
-        <v>717722.8382733205</v>
+        <v>-456932.8374679724</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3572,22 +3406,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.5</v>
+        <v>13.76</v>
       </c>
       <c r="C80" t="n">
-        <v>13.5</v>
+        <v>13.76</v>
       </c>
       <c r="D80" t="n">
-        <v>13.5</v>
+        <v>13.76</v>
       </c>
       <c r="E80" t="n">
-        <v>13.5</v>
+        <v>13.76</v>
       </c>
       <c r="F80" t="n">
-        <v>11362.03</v>
+        <v>37</v>
       </c>
       <c r="G80" t="n">
-        <v>717722.8382733205</v>
+        <v>-456895.8374679724</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3608,22 +3442,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.5</v>
+        <v>13.66</v>
       </c>
       <c r="C81" t="n">
-        <v>13.5</v>
+        <v>13.66</v>
       </c>
       <c r="D81" t="n">
-        <v>13.5</v>
+        <v>13.66</v>
       </c>
       <c r="E81" t="n">
-        <v>13.5</v>
+        <v>13.66</v>
       </c>
       <c r="F81" t="n">
-        <v>25682.3759</v>
+        <v>4330</v>
       </c>
       <c r="G81" t="n">
-        <v>717722.8382733205</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3644,22 +3478,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="C82" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="D82" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="E82" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="F82" t="n">
-        <v>63686.9389</v>
+        <v>10202.9816</v>
       </c>
       <c r="G82" t="n">
-        <v>781409.7771733204</v>
+        <v>-461225.8374679724</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3680,22 +3514,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.58</v>
+        <v>13.75</v>
       </c>
       <c r="C83" t="n">
-        <v>13.58</v>
+        <v>13.75</v>
       </c>
       <c r="D83" t="n">
-        <v>13.58</v>
+        <v>13.75</v>
       </c>
       <c r="E83" t="n">
-        <v>13.58</v>
+        <v>13.75</v>
       </c>
       <c r="F83" t="n">
-        <v>4557.3476</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>781409.7771733204</v>
+        <v>-461188.8374679724</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3716,22 +3550,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="C84" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="D84" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="E84" t="n">
-        <v>13.58</v>
+        <v>13.66</v>
       </c>
       <c r="F84" t="n">
-        <v>23070.9384</v>
+        <v>6209</v>
       </c>
       <c r="G84" t="n">
-        <v>804480.7155733204</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3752,22 +3586,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="C85" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="D85" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="E85" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="F85" t="n">
-        <v>5083.3776</v>
+        <v>12725.1908</v>
       </c>
       <c r="G85" t="n">
-        <v>804480.7155733204</v>
+        <v>-467397.8374679724</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3791,19 +3625,19 @@
         <v>13.61</v>
       </c>
       <c r="C86" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D86" t="n">
         <v>13.61</v>
       </c>
       <c r="E86" t="n">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="F86" t="n">
-        <v>41748.1785</v>
+        <v>10202.9816</v>
       </c>
       <c r="G86" t="n">
-        <v>762732.5370733204</v>
+        <v>-477600.8190679724</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3824,22 +3658,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.51</v>
+        <v>13.66</v>
       </c>
       <c r="C87" t="n">
-        <v>13.64</v>
+        <v>13.76</v>
       </c>
       <c r="D87" t="n">
-        <v>13.64</v>
+        <v>13.76</v>
       </c>
       <c r="E87" t="n">
-        <v>13.51</v>
+        <v>13.54</v>
       </c>
       <c r="F87" t="n">
-        <v>20073.9155</v>
+        <v>227433.5703139535</v>
       </c>
       <c r="G87" t="n">
-        <v>782806.4525733204</v>
+        <v>-250167.2487540189</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3860,22 +3694,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.64</v>
+        <v>13.74</v>
       </c>
       <c r="C88" t="n">
-        <v>13.64</v>
+        <v>13.74</v>
       </c>
       <c r="D88" t="n">
-        <v>13.64</v>
+        <v>13.74</v>
       </c>
       <c r="E88" t="n">
-        <v>13.64</v>
+        <v>13.74</v>
       </c>
       <c r="F88" t="n">
-        <v>2360.5623</v>
+        <v>655.0218340611353</v>
       </c>
       <c r="G88" t="n">
-        <v>782806.4525733204</v>
+        <v>-250822.27058808</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3896,22 +3730,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.64</v>
+        <v>13.59</v>
       </c>
       <c r="C89" t="n">
-        <v>13.52</v>
+        <v>13.59</v>
       </c>
       <c r="D89" t="n">
-        <v>13.64</v>
+        <v>13.59</v>
       </c>
       <c r="E89" t="n">
-        <v>13.52</v>
+        <v>13.59</v>
       </c>
       <c r="F89" t="n">
-        <v>15929</v>
+        <v>6380</v>
       </c>
       <c r="G89" t="n">
-        <v>766877.4525733204</v>
+        <v>-257202.27058808</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3932,22 +3766,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="C90" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="D90" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="E90" t="n">
-        <v>13.65</v>
+        <v>13.61</v>
       </c>
       <c r="F90" t="n">
-        <v>7490.1137</v>
+        <v>2310</v>
       </c>
       <c r="G90" t="n">
-        <v>774367.5662733203</v>
+        <v>-254892.27058808</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3968,22 +3802,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.51</v>
+        <v>13.56</v>
       </c>
       <c r="C91" t="n">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="D91" t="n">
-        <v>13.51</v>
+        <v>13.56</v>
       </c>
       <c r="E91" t="n">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="F91" t="n">
-        <v>22200</v>
+        <v>891.6481</v>
       </c>
       <c r="G91" t="n">
-        <v>752167.5662733203</v>
+        <v>-255783.91868808</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4004,22 +3838,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.47</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
-        <v>13.33</v>
+        <v>13.61</v>
       </c>
       <c r="D92" t="n">
-        <v>13.47</v>
+        <v>13.61</v>
       </c>
       <c r="E92" t="n">
-        <v>13.31</v>
+        <v>13.49</v>
       </c>
       <c r="F92" t="n">
-        <v>180283.3834</v>
+        <v>96049.5089</v>
       </c>
       <c r="G92" t="n">
-        <v>571884.1828733203</v>
+        <v>-159734.40978808</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4040,22 +3874,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="C93" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E93" t="n">
         <v>13.32</v>
       </c>
-      <c r="C93" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="E93" t="n">
-        <v>13.2</v>
-      </c>
       <c r="F93" t="n">
-        <v>4000</v>
+        <v>166223.6837</v>
       </c>
       <c r="G93" t="n">
-        <v>567884.1828733203</v>
+        <v>-325958.09348808</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4076,22 +3910,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.23</v>
+        <v>13.42</v>
       </c>
       <c r="C94" t="n">
-        <v>13.21</v>
+        <v>13.63</v>
       </c>
       <c r="D94" t="n">
-        <v>13.23</v>
+        <v>13.63</v>
       </c>
       <c r="E94" t="n">
-        <v>13.21</v>
+        <v>13.42</v>
       </c>
       <c r="F94" t="n">
-        <v>79387.80710000001</v>
+        <v>92886.8305</v>
       </c>
       <c r="G94" t="n">
-        <v>647271.9899733203</v>
+        <v>-233071.26298808</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4112,22 +3946,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.21</v>
+        <v>13.47</v>
       </c>
       <c r="C95" t="n">
-        <v>13.2</v>
+        <v>13.47</v>
       </c>
       <c r="D95" t="n">
-        <v>13.21</v>
+        <v>13.47</v>
       </c>
       <c r="E95" t="n">
-        <v>13.2</v>
+        <v>13.47</v>
       </c>
       <c r="F95" t="n">
-        <v>74597.4522</v>
+        <v>99.88290000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>572674.5377733202</v>
+        <v>-233171.14588808</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4148,22 +3982,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.11</v>
+        <v>13.47</v>
       </c>
       <c r="C96" t="n">
-        <v>13.11</v>
+        <v>13.42</v>
       </c>
       <c r="D96" t="n">
-        <v>13.13</v>
+        <v>13.47</v>
       </c>
       <c r="E96" t="n">
-        <v>13.11</v>
+        <v>13.42</v>
       </c>
       <c r="F96" t="n">
-        <v>104494.5306</v>
+        <v>69250.1171</v>
       </c>
       <c r="G96" t="n">
-        <v>468180.0071733202</v>
+        <v>-302421.26298808</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4184,22 +4018,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C97" t="n">
-        <v>13.2</v>
+        <v>13.49</v>
       </c>
       <c r="D97" t="n">
-        <v>13.2</v>
+        <v>13.49</v>
       </c>
       <c r="E97" t="n">
-        <v>13.2</v>
+        <v>13.38</v>
       </c>
       <c r="F97" t="n">
-        <v>17850.3551</v>
+        <v>81139</v>
       </c>
       <c r="G97" t="n">
-        <v>486030.3622733202</v>
+        <v>-221282.26298808</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4220,22 +4054,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.2</v>
+        <v>13.38</v>
       </c>
       <c r="C98" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D98" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E98" t="n">
-        <v>13.2</v>
+        <v>13.37</v>
       </c>
       <c r="F98" t="n">
-        <v>8896.5679</v>
+        <v>124055.9172</v>
       </c>
       <c r="G98" t="n">
-        <v>486030.3622733202</v>
+        <v>-345338.1801880801</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4256,22 +4090,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.23</v>
+        <v>13.26</v>
       </c>
       <c r="C99" t="n">
-        <v>13.23</v>
+        <v>13.22</v>
       </c>
       <c r="D99" t="n">
-        <v>13.23</v>
+        <v>13.26</v>
       </c>
       <c r="E99" t="n">
-        <v>13.23</v>
+        <v>13.22</v>
       </c>
       <c r="F99" t="n">
-        <v>8653.9539</v>
+        <v>68805.3872</v>
       </c>
       <c r="G99" t="n">
-        <v>494684.3161733202</v>
+        <v>-414143.5673880801</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4295,19 +4129,19 @@
         <v>13.21</v>
       </c>
       <c r="C100" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D100" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E100" t="n">
         <v>13.21</v>
       </c>
-      <c r="D100" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="E100" t="n">
-        <v>13.12</v>
-      </c>
       <c r="F100" t="n">
-        <v>153529.0343</v>
+        <v>126164.9852</v>
       </c>
       <c r="G100" t="n">
-        <v>341155.2818733202</v>
+        <v>-287978.5821880801</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4328,22 +4162,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.23</v>
+        <v>13.34</v>
       </c>
       <c r="C101" t="n">
-        <v>13.23</v>
+        <v>13.33</v>
       </c>
       <c r="D101" t="n">
-        <v>13.23</v>
+        <v>13.34</v>
       </c>
       <c r="E101" t="n">
-        <v>13.23</v>
+        <v>13.33</v>
       </c>
       <c r="F101" t="n">
-        <v>2709.9999</v>
+        <v>7939.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>343865.2817733202</v>
+        <v>-280038.5822880801</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4364,22 +4198,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.28</v>
+        <v>13.32</v>
       </c>
       <c r="C102" t="n">
-        <v>13.25</v>
+        <v>13.32</v>
       </c>
       <c r="D102" t="n">
-        <v>13.28</v>
+        <v>13.32</v>
       </c>
       <c r="E102" t="n">
-        <v>13.25</v>
+        <v>13.32</v>
       </c>
       <c r="F102" t="n">
-        <v>2714.6058</v>
+        <v>1046.7924</v>
       </c>
       <c r="G102" t="n">
-        <v>346579.8875733202</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4400,22 +4234,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.21</v>
+        <v>13.32</v>
       </c>
       <c r="C103" t="n">
-        <v>13.16</v>
+        <v>13.32</v>
       </c>
       <c r="D103" t="n">
-        <v>13.21</v>
+        <v>13.32</v>
       </c>
       <c r="E103" t="n">
-        <v>13.16</v>
+        <v>13.32</v>
       </c>
       <c r="F103" t="n">
-        <v>26000</v>
+        <v>8574.501899999999</v>
       </c>
       <c r="G103" t="n">
-        <v>320579.8875733202</v>
+        <v>-281085.37468808</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4436,22 +4270,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.18</v>
+        <v>13.43</v>
       </c>
       <c r="C104" t="n">
-        <v>13.18</v>
+        <v>13.43</v>
       </c>
       <c r="D104" t="n">
-        <v>13.18</v>
+        <v>13.43</v>
       </c>
       <c r="E104" t="n">
-        <v>13.18</v>
+        <v>13.43</v>
       </c>
       <c r="F104" t="n">
-        <v>4350</v>
+        <v>38</v>
       </c>
       <c r="G104" t="n">
-        <v>324929.8875733202</v>
+        <v>-281047.37468808</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4467,6 +4301,2562 @@
       </c>
       <c r="N104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D105" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E105" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F105" t="n">
+        <v>46230.6194</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-281047.37468808</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F106" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-281047.37468808</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E107" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9395.8182</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-281047.37468808</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F108" t="n">
+        <v>25368.8267</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-281047.37468808</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>113995.2643</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F110" t="n">
+        <v>99136.0061</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C111" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26885.0061</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D112" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2855.4997</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2407.5135</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="D114" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="F114" t="n">
+        <v>348163.3725</v>
+      </c>
+      <c r="G114" t="n">
+        <v>181111.2621119199</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="C115" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="F115" t="n">
+        <v>171706.9039</v>
+      </c>
+      <c r="G115" t="n">
+        <v>352818.16601192</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C116" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="D116" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>22080.7375</v>
+      </c>
+      <c r="G116" t="n">
+        <v>374898.90351192</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C117" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F117" t="n">
+        <v>316728.3296</v>
+      </c>
+      <c r="G117" t="n">
+        <v>691627.23311192</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="C118" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="E118" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="F118" t="n">
+        <v>172374.3427</v>
+      </c>
+      <c r="G118" t="n">
+        <v>519252.8904119199</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E119" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F119" t="n">
+        <v>306669.9393</v>
+      </c>
+      <c r="G119" t="n">
+        <v>212582.9511119199</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>14</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14</v>
+      </c>
+      <c r="E120" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F120" t="n">
+        <v>265970.3768</v>
+      </c>
+      <c r="G120" t="n">
+        <v>478553.3279119199</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E121" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F121" t="n">
+        <v>372224.7323</v>
+      </c>
+      <c r="G121" t="n">
+        <v>850778.0602119199</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>359426.3414426966</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1210204.401654616</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5913.7161</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1204290.685554616</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9627.0105</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1213917.696054616</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>198307.4239</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1213917.696054616</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36591.3929</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1177326.303154616</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="D127" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="F127" t="n">
+        <v>63159.7401</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1114166.563054616</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>72</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1114238.563054616</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15319</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1098919.563054616</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>163129.9862</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1262049.549254616</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D131" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5480.9978</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1256568.551454616</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="F132" t="n">
+        <v>36</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1256604.551454616</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="D133" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F133" t="n">
+        <v>98444.8299</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1158159.721554616</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D134" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1150959.721554616</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="D135" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>72</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1151031.721554616</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C136" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D136" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="E136" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F136" t="n">
+        <v>69974.10739999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1081057.614154616</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7130.7468</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1073926.867354616</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C138" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D138" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E138" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F138" t="n">
+        <v>40</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1073966.867354616</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>32068.5436</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1041898.323754616</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D140" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="E140" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8011.536918704513</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1049909.86067332</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="C141" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="D141" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E141" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F141" t="n">
+        <v>169514.8266</v>
+      </c>
+      <c r="G141" t="n">
+        <v>880395.0340733205</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13174.9738</v>
+      </c>
+      <c r="G142" t="n">
+        <v>893570.0078733205</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="F143" t="n">
+        <v>83370.5203</v>
+      </c>
+      <c r="G143" t="n">
+        <v>810199.4875733205</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="C144" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D144" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="E144" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="F144" t="n">
+        <v>48892.3296</v>
+      </c>
+      <c r="G144" t="n">
+        <v>761307.1579733205</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="C145" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D145" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="F145" t="n">
+        <v>37</v>
+      </c>
+      <c r="G145" t="n">
+        <v>761270.1579733205</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="D146" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="F146" t="n">
+        <v>928</v>
+      </c>
+      <c r="G146" t="n">
+        <v>760342.1579733205</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C147" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D147" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="E147" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>13456.5347</v>
+      </c>
+      <c r="G147" t="n">
+        <v>746885.6232733205</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C148" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="E148" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F148" t="n">
+        <v>177043.9834</v>
+      </c>
+      <c r="G148" t="n">
+        <v>746885.6232733205</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E149" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.215</v>
+      </c>
+      <c r="G149" t="n">
+        <v>746922.8382733205</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>29200</v>
+      </c>
+      <c r="G150" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11362.03</v>
+      </c>
+      <c r="G151" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25682.3759</v>
+      </c>
+      <c r="G152" t="n">
+        <v>717722.8382733205</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C153" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D153" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F153" t="n">
+        <v>63686.9389</v>
+      </c>
+      <c r="G153" t="n">
+        <v>781409.7771733204</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C154" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="E154" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4557.3476</v>
+      </c>
+      <c r="G154" t="n">
+        <v>781409.7771733204</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E155" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23070.9384</v>
+      </c>
+      <c r="G155" t="n">
+        <v>804480.7155733204</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C156" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="D156" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E156" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5083.3776</v>
+      </c>
+      <c r="G156" t="n">
+        <v>804480.7155733204</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="C157" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="F157" t="n">
+        <v>41748.1785</v>
+      </c>
+      <c r="G157" t="n">
+        <v>762732.5370733204</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C158" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D158" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20073.9155</v>
+      </c>
+      <c r="G158" t="n">
+        <v>782806.4525733204</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C159" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D159" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2360.5623</v>
+      </c>
+      <c r="G159" t="n">
+        <v>782806.4525733204</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="C160" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15929</v>
+      </c>
+      <c r="G160" t="n">
+        <v>766877.4525733204</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C161" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D161" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E161" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7490.1137</v>
+      </c>
+      <c r="G161" t="n">
+        <v>774367.5662733203</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C162" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D162" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="E162" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="F162" t="n">
+        <v>22200</v>
+      </c>
+      <c r="G162" t="n">
+        <v>752167.5662733203</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C163" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="D163" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E163" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>180283.3834</v>
+      </c>
+      <c r="G163" t="n">
+        <v>571884.1828733203</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="C164" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E164" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>567884.1828733203</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C165" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D165" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F165" t="n">
+        <v>79387.80710000001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>647271.9899733203</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C166" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E166" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>74597.4522</v>
+      </c>
+      <c r="G166" t="n">
+        <v>572674.5377733202</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D167" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="E167" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="F167" t="n">
+        <v>104494.5306</v>
+      </c>
+      <c r="G167" t="n">
+        <v>468180.0071733202</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17850.3551</v>
+      </c>
+      <c r="G168" t="n">
+        <v>486030.3622733202</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8896.5679</v>
+      </c>
+      <c r="G169" t="n">
+        <v>486030.3622733202</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C170" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D170" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E170" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8653.9539</v>
+      </c>
+      <c r="G170" t="n">
+        <v>494684.3161733202</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C171" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D171" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E171" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="F171" t="n">
+        <v>153529.0343</v>
+      </c>
+      <c r="G171" t="n">
+        <v>341155.2818733202</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D172" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E172" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2709.9999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>343865.2817733202</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C173" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D173" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E173" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2714.6058</v>
+      </c>
+      <c r="G173" t="n">
+        <v>346579.8875733202</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C174" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="D174" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F174" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>320579.8875733202</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="C175" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4350</v>
+      </c>
+      <c r="G175" t="n">
+        <v>324929.8875733202</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>13.52</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>13.57</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>13.38</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>13.38</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>13.38</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>13.49</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>13.5</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,22 +759,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +794,21 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>13.35</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +833,21 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>13.38</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +872,21 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>13.44</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +911,21 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>13.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +950,21 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>13.46</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,22 +989,21 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,22 +1028,21 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,20 +1069,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,22 +1104,17 @@
         <v>70616.38735522512</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1198,22 +1139,15 @@
         <v>71416.38735522512</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1238,22 +1172,15 @@
         <v>120534.7504552251</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,22 +1205,15 @@
         <v>153403.3861552251</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1318,22 +1238,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,22 +1271,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1398,22 +1304,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1438,22 +1337,15 @@
         <v>156330.4204552251</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1478,22 +1370,15 @@
         <v>143330.4204552251</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1518,22 +1403,15 @@
         <v>174158.1031552251</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1558,22 +1436,15 @@
         <v>181038.8830552251</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,22 +1469,15 @@
         <v>180669.8830552251</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1638,22 +1502,15 @@
         <v>245669.8830552251</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1678,22 +1535,15 @@
         <v>243069.1249552251</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1718,22 +1568,15 @@
         <v>192034.8809552251</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1758,22 +1601,15 @@
         <v>211336.3161301352</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1798,22 +1634,15 @@
         <v>211336.3161301352</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1838,20 +1667,15 @@
         <v>47565.66623013525</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L36" t="n">
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1876,18 +1700,15 @@
         <v>-3893.605969864751</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1912,18 +1733,15 @@
         <v>20595.36163013525</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1948,18 +1766,15 @@
         <v>-45897.39196986475</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,18 +1799,15 @@
         <v>-38894.78446986475</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2020,18 +1832,15 @@
         <v>-38894.78446986475</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2056,18 +1865,15 @@
         <v>-69530.94966986476</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2094,16 +1900,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2130,16 +1933,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2166,16 +1966,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2200,18 +1997,15 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2238,16 +2032,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2274,16 +2065,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2308,18 +2096,15 @@
         <v>-165662.7079698648</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,18 +2129,15 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2382,16 +2164,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,16 +2197,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2454,16 +2230,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2490,16 +2263,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2526,16 +2296,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2562,16 +2329,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2598,16 +2362,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2634,16 +2395,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2670,16 +2428,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2706,16 +2461,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2742,16 +2494,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2778,16 +2527,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2814,16 +2560,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2850,16 +2593,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2886,16 +2626,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2922,16 +2659,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2958,16 +2692,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2994,16 +2725,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3030,16 +2758,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3066,16 +2791,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3102,16 +2824,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3138,16 +2857,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3174,16 +2890,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3210,16 +2923,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3246,16 +2956,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3282,16 +2989,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3318,16 +3022,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3354,16 +3055,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3390,16 +3088,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3426,16 +3121,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3462,16 +3154,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3498,16 +3187,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3534,16 +3220,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3570,16 +3253,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3606,16 +3286,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3642,16 +3319,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3678,16 +3352,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3714,16 +3385,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3750,16 +3418,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,16 +3451,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3822,16 +3484,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3858,16 +3517,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3894,16 +3550,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3930,16 +3583,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3966,16 +3616,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,16 +3649,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4038,16 +3682,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4074,16 +3715,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4110,16 +3748,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,16 +3781,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4182,16 +3814,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4216,18 +3845,19 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>13.33</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13.33</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4254,16 +3884,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4288,18 +3921,23 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>13.32</v>
+      </c>
+      <c r="J104" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4326,16 +3964,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4362,16 +3997,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4398,16 +4030,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4434,16 +4063,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4470,16 +4096,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4506,16 +4129,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4542,16 +4162,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4578,16 +4195,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4614,16 +4228,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4648,18 +4259,19 @@
         <v>181111.2621119199</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>13.45</v>
+      </c>
+      <c r="J114" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4686,16 +4298,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4722,16 +4337,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4758,16 +4376,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4794,16 +4409,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4830,16 +4442,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4866,16 +4475,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4902,16 +4508,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4936,18 +4539,15 @@
         <v>1210204.401654616</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4972,18 +4572,15 @@
         <v>1204290.685554616</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5008,18 +4605,15 @@
         <v>1213917.696054616</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5046,16 +4640,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5080,18 +4671,15 @@
         <v>1177326.303154616</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5118,16 +4706,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5152,18 +4737,15 @@
         <v>1114238.563054616</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5188,18 +4770,15 @@
         <v>1098919.563054616</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5224,18 +4803,15 @@
         <v>1262049.549254616</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5262,16 +4838,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5296,18 +4869,15 @@
         <v>1256604.551454616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5332,18 +4902,15 @@
         <v>1158159.721554616</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5370,16 +4937,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5406,16 +4970,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5440,18 +5001,15 @@
         <v>1081057.614154616</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5478,16 +5036,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5512,18 +5067,15 @@
         <v>1073966.867354616</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5550,16 +5102,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5586,16 +5135,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5622,16 +5168,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5658,16 +5201,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5694,16 +5234,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5728,18 +5265,15 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5766,16 +5300,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5802,16 +5333,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5838,16 +5366,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5874,16 +5399,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5910,16 +5432,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5946,16 +5465,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5982,16 +5498,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6018,16 +5531,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6054,16 +5564,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6090,16 +5597,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6126,16 +5630,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6162,16 +5663,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6198,16 +5696,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6234,16 +5729,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6270,16 +5762,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6306,16 +5795,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6342,16 +5828,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6378,16 +5861,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6414,16 +5894,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6450,16 +5927,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6486,16 +5960,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6522,16 +5993,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6558,16 +6026,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6594,16 +6059,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6630,16 +6092,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6666,16 +6125,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6702,16 +6158,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6738,16 +6191,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6774,16 +6224,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6810,16 +6257,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6846,18 +6290,15 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>13.52</v>
@@ -523,7 +523,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>13.57</v>
@@ -562,7 +562,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>13.38</v>
@@ -601,7 +601,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>13.38</v>
@@ -640,7 +640,7 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>13.38</v>
@@ -679,7 +679,7 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>13.49</v>
@@ -718,7 +718,7 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>13.5</v>
@@ -759,7 +759,9 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,7 +796,7 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>13.35</v>
@@ -833,7 +835,7 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>13.38</v>
@@ -872,7 +874,7 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>13.44</v>
@@ -911,7 +913,7 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>13.5</v>
@@ -950,7 +952,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>13.46</v>
@@ -989,7 +991,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>13.58</v>
@@ -1028,7 +1030,7 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>13.58</v>
@@ -1104,16 +1106,18 @@
         <v>70616.38735522512</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1139,11 +1143,15 @@
         <v>71416.38735522512</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,11 +1180,15 @@
         <v>120534.7504552251</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1217,15 @@
         <v>153403.3861552251</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1254,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,11 +1291,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1328,15 @@
         <v>127834.2376552251</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1337,11 +1365,15 @@
         <v>156330.4204552251</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1370,11 +1402,15 @@
         <v>143330.4204552251</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1403,11 +1439,15 @@
         <v>174158.1031552251</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1436,11 +1476,15 @@
         <v>181038.8830552251</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1469,11 +1513,15 @@
         <v>180669.8830552251</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,11 +1550,15 @@
         <v>245669.8830552251</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1535,11 +1587,15 @@
         <v>243069.1249552251</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1624,15 @@
         <v>192034.8809552251</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1601,11 +1661,15 @@
         <v>211336.3161301352</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1634,11 +1698,15 @@
         <v>211336.3161301352</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1667,11 +1735,15 @@
         <v>47565.66623013525</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1700,11 +1772,15 @@
         <v>-3893.605969864751</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1733,11 +1809,15 @@
         <v>20595.36163013525</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1846,15 @@
         <v>-45897.39196986475</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1883,15 @@
         <v>-38894.78446986475</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1920,15 @@
         <v>-38894.78446986475</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1865,11 +1957,15 @@
         <v>-69530.94966986476</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1902,7 +1998,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1935,7 +2035,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1968,7 +2072,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1997,11 +2105,15 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2034,7 +2146,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2067,7 +2183,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2096,11 +2216,15 @@
         <v>-165662.7079698648</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2129,11 +2253,15 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2166,7 +2294,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2199,7 +2331,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2232,7 +2368,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2265,7 +2405,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2298,7 +2442,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2331,7 +2479,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2364,7 +2516,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2397,7 +2553,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2430,7 +2590,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2463,7 +2627,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2496,7 +2664,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2529,7 +2701,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2562,7 +2738,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2595,7 +2775,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2812,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2661,7 +2849,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2694,7 +2886,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2727,7 +2923,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2760,7 +2960,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2793,7 +2997,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2826,7 +3034,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2859,7 +3071,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2892,7 +3108,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2925,7 +3145,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2958,7 +3182,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2991,7 +3219,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3024,7 +3256,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3057,7 +3293,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3090,7 +3330,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3123,7 +3367,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3156,7 +3404,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3189,7 +3441,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3222,7 +3478,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3255,7 +3515,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3288,7 +3552,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3321,7 +3589,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3354,7 +3626,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3387,7 +3663,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3420,7 +3700,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3453,7 +3737,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3486,7 +3774,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3519,7 +3811,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3552,7 +3848,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3585,7 +3885,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3618,7 +3922,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3651,7 +3959,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3684,7 +3996,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3717,7 +4033,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3750,7 +4070,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3779,11 +4103,17 @@
         <v>-287978.5821880801</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13.22</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3816,7 +4146,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3845,15 +4179,15 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3885,12 +4219,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>13.33</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3921,17 +4253,13 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="J104" t="n">
-        <v>13.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3966,7 +4294,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3999,7 +4331,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4032,7 +4368,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4065,7 +4405,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4442,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4131,7 +4479,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4164,7 +4516,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4197,7 +4553,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4230,7 +4590,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4259,15 +4623,15 @@
         <v>181111.2621119199</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="J114" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4299,12 +4663,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>13.45</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4338,12 +4700,10 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>13.45</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4378,7 +4738,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4411,7 +4775,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4444,7 +4812,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4477,7 +4849,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4510,7 +4886,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4539,11 +4919,15 @@
         <v>1210204.401654616</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4572,11 +4956,15 @@
         <v>1204290.685554616</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4605,11 +4993,15 @@
         <v>1213917.696054616</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4642,7 +5034,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +5067,15 @@
         <v>1177326.303154616</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4708,7 +5108,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +5141,15 @@
         <v>1114238.563054616</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4770,11 +5178,15 @@
         <v>1098919.563054616</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4803,11 +5215,15 @@
         <v>1262049.549254616</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4840,7 +5256,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +5289,15 @@
         <v>1256604.551454616</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4902,11 +5326,15 @@
         <v>1158159.721554616</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +5367,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4972,7 +5404,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5001,11 +5437,15 @@
         <v>1081057.614154616</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5038,7 +5478,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +5511,15 @@
         <v>1073966.867354616</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +5552,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5137,7 +5589,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5170,7 +5626,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5203,7 +5663,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +5696,16 @@
         <v>810199.4875733205</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5265,7 +5731,7 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5298,7 +5764,7 @@
         <v>761270.1579733205</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5331,7 +5797,7 @@
         <v>760342.1579733205</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5364,7 +5830,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5397,7 +5863,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5430,7 +5896,7 @@
         <v>746922.8382733205</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5463,7 +5929,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5496,7 +5962,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5529,7 +5995,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5562,7 +6028,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5595,7 +6061,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5628,7 +6094,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5661,7 +6127,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5694,7 +6160,7 @@
         <v>762732.5370733204</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5727,7 +6193,7 @@
         <v>782806.4525733204</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5793,7 +6259,7 @@
         <v>766877.4525733204</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5892,7 +6358,7 @@
         <v>571884.1828733203</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5958,7 +6424,7 @@
         <v>647271.9899733203</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5991,7 +6457,7 @@
         <v>572674.5377733202</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6024,7 +6490,7 @@
         <v>468180.0071733202</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6057,7 +6523,7 @@
         <v>486030.3622733202</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6090,7 +6556,7 @@
         <v>486030.3622733202</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6123,7 +6589,7 @@
         <v>494684.3161733202</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6156,7 +6622,7 @@
         <v>341155.2818733202</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6189,7 +6655,7 @@
         <v>343865.2817733202</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6222,7 +6688,7 @@
         <v>346579.8875733202</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6255,7 +6721,7 @@
         <v>320579.8875733202</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6288,7 +6754,7 @@
         <v>324929.8875733202</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6299,6 +6765,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>36477.52809999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13.35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1073,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1221,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1295,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1332,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1369,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1406,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1443,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1480,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1702,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1739,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1813,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1887,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2105,15 +1903,11 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2253,15 +2035,11 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2368,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2516,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2701,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2923,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3034,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3108,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3663,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3700,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3737,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3774,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3811,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3922,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4103,17 +3685,11 @@
         <v>-287978.5821880801</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4142,15 +3718,15 @@
         <v>-280038.5822880801</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4179,13 +3755,17 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13.23</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -4216,13 +3796,17 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="J103" t="n">
+        <v>13.23</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -4257,11 +3841,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4294,11 +3874,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4327,15 +3903,15 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4367,10 +3943,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13.43</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4404,10 +3982,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13.43</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4442,11 +4022,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4475,13 +4051,15 @@
         <v>-167052.1103880801</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>13.45</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4623,9 +4201,11 @@
         <v>181111.2621119199</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>13.45</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -5696,16 +5276,18 @@
         <v>810199.4875733205</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5731,11 +5313,15 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5768,10 +5354,12 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -6094,7 +5682,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6160,7 +5748,7 @@
         <v>762732.5370733204</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6193,7 +5781,7 @@
         <v>782806.4525733204</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6259,7 +5847,7 @@
         <v>766877.4525733204</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6358,7 +5946,7 @@
         <v>571884.1828733203</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6424,7 +6012,7 @@
         <v>647271.9899733203</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6457,7 +6045,7 @@
         <v>572674.5377733202</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6490,7 +6078,7 @@
         <v>468180.0071733202</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6523,7 +6111,7 @@
         <v>486030.3622733202</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +6144,7 @@
         <v>486030.3622733202</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6589,7 +6177,7 @@
         <v>494684.3161733202</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6622,7 +6210,7 @@
         <v>341155.2818733202</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6655,7 +6243,7 @@
         <v>343865.2817733202</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6688,7 +6276,7 @@
         <v>346579.8875733202</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6721,7 +6309,7 @@
         <v>320579.8875733202</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6754,7 +6342,7 @@
         <v>324929.8875733202</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6765,6 +6353,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -451,7 +451,7 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.52</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.57</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.49</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>36477.52809999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.35</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.44</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.46</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.58</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,15 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1071,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1108,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1145,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1182,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1219,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1256,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1293,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1330,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1367,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1404,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1441,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1478,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1515,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1552,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1589,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1626,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1663,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1700,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1737,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1770,16 @@
         <v>-3893.605969864751</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1903,7 +2069,7 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2201,7 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3718,14 +3884,10 @@
         <v>-280038.5822880801</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="J101" t="n">
-        <v>13.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3755,19 +3917,11 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3796,19 +3950,11 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="J103" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3903,14 +4049,10 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="J106" t="n">
-        <v>13.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3943,162 +4085,158 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>13.43</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="C108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F108" t="n">
+        <v>25368.8267</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-281047.37468808</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>113995.2643</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="J109" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F110" t="n">
+        <v>99136.0061</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J110" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C111" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26885.0061</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-167052.1103880801</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
         <v>13.43</v>
       </c>
-      <c r="C108" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="D108" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="E108" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="F108" t="n">
-        <v>25368.8267</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-281047.37468808</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="C109" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D109" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="E109" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="F109" t="n">
-        <v>113995.2643</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-167052.1103880801</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="C110" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D110" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="E110" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="F110" t="n">
-        <v>99136.0061</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-167052.1103880801</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="C111" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D111" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="E111" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="F111" t="n">
-        <v>26885.0061</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-167052.1103880801</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4131,11 +4269,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4164,15 +4298,15 @@
         <v>-167052.1103880801</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J113" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4206,10 +4340,12 @@
       <c r="I114" t="n">
         <v>13.45</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4243,10 +4379,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13.45</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4281,11 +4419,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4452,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4355,11 +4485,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4518,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4551,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4584,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4617,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4650,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4573,15 +4679,11 @@
         <v>1213917.696054616</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4716,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4647,15 +4745,11 @@
         <v>1177326.303154616</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4684,15 +4778,11 @@
         <v>1114166.563054616</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4721,15 +4811,11 @@
         <v>1114238.563054616</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4758,15 +4844,11 @@
         <v>1098919.563054616</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4795,15 +4877,11 @@
         <v>1262049.549254616</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4832,15 +4910,11 @@
         <v>1256568.551454616</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,15 +4943,11 @@
         <v>1256604.551454616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4906,15 +4976,11 @@
         <v>1158159.721554616</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4943,15 +5009,11 @@
         <v>1150959.721554616</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4980,15 +5042,11 @@
         <v>1151031.721554616</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5017,15 +5075,11 @@
         <v>1081057.614154616</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +5112,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +5145,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +5178,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5211,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5244,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5239,15 +5273,11 @@
         <v>893570.0078733205</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5276,15 +5306,11 @@
         <v>810199.4875733205</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5313,15 +5339,11 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5350,16 +5372,14 @@
         <v>761270.1579733205</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5451,7 +5471,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5484,7 +5504,7 @@
         <v>746922.8382733205</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5517,7 +5537,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5550,7 +5570,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5583,7 +5603,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5616,7 +5636,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5649,7 +5669,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5715,7 +5735,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest CMT.xlsx
+++ b/BackTest/2020-01-23 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>33660.77889999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>17937.973</v>
       </c>
       <c r="G3" t="n">
-        <v>51598.75189999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>13.52</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>8035.2238</v>
       </c>
       <c r="G4" t="n">
-        <v>43563.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>13.57</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>43563.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>13.38</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>17478.0666</v>
       </c>
       <c r="G6" t="n">
-        <v>43563.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>13.38</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +617,21 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>43663.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>13.38</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +653,21 @@
         <v>10104</v>
       </c>
       <c r="G8" t="n">
-        <v>53767.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>13.49</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +689,19 @@
         <v>4290</v>
       </c>
       <c r="G9" t="n">
-        <v>49477.52809999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +723,21 @@
         <v>13000</v>
       </c>
       <c r="G10" t="n">
-        <v>36477.52809999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>13.4</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +759,21 @@
         <v>37.51</v>
       </c>
       <c r="G11" t="n">
-        <v>36515.03809999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>13.35</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +795,21 @@
         <v>8574.501899999999</v>
       </c>
       <c r="G12" t="n">
-        <v>45089.53999999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
         <v>13.38</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +831,19 @@
         <v>15361</v>
       </c>
       <c r="G13" t="n">
-        <v>60450.53999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +865,19 @@
         <v>2336.9829</v>
       </c>
       <c r="G14" t="n">
-        <v>58113.55709999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +899,19 @@
         <v>2342</v>
       </c>
       <c r="G15" t="n">
-        <v>60455.55709999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +933,19 @@
         <v>85969.78914886447</v>
       </c>
       <c r="G16" t="n">
-        <v>60455.55709999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,22 +967,19 @@
         <v>160592.1610784135</v>
       </c>
       <c r="G17" t="n">
-        <v>221047.7181784135</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1064,22 +1001,19 @@
         <v>38802.45072318841</v>
       </c>
       <c r="G18" t="n">
-        <v>182245.2674552251</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1101,22 +1035,19 @@
         <v>111628.8801</v>
       </c>
       <c r="G19" t="n">
-        <v>70616.38735522512</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1138,22 +1069,19 @@
         <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>71416.38735522512</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1175,22 +1103,19 @@
         <v>49118.3631</v>
       </c>
       <c r="G21" t="n">
-        <v>120534.7504552251</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,22 +1137,19 @@
         <v>32868.6357</v>
       </c>
       <c r="G22" t="n">
-        <v>153403.3861552251</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1249,22 +1171,19 @@
         <v>25569.1485</v>
       </c>
       <c r="G23" t="n">
-        <v>127834.2376552251</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,22 +1205,19 @@
         <v>8690</v>
       </c>
       <c r="G24" t="n">
-        <v>127834.2376552251</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1323,22 +1239,19 @@
         <v>3295.1574</v>
       </c>
       <c r="G25" t="n">
-        <v>127834.2376552251</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,22 +1273,19 @@
         <v>28496.1828</v>
       </c>
       <c r="G26" t="n">
-        <v>156330.4204552251</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1397,22 +1307,19 @@
         <v>13000</v>
       </c>
       <c r="G27" t="n">
-        <v>143330.4204552251</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,22 +1341,19 @@
         <v>30827.6827</v>
       </c>
       <c r="G28" t="n">
-        <v>174158.1031552251</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1471,22 +1375,19 @@
         <v>6880.7799</v>
       </c>
       <c r="G29" t="n">
-        <v>181038.8830552251</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,22 +1409,19 @@
         <v>369</v>
       </c>
       <c r="G30" t="n">
-        <v>180669.8830552251</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1545,22 +1443,19 @@
         <v>65000</v>
       </c>
       <c r="G31" t="n">
-        <v>245669.8830552251</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,22 +1477,19 @@
         <v>2600.7581</v>
       </c>
       <c r="G32" t="n">
-        <v>243069.1249552251</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1619,22 +1511,19 @@
         <v>51034.244</v>
       </c>
       <c r="G33" t="n">
-        <v>192034.8809552251</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1656,22 +1545,19 @@
         <v>19301.43517491014</v>
       </c>
       <c r="G34" t="n">
-        <v>211336.3161301352</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1693,22 +1579,19 @@
         <v>89794.3173</v>
       </c>
       <c r="G35" t="n">
-        <v>211336.3161301352</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1730,22 +1613,17 @@
         <v>163770.6499</v>
       </c>
       <c r="G36" t="n">
-        <v>47565.66623013525</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1767,20 +1645,15 @@
         <v>51459.2722</v>
       </c>
       <c r="G37" t="n">
-        <v>-3893.605969864751</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K37" t="n">
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1802,18 +1675,15 @@
         <v>24488.9676</v>
       </c>
       <c r="G38" t="n">
-        <v>20595.36163013525</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1835,18 +1705,15 @@
         <v>66492.7536</v>
       </c>
       <c r="G39" t="n">
-        <v>-45897.39196986475</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1868,18 +1735,15 @@
         <v>7002.6075</v>
       </c>
       <c r="G40" t="n">
-        <v>-38894.78446986475</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1901,18 +1765,15 @@
         <v>3673.8052</v>
       </c>
       <c r="G41" t="n">
-        <v>-38894.78446986475</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,18 +1795,15 @@
         <v>30636.1652</v>
       </c>
       <c r="G42" t="n">
-        <v>-69530.94966986476</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,18 +1825,15 @@
         <v>80429.7892</v>
       </c>
       <c r="G43" t="n">
-        <v>-149960.7388698648</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2000,18 +1855,15 @@
         <v>9830.179400000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-140130.5594698648</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2033,18 +1885,15 @@
         <v>25569.1485</v>
       </c>
       <c r="G45" t="n">
-        <v>-165699.7079698648</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2066,18 +1915,15 @@
         <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>-164699.7079698648</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2099,18 +1945,15 @@
         <v>83251.7939</v>
       </c>
       <c r="G47" t="n">
-        <v>-164699.7079698648</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,18 +1975,15 @@
         <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>-165699.7079698648</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2165,18 +2005,15 @@
         <v>37</v>
       </c>
       <c r="G49" t="n">
-        <v>-165662.7079698648</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2198,18 +2035,15 @@
         <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>-166162.7079698648</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2231,18 +2065,15 @@
         <v>3111</v>
       </c>
       <c r="G51" t="n">
-        <v>-169273.7079698648</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2264,18 +2095,15 @@
         <v>282.1414</v>
       </c>
       <c r="G52" t="n">
-        <v>-168991.5665698648</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2297,18 +2125,15 @@
         <v>22410</v>
       </c>
       <c r="G53" t="n">
-        <v>-191401.5665698648</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,18 +2155,15 @@
         <v>13000</v>
       </c>
       <c r="G54" t="n">
-        <v>-204401.5665698648</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2363,18 +2185,15 @@
         <v>182911.5606</v>
       </c>
       <c r="G55" t="n">
-        <v>-21490.00596986478</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2396,18 +2215,15 @@
         <v>16891.1965</v>
       </c>
       <c r="G56" t="n">
-        <v>-38381.20246986478</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2429,18 +2245,15 @@
         <v>7525.7711</v>
       </c>
       <c r="G57" t="n">
-        <v>-45906.97356986478</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2462,18 +2275,15 @@
         <v>37</v>
       </c>
       <c r="G58" t="n">
-        <v>-45869.97356986478</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2495,18 +2305,15 @@
         <v>22410</v>
       </c>
       <c r="G59" t="n">
-        <v>-68279.97356986479</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,18 +2335,15 @@
         <v>22384.244</v>
       </c>
       <c r="G60" t="n">
-        <v>-90664.21756986479</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2561,18 +2365,15 @@
         <v>1103.0113</v>
       </c>
       <c r="G61" t="n">
-        <v>-89561.20626986479</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2594,18 +2395,15 @@
         <v>81779.2651</v>
       </c>
       <c r="G62" t="n">
-        <v>-171340.4713698648</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2627,18 +2425,15 @@
         <v>1900</v>
       </c>
       <c r="G63" t="n">
-        <v>-173240.4713698648</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2660,18 +2455,15 @@
         <v>1471</v>
       </c>
       <c r="G64" t="n">
-        <v>-171769.4713698648</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2693,18 +2485,15 @@
         <v>1.5288</v>
       </c>
       <c r="G65" t="n">
-        <v>-171769.4713698648</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2726,18 +2515,15 @@
         <v>1103.0113</v>
       </c>
       <c r="G66" t="n">
-        <v>-170666.4600698648</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2759,18 +2545,15 @@
         <v>37</v>
       </c>
       <c r="G67" t="n">
-        <v>-170629.4600698648</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,18 +2575,15 @@
         <v>89543.5722</v>
       </c>
       <c r="G68" t="n">
-        <v>-260173.0322698648</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,18 +2605,15 @@
         <v>51425.2101</v>
       </c>
       <c r="G69" t="n">
-        <v>-311598.2423698648</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,18 +2635,15 @@
         <v>4890.1917</v>
       </c>
       <c r="G70" t="n">
-        <v>-311598.2423698648</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2891,18 +2665,15 @@
         <v>8194.324699999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-319792.5670698648</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,18 +2695,15 @@
         <v>196</v>
       </c>
       <c r="G72" t="n">
-        <v>-319792.5670698648</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2957,18 +2725,15 @@
         <v>5167.168701892285</v>
       </c>
       <c r="G73" t="n">
-        <v>-314625.3983679725</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2990,18 +2755,15 @@
         <v>9849.43</v>
       </c>
       <c r="G74" t="n">
-        <v>-304775.9683679725</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3023,18 +2785,15 @@
         <v>140600</v>
       </c>
       <c r="G75" t="n">
-        <v>-445375.9683679725</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,18 +2815,15 @@
         <v>17443.7442</v>
       </c>
       <c r="G76" t="n">
-        <v>-427932.2241679725</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3089,18 +2845,15 @@
         <v>2454.47</v>
       </c>
       <c r="G77" t="n">
-        <v>-430386.6941679724</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,18 +2875,15 @@
         <v>5470.6125</v>
       </c>
       <c r="G78" t="n">
-        <v>-424916.0816679724</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3155,18 +2905,15 @@
         <v>32016.7558</v>
       </c>
       <c r="G79" t="n">
-        <v>-456932.8374679724</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3188,18 +2935,15 @@
         <v>37</v>
       </c>
       <c r="G80" t="n">
-        <v>-456895.8374679724</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3221,18 +2965,15 @@
         <v>4330</v>
       </c>
       <c r="G81" t="n">
-        <v>-461225.8374679724</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3254,18 +2995,15 @@
         <v>10202.9816</v>
       </c>
       <c r="G82" t="n">
-        <v>-461225.8374679724</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3287,18 +3025,15 @@
         <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>-461188.8374679724</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3320,18 +3055,15 @@
         <v>6209</v>
       </c>
       <c r="G84" t="n">
-        <v>-467397.8374679724</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,18 +3085,15 @@
         <v>12725.1908</v>
       </c>
       <c r="G85" t="n">
-        <v>-467397.8374679724</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3386,18 +3115,15 @@
         <v>10202.9816</v>
       </c>
       <c r="G86" t="n">
-        <v>-477600.8190679724</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3419,18 +3145,15 @@
         <v>227433.5703139535</v>
       </c>
       <c r="G87" t="n">
-        <v>-250167.2487540189</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3452,18 +3175,15 @@
         <v>655.0218340611353</v>
       </c>
       <c r="G88" t="n">
-        <v>-250822.27058808</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3485,18 +3205,15 @@
         <v>6380</v>
       </c>
       <c r="G89" t="n">
-        <v>-257202.27058808</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3518,18 +3235,15 @@
         <v>2310</v>
       </c>
       <c r="G90" t="n">
-        <v>-254892.27058808</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3551,18 +3265,15 @@
         <v>891.6481</v>
       </c>
       <c r="G91" t="n">
-        <v>-255783.91868808</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3584,18 +3295,15 @@
         <v>96049.5089</v>
       </c>
       <c r="G92" t="n">
-        <v>-159734.40978808</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3617,18 +3325,15 @@
         <v>166223.6837</v>
       </c>
       <c r="G93" t="n">
-        <v>-325958.09348808</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3650,18 +3355,15 @@
         <v>92886.8305</v>
       </c>
       <c r="G94" t="n">
-        <v>-233071.26298808</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3683,18 +3385,15 @@
         <v>99.88290000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-233171.14588808</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3716,18 +3415,15 @@
         <v>69250.1171</v>
       </c>
       <c r="G96" t="n">
-        <v>-302421.26298808</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3749,18 +3445,15 @@
         <v>81139</v>
       </c>
       <c r="G97" t="n">
-        <v>-221282.26298808</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3782,18 +3475,15 @@
         <v>124055.9172</v>
       </c>
       <c r="G98" t="n">
-        <v>-345338.1801880801</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3815,18 +3505,15 @@
         <v>68805.3872</v>
       </c>
       <c r="G99" t="n">
-        <v>-414143.5673880801</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3848,18 +3535,15 @@
         <v>126164.9852</v>
       </c>
       <c r="G100" t="n">
-        <v>-287978.5821880801</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3881,18 +3565,15 @@
         <v>7939.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>-280038.5822880801</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3914,18 +3595,19 @@
         <v>1046.7924</v>
       </c>
       <c r="G102" t="n">
-        <v>-281085.37468808</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>13.33</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13.33</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3947,18 +3629,21 @@
         <v>8574.501899999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-281085.37468808</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3980,18 +3665,23 @@
         <v>38</v>
       </c>
       <c r="G104" t="n">
-        <v>-281047.37468808</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>13.32</v>
+      </c>
+      <c r="I104" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4013,18 +3703,15 @@
         <v>46230.6194</v>
       </c>
       <c r="G105" t="n">
-        <v>-281047.37468808</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4046,18 +3733,15 @@
         <v>33000</v>
       </c>
       <c r="G106" t="n">
-        <v>-281047.37468808</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4079,18 +3763,15 @@
         <v>9395.8182</v>
       </c>
       <c r="G107" t="n">
-        <v>-281047.37468808</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4112,18 +3793,15 @@
         <v>25368.8267</v>
       </c>
       <c r="G108" t="n">
-        <v>-281047.37468808</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4145,22 +3823,19 @@
         <v>113995.2643</v>
       </c>
       <c r="G109" t="n">
-        <v>-167052.1103880801</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>13.43</v>
       </c>
       <c r="I109" t="n">
         <v>13.43</v>
       </c>
-      <c r="J109" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4182,26 +3857,23 @@
         <v>99136.0061</v>
       </c>
       <c r="G110" t="n">
-        <v>-167052.1103880801</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>13.45</v>
       </c>
       <c r="I110" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="J110" t="n">
         <v>13.43</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4223,24 +3895,23 @@
         <v>26885.0061</v>
       </c>
       <c r="G111" t="n">
-        <v>-167052.1103880801</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I111" t="n">
         <v>13.43</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4262,18 +3933,19 @@
         <v>2855.4997</v>
       </c>
       <c r="G112" t="n">
-        <v>-167052.1103880801</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>13.45</v>
+      </c>
+      <c r="I112" t="n">
+        <v>13.45</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4295,22 +3967,23 @@
         <v>2407.5135</v>
       </c>
       <c r="G113" t="n">
-        <v>-167052.1103880801</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>13.45</v>
       </c>
       <c r="I113" t="n">
         <v>13.45</v>
       </c>
-      <c r="J113" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4332,26 +4005,23 @@
         <v>348163.3725</v>
       </c>
       <c r="G114" t="n">
-        <v>181111.2621119199</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>13.45</v>
       </c>
       <c r="I114" t="n">
         <v>13.45</v>
       </c>
-      <c r="J114" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4373,24 +4043,23 @@
         <v>171706.9039</v>
       </c>
       <c r="G115" t="n">
-        <v>352818.16601192</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="I115" t="n">
         <v>13.45</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4412,18 +4081,21 @@
         <v>22080.7375</v>
       </c>
       <c r="G116" t="n">
-        <v>374898.90351192</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4445,18 +4117,21 @@
         <v>316728.3296</v>
       </c>
       <c r="G117" t="n">
-        <v>691627.23311192</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4478,18 +4153,21 @@
         <v>172374.3427</v>
       </c>
       <c r="G118" t="n">
-        <v>519252.8904119199</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4511,18 +4189,21 @@
         <v>306669.9393</v>
       </c>
       <c r="G119" t="n">
-        <v>212582.9511119199</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4544,18 +4225,21 @@
         <v>265970.3768</v>
       </c>
       <c r="G120" t="n">
-        <v>478553.3279119199</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4577,18 +4261,21 @@
         <v>372224.7323</v>
       </c>
       <c r="G121" t="n">
-        <v>850778.0602119199</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4610,18 +4297,21 @@
         <v>359426.3414426966</v>
       </c>
       <c r="G122" t="n">
-        <v>1210204.401654616</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4643,18 +4333,21 @@
         <v>5913.7161</v>
       </c>
       <c r="G123" t="n">
-        <v>1204290.685554616</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4676,18 +4369,21 @@
         <v>9627.0105</v>
       </c>
       <c r="G124" t="n">
-        <v>1213917.696054616</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4709,18 +4405,21 @@
         <v>198307.4239</v>
       </c>
       <c r="G125" t="n">
-        <v>1213917.696054616</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4742,18 +4441,21 @@
         <v>36591.3929</v>
       </c>
       <c r="G126" t="n">
-        <v>1177326.303154616</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1.047788104089219</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4775,18 +4477,15 @@
         <v>63159.7401</v>
       </c>
       <c r="G127" t="n">
-        <v>1114166.563054616</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4808,18 +4507,15 @@
         <v>72</v>
       </c>
       <c r="G128" t="n">
-        <v>1114238.563054616</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4841,18 +4537,15 @@
         <v>15319</v>
       </c>
       <c r="G129" t="n">
-        <v>1098919.563054616</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4874,18 +4567,15 @@
         <v>163129.9862</v>
       </c>
       <c r="G130" t="n">
-        <v>1262049.549254616</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4907,18 +4597,15 @@
         <v>5480.9978</v>
       </c>
       <c r="G131" t="n">
-        <v>1256568.551454616</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4940,18 +4627,15 @@
         <v>36</v>
       </c>
       <c r="G132" t="n">
-        <v>1256604.551454616</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4973,18 +4657,15 @@
         <v>98444.8299</v>
       </c>
       <c r="G133" t="n">
-        <v>1158159.721554616</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5006,18 +4687,15 @@
         <v>7200</v>
       </c>
       <c r="G134" t="n">
-        <v>1150959.721554616</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5039,18 +4717,15 @@
         <v>72</v>
       </c>
       <c r="G135" t="n">
-        <v>1151031.721554616</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5072,18 +4747,15 @@
         <v>69974.10739999999</v>
       </c>
       <c r="G136" t="n">
-        <v>1081057.614154616</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5105,18 +4777,15 @@
         <v>7130.7468</v>
       </c>
       <c r="G137" t="n">
-        <v>1073926.867354616</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5138,18 +4807,15 @@
         <v>40</v>
       </c>
       <c r="G138" t="n">
-        <v>1073966.867354616</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5171,18 +4837,15 @@
         <v>32068.5436</v>
       </c>
       <c r="G139" t="n">
-        <v>1041898.323754616</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5204,18 +4867,15 @@
         <v>8011.536918704513</v>
       </c>
       <c r="G140" t="n">
-        <v>1049909.86067332</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5237,18 +4897,15 @@
         <v>169514.8266</v>
       </c>
       <c r="G141" t="n">
-        <v>880395.0340733205</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5270,18 +4927,15 @@
         <v>13174.9738</v>
       </c>
       <c r="G142" t="n">
-        <v>893570.0078733205</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5303,18 +4957,15 @@
         <v>83370.5203</v>
       </c>
       <c r="G143" t="n">
-        <v>810199.4875733205</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5336,18 +4987,15 @@
         <v>48892.3296</v>
       </c>
       <c r="G144" t="n">
-        <v>761307.1579733205</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5369,18 +5017,15 @@
         <v>37</v>
       </c>
       <c r="G145" t="n">
-        <v>761270.1579733205</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5402,18 +5047,15 @@
         <v>928</v>
       </c>
       <c r="G146" t="n">
-        <v>760342.1579733205</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5435,18 +5077,15 @@
         <v>13456.5347</v>
       </c>
       <c r="G147" t="n">
-        <v>746885.6232733205</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5468,18 +5107,15 @@
         <v>177043.9834</v>
       </c>
       <c r="G148" t="n">
-        <v>746885.6232733205</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5501,18 +5137,15 @@
         <v>37.215</v>
       </c>
       <c r="G149" t="n">
-        <v>746922.8382733205</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5534,18 +5167,15 @@
         <v>29200</v>
       </c>
       <c r="G150" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5567,18 +5197,15 @@
         <v>11362.03</v>
       </c>
       <c r="G151" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5600,18 +5227,15 @@
         <v>25682.3759</v>
       </c>
       <c r="G152" t="n">
-        <v>717722.8382733205</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5633,18 +5257,15 @@
         <v>63686.9389</v>
       </c>
       <c r="G153" t="n">
-        <v>781409.7771733204</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5666,18 +5287,15 @@
         <v>4557.3476</v>
       </c>
       <c r="G154" t="n">
-        <v>781409.7771733204</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5699,18 +5317,15 @@
         <v>23070.9384</v>
       </c>
       <c r="G155" t="n">
-        <v>804480.7155733204</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5732,18 +5347,15 @@
         <v>5083.3776</v>
       </c>
       <c r="G156" t="n">
-        <v>804480.7155733204</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5765,18 +5377,15 @@
         <v>41748.1785</v>
       </c>
       <c r="G157" t="n">
-        <v>762732.5370733204</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5798,18 +5407,15 @@
         <v>20073.9155</v>
       </c>
       <c r="G158" t="n">
-        <v>782806.4525733204</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5831,18 +5437,15 @@
         <v>2360.5623</v>
       </c>
       <c r="G159" t="n">
-        <v>782806.4525733204</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5864,18 +5467,15 @@
         <v>15929</v>
       </c>
       <c r="G160" t="n">
-        <v>766877.4525733204</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5897,18 +5497,15 @@
         <v>7490.1137</v>
       </c>
       <c r="G161" t="n">
-        <v>774367.5662733203</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5930,18 +5527,15 @@
         <v>22200</v>
       </c>
       <c r="G162" t="n">
-        <v>752167.5662733203</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5963,18 +5557,15 @@
         <v>180283.3834</v>
       </c>
       <c r="G163" t="n">
-        <v>571884.1828733203</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5996,18 +5587,15 @@
         <v>4000</v>
       </c>
       <c r="G164" t="n">
-        <v>567884.1828733203</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6029,18 +5617,15 @@
         <v>79387.80710000001</v>
       </c>
       <c r="G165" t="n">
-        <v>647271.9899733203</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6062,18 +5647,15 @@
         <v>74597.4522</v>
       </c>
       <c r="G166" t="n">
-        <v>572674.5377733202</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6095,18 +5677,15 @@
         <v>104494.5306</v>
       </c>
       <c r="G167" t="n">
-        <v>468180.0071733202</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6128,18 +5707,15 @@
         <v>17850.3551</v>
       </c>
       <c r="G168" t="n">
-        <v>486030.3622733202</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6161,18 +5737,15 @@
         <v>8896.5679</v>
       </c>
       <c r="G169" t="n">
-        <v>486030.3622733202</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6194,18 +5767,15 @@
         <v>8653.9539</v>
       </c>
       <c r="G170" t="n">
-        <v>494684.3161733202</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6227,18 +5797,15 @@
         <v>153529.0343</v>
       </c>
       <c r="G171" t="n">
-        <v>341155.2818733202</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6260,18 +5827,19 @@
         <v>2709.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>343865.2817733202</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>13.21</v>
+      </c>
+      <c r="I172" t="n">
+        <v>13.21</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6293,18 +5861,23 @@
         <v>2714.6058</v>
       </c>
       <c r="G173" t="n">
-        <v>346579.8875733202</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>13.23</v>
+      </c>
+      <c r="I173" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6326,18 +5899,23 @@
         <v>26000</v>
       </c>
       <c r="G174" t="n">
-        <v>320579.8875733202</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>13.25</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6359,18 +5937,23 @@
         <v>4350</v>
       </c>
       <c r="G175" t="n">
-        <v>324929.8875733202</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>13.16</v>
+      </c>
+      <c r="I175" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
